--- a/INTC.xlsx
+++ b/INTC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D81F94C-9A82-48E3-859D-858A3F522623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB79729-9F3E-4CF2-8001-9ED2ECC75063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23790" yWindow="1155" windowWidth="21330" windowHeight="18870" xr2:uid="{2060C4C8-3805-4E23-AE6B-F728D7027876}"/>
+    <workbookView xWindow="-50610" yWindow="690" windowWidth="32715" windowHeight="15345" xr2:uid="{2060C4C8-3805-4E23-AE6B-F728D7027876}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="146">
   <si>
     <t>Price</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>MOSFET - metal-oxide smiconductor field-effect transistor</t>
+  </si>
+  <si>
+    <t>Lunar Lake - SOC/laptop (battle mage)</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -554,12 +557,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -582,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -619,10 +616,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1067,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345AE7DF-8440-4CDE-A9CC-8CE68EF0CE24}">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1083,7 +1078,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
+      <c r="B3" t="s">
         <v>106</v>
       </c>
       <c r="K3" t="s">
@@ -1156,6 +1151,9 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -2029,75 +2027,75 @@
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
-      <c r="AA12" s="21">
+      <c r="AA12" s="20">
         <f>+AA22/AA11</f>
         <v>147.91806020066889</v>
       </c>
-      <c r="AB12" s="21">
+      <c r="AB12" s="20">
         <f t="shared" ref="AB12:AR12" si="5">+AB22/AB11</f>
         <v>140.7010460634979</v>
       </c>
-      <c r="AC12" s="21">
+      <c r="AC12" s="20">
         <f t="shared" si="5"/>
         <v>129.2503438789546</v>
       </c>
-      <c r="AD12" s="21">
+      <c r="AD12" s="20">
         <f t="shared" si="5"/>
         <v>113.92294220665499</v>
       </c>
-      <c r="AE12" s="21">
+      <c r="AE12" s="20">
         <f t="shared" si="5"/>
         <v>124.31746936449132</v>
       </c>
-      <c r="AF12" s="21">
+      <c r="AF12" s="20">
         <f t="shared" si="5"/>
         <v>147.79669367199475</v>
       </c>
-      <c r="AG12" s="21">
+      <c r="AG12" s="20">
         <f t="shared" si="5"/>
         <v>151.94268785962512</v>
       </c>
-      <c r="AH12" s="21">
+      <c r="AH12" s="20">
         <f t="shared" si="5"/>
         <v>166.5865992414665</v>
       </c>
-      <c r="AI12" s="21">
+      <c r="AI12" s="20">
         <f t="shared" si="5"/>
         <v>178.11145116041826</v>
       </c>
-      <c r="AJ12" s="21">
+      <c r="AJ12" s="20">
         <f t="shared" si="5"/>
         <v>192.41865962180199</v>
       </c>
-      <c r="AK12" s="21">
+      <c r="AK12" s="20">
         <f t="shared" si="5"/>
         <v>220.19651464590285</v>
       </c>
-      <c r="AL12" s="21">
+      <c r="AL12" s="20">
         <f t="shared" si="5"/>
         <v>238.99847677075397</v>
       </c>
-      <c r="AM12" s="21">
+      <c r="AM12" s="20">
         <f t="shared" si="5"/>
         <v>272.80708509819021</v>
       </c>
-      <c r="AN12" s="21">
+      <c r="AN12" s="20">
         <f t="shared" si="5"/>
         <v>274.10017139592458</v>
       </c>
-      <c r="AO12" s="21">
+      <c r="AO12" s="20">
         <f t="shared" si="5"/>
         <v>251.93153876019156</v>
       </c>
-      <c r="AP12" s="21">
+      <c r="AP12" s="20">
         <f t="shared" si="5"/>
         <v>231.24689082023818</v>
       </c>
-      <c r="AQ12" s="21">
+      <c r="AQ12" s="20">
         <f t="shared" si="5"/>
         <v>221.9820454145397</v>
       </c>
-      <c r="AR12" s="21">
+      <c r="AR12" s="20">
         <f t="shared" si="5"/>
         <v>224.18454669477862</v>
       </c>
@@ -2322,16 +2320,15 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
-      <c r="AO21" s="20">
+      <c r="AO21" s="2">
         <v>24900</v>
       </c>
-      <c r="AP21" s="20">
+      <c r="AP21" s="2">
         <v>25400</v>
       </c>
-      <c r="AQ21" s="20">
+      <c r="AQ21" s="2">
         <v>18800</v>
       </c>
-      <c r="AR21" s="20"/>
     </row>
     <row r="22" spans="2:134" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
@@ -2613,11 +2610,11 @@
       <c r="AQ23" s="2">
         <v>36188</v>
       </c>
-      <c r="AR23" s="20">
+      <c r="AR23" s="2">
         <f>SUM(O23:R23)</f>
         <v>32517</v>
       </c>
-      <c r="AS23" s="20">
+      <c r="AS23" s="2">
         <f>SUM(S23:V23)</f>
         <v>31912.239999999998</v>
       </c>
@@ -2663,27 +2660,27 @@
         <v>5500</v>
       </c>
       <c r="O24" s="5">
-        <f>+O22-O23</f>
+        <f t="shared" ref="O24:T24" si="8">+O22-O23</f>
         <v>4008</v>
       </c>
       <c r="P24" s="5">
-        <f>+P22-P23</f>
+        <f t="shared" si="8"/>
         <v>4638</v>
       </c>
       <c r="Q24" s="5">
-        <f>+Q22-Q23</f>
+        <f t="shared" si="8"/>
         <v>6018</v>
       </c>
       <c r="R24" s="5">
-        <f>+R22-R23</f>
+        <f t="shared" si="8"/>
         <v>7047</v>
       </c>
       <c r="S24" s="5">
-        <f>+S22-S23</f>
+        <f t="shared" si="8"/>
         <v>5217</v>
       </c>
       <c r="T24" s="5">
-        <f>+T22-T23</f>
+        <f t="shared" si="8"/>
         <v>4547</v>
       </c>
       <c r="U24" s="5">
@@ -2713,66 +2710,66 @@
         <v>20844</v>
       </c>
       <c r="AD24" s="2">
-        <f t="shared" ref="AD24" si="8">+AD22-AD23</f>
+        <f t="shared" ref="AD24" si="9">+AD22-AD23</f>
         <v>19561</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" ref="AE24" si="9">+AE22-AE23</f>
+        <f t="shared" ref="AE24" si="10">+AE22-AE23</f>
         <v>28491</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" ref="AF24" si="10">+AF22-AF23</f>
+        <f t="shared" ref="AF24" si="11">+AF22-AF23</f>
         <v>33757</v>
       </c>
       <c r="AG24" s="2">
-        <f t="shared" ref="AG24" si="11">+AG22-AG23</f>
+        <f t="shared" ref="AG24" si="12">+AG22-AG23</f>
         <v>33151</v>
       </c>
       <c r="AH24" s="2">
-        <f t="shared" ref="AH24:AQ24" si="12">+AH22-AH23</f>
+        <f t="shared" ref="AH24:AQ24" si="13">+AH22-AH23</f>
         <v>31521</v>
       </c>
       <c r="AI24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>35609</v>
       </c>
       <c r="AJ24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>34679</v>
       </c>
       <c r="AK24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>36191</v>
       </c>
       <c r="AL24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39069</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43737</v>
       </c>
       <c r="AN24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42140</v>
       </c>
       <c r="AO24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43612</v>
       </c>
       <c r="AP24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43815</v>
       </c>
       <c r="AQ24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>26866</v>
       </c>
       <c r="AR24" s="2">
         <f>+AR22-AR23</f>
         <v>21711</v>
       </c>
-      <c r="AS24" s="20">
+      <c r="AS24" s="2">
         <f>SUM(S24:V24)</f>
         <v>20510.16</v>
       </c>
@@ -2927,56 +2924,56 @@
       <c r="AQ25" s="2">
         <v>17528</v>
       </c>
-      <c r="AR25" s="20">
+      <c r="AR25" s="2">
         <f>SUM(O25:R25)</f>
         <v>16046</v>
       </c>
-      <c r="AS25" s="20">
+      <c r="AS25" s="2">
         <f>SUM(S25:V25)</f>
         <v>16371</v>
       </c>
       <c r="AT25" s="2">
-        <f t="shared" ref="AS25:BD25" si="13">+AS25*1.03</f>
+        <f t="shared" ref="AT25:BD25" si="14">+AS25*1.03</f>
         <v>16862.13</v>
       </c>
       <c r="AU25" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17367.993900000001</v>
       </c>
       <c r="AV25" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17889.033717000002</v>
       </c>
       <c r="AW25" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18425.704728510002</v>
       </c>
       <c r="AX25" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18978.475870365302</v>
       </c>
       <c r="AY25" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19547.830146476263</v>
       </c>
       <c r="AZ25" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20134.265050870552</v>
       </c>
       <c r="BA25" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20738.293002396669</v>
       </c>
       <c r="BB25" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21360.441792468569</v>
       </c>
       <c r="BC25" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22001.255046242626</v>
       </c>
       <c r="BD25" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22661.292697629906</v>
       </c>
     </row>
@@ -3086,56 +3083,56 @@
       <c r="AQ26" s="2">
         <v>7002</v>
       </c>
-      <c r="AR26" s="20">
+      <c r="AR26" s="2">
         <f>SUM(O26:R26)</f>
         <v>5634</v>
       </c>
-      <c r="AS26" s="20">
+      <c r="AS26" s="2">
         <f>SUM(S26:V26)</f>
         <v>5035</v>
       </c>
       <c r="AT26" s="2">
-        <f t="shared" ref="AS26:BD26" si="14">+AS26*1.03</f>
+        <f t="shared" ref="AT26:BD26" si="15">+AS26*1.03</f>
         <v>5186.05</v>
       </c>
       <c r="AU26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5341.6315000000004</v>
       </c>
       <c r="AV26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5501.8804450000007</v>
       </c>
       <c r="AW26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5666.9368583500009</v>
       </c>
       <c r="AX26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5836.9449641005012</v>
       </c>
       <c r="AY26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6012.0533130235162</v>
       </c>
       <c r="AZ26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6192.4149124142223</v>
       </c>
       <c r="BA26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6378.1873597866488</v>
       </c>
       <c r="BB26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6569.5329805802485</v>
       </c>
       <c r="BC26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6766.6189699976558</v>
       </c>
       <c r="BD26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6969.6175390975859</v>
       </c>
     </row>
@@ -3144,67 +3141,67 @@
         <v>29</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" ref="G27:N27" si="15">+G25+G26</f>
+        <f t="shared" ref="G27:N27" si="16">+G25+G26</f>
         <v>4951</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5314</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5477</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5991</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6114</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6200</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6046</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6170</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" ref="O27" si="16">+O25+O26</f>
+        <f t="shared" ref="O27" si="17">+O25+O26</f>
         <v>5412</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" ref="P27" si="17">+P25+P26</f>
+        <f t="shared" ref="P27" si="18">+P25+P26</f>
         <v>5454</v>
       </c>
       <c r="Q27" s="5">
-        <f t="shared" ref="Q27" si="18">+Q25+Q26</f>
+        <f t="shared" ref="Q27" si="19">+Q25+Q26</f>
         <v>5210</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" ref="R27:T27" si="19">+R25+R26</f>
+        <f t="shared" ref="R27:T27" si="20">+R25+R26</f>
         <v>5604</v>
       </c>
       <c r="S27" s="5">
-        <f t="shared" ref="S27" si="20">+S25+S26</f>
+        <f t="shared" ref="S27" si="21">+S25+S26</f>
         <v>5938</v>
       </c>
       <c r="T27" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5568</v>
       </c>
       <c r="U27" s="5">
-        <f t="shared" ref="U27:V27" si="21">+U25+U26</f>
+        <f t="shared" ref="U27:V27" si="22">+U25+U26</f>
         <v>5150</v>
       </c>
       <c r="V27" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4750</v>
       </c>
       <c r="W27" s="5"/>
@@ -3226,19 +3223,19 @@
         <v>11180</v>
       </c>
       <c r="AD27" s="2">
-        <f t="shared" ref="AD27" si="22">+AD25+AD26</f>
+        <f t="shared" ref="AD27" si="23">+AD25+AD26</f>
         <v>13584</v>
       </c>
       <c r="AE27" s="2">
-        <f t="shared" ref="AE27" si="23">+AE25+AE26</f>
+        <f t="shared" ref="AE27" si="24">+AE25+AE26</f>
         <v>12885</v>
       </c>
       <c r="AF27" s="2">
-        <f t="shared" ref="AF27" si="24">+AF25+AF26</f>
+        <f t="shared" ref="AF27" si="25">+AF25+AF26</f>
         <v>16020</v>
       </c>
       <c r="AG27" s="2">
-        <f t="shared" ref="AG27" si="25">+AG25+AG26</f>
+        <f t="shared" ref="AG27" si="26">+AG25+AG26</f>
         <v>18205</v>
       </c>
       <c r="AH27" s="2">
@@ -3246,15 +3243,15 @@
         <v>18699</v>
       </c>
       <c r="AI27" s="2">
-        <f t="shared" ref="AI27:AK27" si="26">+AI25+AI26</f>
+        <f t="shared" ref="AI27:AK27" si="27">+AI25+AI26</f>
         <v>19673</v>
       </c>
       <c r="AJ27" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>20058</v>
       </c>
       <c r="AK27" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>21137</v>
       </c>
       <c r="AL27" s="2">
@@ -3274,11 +3271,11 @@
         <v>19736</v>
       </c>
       <c r="AP27" s="2">
-        <f t="shared" ref="AP27:AQ27" si="27">+AP25+AP26</f>
+        <f t="shared" ref="AP27:AQ27" si="28">+AP25+AP26</f>
         <v>21733</v>
       </c>
       <c r="AQ27" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>24530</v>
       </c>
       <c r="AR27" s="2">
@@ -3286,51 +3283,51 @@
         <v>21680</v>
       </c>
       <c r="AS27" s="2">
-        <f t="shared" ref="AS27:BD27" si="28">+AS25+AS26</f>
+        <f t="shared" ref="AS27:BD27" si="29">+AS25+AS26</f>
         <v>21406</v>
       </c>
       <c r="AT27" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>22048.18</v>
       </c>
       <c r="AU27" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>22709.625400000001</v>
       </c>
       <c r="AV27" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>23390.914162000001</v>
       </c>
       <c r="AW27" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>24092.641586860002</v>
       </c>
       <c r="AX27" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>24815.420834465804</v>
       </c>
       <c r="AY27" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>25559.883459499779</v>
       </c>
       <c r="AZ27" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>26326.679963284776</v>
       </c>
       <c r="BA27" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>27116.48036218332</v>
       </c>
       <c r="BB27" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>27929.974773048816</v>
       </c>
       <c r="BC27" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>28767.874016240283</v>
       </c>
       <c r="BD27" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>29630.91023672749</v>
       </c>
     </row>
@@ -3339,67 +3336,67 @@
         <v>30</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" ref="G28:N28" si="29">+G24-G27</f>
+        <f t="shared" ref="G28:N28" si="30">+G24-G27</f>
         <v>5903</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>5892</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>5269</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>5018</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3130</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-613</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>489</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-670</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" ref="O28" si="30">+O24-O27</f>
+        <f t="shared" ref="O28" si="31">+O24-O27</f>
         <v>-1404</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" ref="P28" si="31">+P24-P27</f>
+        <f t="shared" ref="P28" si="32">+P24-P27</f>
         <v>-816</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" ref="Q28" si="32">+Q24-Q27</f>
+        <f t="shared" ref="Q28" si="33">+Q24-Q27</f>
         <v>808</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" ref="R28:T28" si="33">+R24-R27</f>
+        <f t="shared" ref="R28:T28" si="34">+R24-R27</f>
         <v>1443</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" ref="S28" si="34">+S24-S27</f>
+        <f t="shared" ref="S28" si="35">+S24-S27</f>
         <v>-721</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-1021</v>
       </c>
       <c r="U28" s="5">
-        <f t="shared" ref="U28:V28" si="35">+U24-U27</f>
+        <f t="shared" ref="U28:V28" si="36">+U24-U27</f>
         <v>50</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>796.15999999999985</v>
       </c>
       <c r="W28" s="5"/>
@@ -3421,19 +3418,19 @@
         <v>9664</v>
       </c>
       <c r="AD28" s="2">
-        <f t="shared" ref="AD28" si="36">+AD24-AD27</f>
+        <f t="shared" ref="AD28" si="37">+AD24-AD27</f>
         <v>5977</v>
       </c>
       <c r="AE28" s="2">
-        <f t="shared" ref="AE28" si="37">+AE24-AE27</f>
+        <f t="shared" ref="AE28" si="38">+AE24-AE27</f>
         <v>15606</v>
       </c>
       <c r="AF28" s="2">
-        <f t="shared" ref="AF28" si="38">+AF24-AF27</f>
+        <f t="shared" ref="AF28" si="39">+AF24-AF27</f>
         <v>17737</v>
       </c>
       <c r="AG28" s="2">
-        <f t="shared" ref="AG28" si="39">+AG24-AG27</f>
+        <f t="shared" ref="AG28" si="40">+AG24-AG27</f>
         <v>14946</v>
       </c>
       <c r="AH28" s="2">
@@ -3441,91 +3438,91 @@
         <v>12822</v>
       </c>
       <c r="AI28" s="2">
-        <f t="shared" ref="AI28:AK28" si="40">+AI24-AI27</f>
+        <f t="shared" ref="AI28:AK28" si="41">+AI24-AI27</f>
         <v>15936</v>
       </c>
       <c r="AJ28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>14621</v>
       </c>
       <c r="AK28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>15054</v>
       </c>
       <c r="AL28" s="2">
-        <f t="shared" ref="AL28:AR28" si="41">+AL24-AL27</f>
+        <f t="shared" ref="AL28:AR28" si="42">+AL24-AL27</f>
         <v>18497</v>
       </c>
       <c r="AM28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>23244</v>
       </c>
       <c r="AN28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>22428</v>
       </c>
       <c r="AO28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>23876</v>
       </c>
       <c r="AP28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>22082</v>
       </c>
       <c r="AQ28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2336</v>
       </c>
       <c r="AR28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>31</v>
       </c>
       <c r="AS28" s="2">
-        <f t="shared" ref="AS28:BD28" si="42">+AS24-AS27</f>
+        <f t="shared" ref="AS28:BD28" si="43">+AS24-AS27</f>
         <v>-895.84000000000015</v>
       </c>
       <c r="AT28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>6117.1775840000009</v>
       </c>
       <c r="AU28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>7432.7236298000025</v>
       </c>
       <c r="AV28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>8917.9162043168762</v>
       </c>
       <c r="AW28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>10471.710899369566</v>
       </c>
       <c r="AX28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>12217.813972208736</v>
       </c>
       <c r="AY28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>13325.013087508491</v>
       </c>
       <c r="AZ28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>16090.261353410089</v>
       </c>
       <c r="BA28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>18231.08599093774</v>
       </c>
       <c r="BB28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>20618.596263821964</v>
       </c>
       <c r="BC28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>22208.12557247404</v>
       </c>
       <c r="BD28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>24923.212400040822</v>
       </c>
     </row>
@@ -3629,11 +3626,11 @@
       <c r="AQ29" s="2">
         <v>1166</v>
       </c>
-      <c r="AR29" s="20">
+      <c r="AR29" s="2">
         <f>SUM(O29:R29)</f>
         <v>629</v>
       </c>
-      <c r="AS29" s="20">
+      <c r="AS29" s="2">
         <f>SUM(S29:V29)</f>
         <v>225</v>
       </c>
@@ -3642,31 +3639,31 @@
         <v>184.23610282855839</v>
       </c>
       <c r="AX29" s="2">
-        <f t="shared" ref="AX29:BD29" si="43">+AW42*$BH$36</f>
+        <f t="shared" ref="AX29:BD29" si="44">+AW42*$BH$36</f>
         <v>271.614868246583</v>
       </c>
       <c r="AY29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>374.02818473831661</v>
       </c>
       <c r="AZ29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>486.36032317074046</v>
       </c>
       <c r="BA29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>622.28862091870326</v>
       </c>
       <c r="BB29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>776.88629273592608</v>
       </c>
       <c r="BC29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>952.32924969970077</v>
       </c>
       <c r="BD29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1142.2449792415255</v>
       </c>
     </row>
@@ -3675,67 +3672,67 @@
         <v>32</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" ref="G30:N30" si="44">+G28+G29</f>
+        <f t="shared" ref="G30:N30" si="45">+G28+G29</f>
         <v>5747</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>5796</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>5193</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4864</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4127</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-732</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>627</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-520</v>
       </c>
       <c r="O30" s="5">
-        <f>+O28+O29</f>
+        <f t="shared" ref="O30:T30" si="46">+O28+O29</f>
         <v>-1263</v>
       </c>
       <c r="P30" s="5">
-        <f>+P28+P29</f>
+        <f t="shared" si="46"/>
         <v>-592</v>
       </c>
       <c r="Q30" s="5">
-        <f>+Q28+Q29</f>
+        <f t="shared" si="46"/>
         <v>955</v>
       </c>
       <c r="R30" s="5">
-        <f>+R28+R29</f>
+        <f t="shared" si="46"/>
         <v>1560</v>
       </c>
       <c r="S30" s="5">
-        <f>+S28+S29</f>
+        <f t="shared" si="46"/>
         <v>-576</v>
       </c>
       <c r="T30" s="5">
-        <f>+T28+T29</f>
+        <f t="shared" si="46"/>
         <v>-941</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" ref="U30:V30" si="45">+U28+U29</f>
+        <f t="shared" ref="U30:V30" si="47">+U28+U29</f>
         <v>50</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>796.15999999999985</v>
       </c>
       <c r="Z30" s="2">
@@ -3755,19 +3752,19 @@
         <v>9176</v>
       </c>
       <c r="AD30" s="2">
-        <f t="shared" ref="AD30" si="46">+AD28+AD29</f>
+        <f t="shared" ref="AD30" si="48">+AD28+AD29</f>
         <v>5814</v>
       </c>
       <c r="AE30" s="2">
-        <f t="shared" ref="AE30" si="47">+AE28+AE29</f>
+        <f t="shared" ref="AE30" si="49">+AE28+AE29</f>
         <v>15497</v>
       </c>
       <c r="AF30" s="2">
-        <f t="shared" ref="AF30" si="48">+AF28+AF29</f>
+        <f t="shared" ref="AF30" si="50">+AF28+AF29</f>
         <v>17545</v>
       </c>
       <c r="AG30" s="2">
-        <f t="shared" ref="AG30" si="49">+AG28+AG29</f>
+        <f t="shared" ref="AG30" si="51">+AG28+AG29</f>
         <v>14852</v>
       </c>
       <c r="AH30" s="2">
@@ -3783,83 +3780,83 @@
         <v>14516</v>
       </c>
       <c r="AK30" s="2">
-        <f t="shared" ref="AK30" si="50">+AK28+AK29</f>
+        <f t="shared" ref="AK30" si="52">+AK28+AK29</f>
         <v>14610</v>
       </c>
       <c r="AL30" s="2">
-        <f t="shared" ref="AL30:AQ30" si="51">+AL28+AL29</f>
+        <f t="shared" ref="AL30:AQ30" si="53">+AL28+AL29</f>
         <v>18262</v>
       </c>
       <c r="AM30" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>23370</v>
       </c>
       <c r="AN30" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>22912</v>
       </c>
       <c r="AO30" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>23372</v>
       </c>
       <c r="AP30" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>21600</v>
       </c>
       <c r="AQ30" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>3502</v>
       </c>
       <c r="AR30" s="2">
-        <f t="shared" ref="AR30:BD30" si="52">+AR28+AR29</f>
+        <f t="shared" ref="AR30:BD30" si="54">+AR28+AR29</f>
         <v>660</v>
       </c>
       <c r="AS30" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>-670.84000000000015</v>
       </c>
       <c r="AT30" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>6117.1775840000009</v>
       </c>
       <c r="AU30" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>7432.7236298000025</v>
       </c>
       <c r="AV30" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>8917.9162043168762</v>
       </c>
       <c r="AW30" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>10655.947002198123</v>
       </c>
       <c r="AX30" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>12489.428840455319</v>
       </c>
       <c r="AY30" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>13699.041272246806</v>
       </c>
       <c r="AZ30" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>16576.621676580831</v>
       </c>
       <c r="BA30" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>18853.374611856441</v>
       </c>
       <c r="BB30" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>21395.48255655789</v>
       </c>
       <c r="BC30" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>23160.454822173742</v>
       </c>
       <c r="BD30" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>26065.457379282347</v>
       </c>
       <c r="BE30" s="2"/>
@@ -3964,56 +3961,56 @@
       <c r="AQ31" s="2">
         <v>-249</v>
       </c>
-      <c r="AR31" s="20">
+      <c r="AR31" s="2">
         <f>SUM(O31:R31)</f>
         <v>128</v>
       </c>
-      <c r="AS31" s="20">
+      <c r="AS31" s="2">
         <f>SUM(S31:V31)</f>
         <v>0</v>
       </c>
       <c r="AT31" s="2">
-        <f t="shared" ref="AS31:BD31" si="53">+AT30*0.18</f>
+        <f t="shared" ref="AT31:BD31" si="55">+AT30*0.18</f>
         <v>1101.0919651200002</v>
       </c>
       <c r="AU31" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1337.8902533640005</v>
       </c>
       <c r="AV31" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1605.2249167770376</v>
       </c>
       <c r="AW31" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1918.0704603956622</v>
       </c>
       <c r="AX31" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>2248.0971912819573</v>
       </c>
       <c r="AY31" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>2465.8274290044251</v>
       </c>
       <c r="AZ31" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>2983.7919017845497</v>
       </c>
       <c r="BA31" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>3393.6074301341591</v>
       </c>
       <c r="BB31" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>3851.1868601804199</v>
       </c>
       <c r="BC31" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>4168.8818679912738</v>
       </c>
       <c r="BD31" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>4691.7823282708223</v>
       </c>
     </row>
@@ -4022,67 +4019,67 @@
         <v>34</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" ref="G32:N32" si="54">+G30-G31</f>
+        <f t="shared" ref="G32:N32" si="56">+G30-G31</f>
         <v>5202</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>5112</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>5158</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>4293</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2579</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>-732</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>627</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>-520</v>
       </c>
       <c r="O32" s="5">
-        <f>+O30-O31</f>
+        <f t="shared" ref="O32:T32" si="57">+O30-O31</f>
         <v>-1263</v>
       </c>
       <c r="P32" s="5">
-        <f>+P30-P31</f>
+        <f t="shared" si="57"/>
         <v>-592</v>
       </c>
       <c r="Q32" s="5">
-        <f>+Q30-Q31</f>
+        <f t="shared" si="57"/>
         <v>955</v>
       </c>
       <c r="R32" s="5">
-        <f>+R30-R31</f>
+        <f t="shared" si="57"/>
         <v>1432</v>
       </c>
       <c r="S32" s="5">
-        <f>+S30-S31</f>
+        <f t="shared" si="57"/>
         <v>-576</v>
       </c>
       <c r="T32" s="5">
-        <f>+T30-T31</f>
+        <f t="shared" si="57"/>
         <v>-941</v>
       </c>
       <c r="U32" s="5">
-        <f t="shared" ref="U32:V32" si="55">+U30-U31</f>
+        <f t="shared" ref="U32:V32" si="58">+U30-U31</f>
         <v>50</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>796.15999999999985</v>
       </c>
       <c r="Z32" s="2">
@@ -4102,19 +4099,19 @@
         <v>6782</v>
       </c>
       <c r="AD32" s="2">
-        <f t="shared" ref="AD32" si="56">+AD30-AD31</f>
+        <f t="shared" ref="AD32" si="59">+AD30-AD31</f>
         <v>4479</v>
       </c>
       <c r="AE32" s="2">
-        <f t="shared" ref="AE32" si="57">+AE30-AE31</f>
+        <f t="shared" ref="AE32" si="60">+AE30-AE31</f>
         <v>10916</v>
       </c>
       <c r="AF32" s="2">
-        <f t="shared" ref="AF32" si="58">+AF30-AF31</f>
+        <f t="shared" ref="AF32" si="61">+AF30-AF31</f>
         <v>12706</v>
       </c>
       <c r="AG32" s="2">
-        <f t="shared" ref="AG32" si="59">+AG30-AG31</f>
+        <f t="shared" ref="AG32" si="62">+AG30-AG31</f>
         <v>10984</v>
       </c>
       <c r="AH32" s="2">
@@ -4130,7 +4127,7 @@
         <v>11724</v>
       </c>
       <c r="AK32" s="2">
-        <f t="shared" ref="AK32" si="60">+AK30-AK31</f>
+        <f t="shared" ref="AK32" si="63">+AK30-AK31</f>
         <v>11990</v>
       </c>
       <c r="AL32" s="2">
@@ -4150,63 +4147,63 @@
         <v>19193</v>
       </c>
       <c r="AP32" s="2">
-        <f t="shared" ref="AP32:AQ32" si="61">+AP30-AP31</f>
+        <f t="shared" ref="AP32:AQ32" si="64">+AP30-AP31</f>
         <v>19765</v>
       </c>
       <c r="AQ32" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>3751</v>
       </c>
       <c r="AR32" s="2">
-        <f t="shared" ref="AR32" si="62">+AR30-AR31</f>
+        <f t="shared" ref="AR32" si="65">+AR30-AR31</f>
         <v>532</v>
       </c>
       <c r="AS32" s="2">
-        <f t="shared" ref="AS32" si="63">+AS30-AS31</f>
+        <f t="shared" ref="AS32" si="66">+AS30-AS31</f>
         <v>-670.84000000000015</v>
       </c>
       <c r="AT32" s="2">
-        <f t="shared" ref="AT32" si="64">+AT30-AT31</f>
+        <f t="shared" ref="AT32" si="67">+AT30-AT31</f>
         <v>5016.0856188800008</v>
       </c>
       <c r="AU32" s="2">
-        <f t="shared" ref="AU32" si="65">+AU30-AU31</f>
+        <f t="shared" ref="AU32" si="68">+AU30-AU31</f>
         <v>6094.8333764360023</v>
       </c>
       <c r="AV32" s="2">
-        <f t="shared" ref="AV32" si="66">+AV30-AV31</f>
+        <f t="shared" ref="AV32" si="69">+AV30-AV31</f>
         <v>7312.6912875398384</v>
       </c>
       <c r="AW32" s="2">
-        <f t="shared" ref="AW32" si="67">+AW30-AW31</f>
+        <f t="shared" ref="AW32" si="70">+AW30-AW31</f>
         <v>8737.8765418024614</v>
       </c>
       <c r="AX32" s="2">
-        <f t="shared" ref="AX32" si="68">+AX30-AX31</f>
+        <f t="shared" ref="AX32" si="71">+AX30-AX31</f>
         <v>10241.331649173362</v>
       </c>
       <c r="AY32" s="2">
-        <f t="shared" ref="AY32" si="69">+AY30-AY31</f>
+        <f t="shared" ref="AY32" si="72">+AY30-AY31</f>
         <v>11233.213843242382</v>
       </c>
       <c r="AZ32" s="2">
-        <f t="shared" ref="AZ32" si="70">+AZ30-AZ31</f>
+        <f t="shared" ref="AZ32" si="73">+AZ30-AZ31</f>
         <v>13592.829774796282</v>
       </c>
       <c r="BA32" s="2">
-        <f t="shared" ref="BA32" si="71">+BA30-BA31</f>
+        <f t="shared" ref="BA32" si="74">+BA30-BA31</f>
         <v>15459.767181722282</v>
       </c>
       <c r="BB32" s="2">
-        <f t="shared" ref="BB32" si="72">+BB30-BB31</f>
+        <f t="shared" ref="BB32" si="75">+BB30-BB31</f>
         <v>17544.29569637747</v>
       </c>
       <c r="BC32" s="2">
-        <f t="shared" ref="BC32" si="73">+BC30-BC31</f>
+        <f t="shared" ref="BC32" si="76">+BC30-BC31</f>
         <v>18991.572954182469</v>
       </c>
       <c r="BD32" s="2">
-        <f t="shared" ref="BD32" si="74">+BD30-BD31</f>
+        <f t="shared" ref="BD32" si="77">+BD30-BD31</f>
         <v>21373.675051011523</v>
       </c>
       <c r="BE32" s="2">
@@ -4214,311 +4211,311 @@
         <v>21587.411801521637</v>
       </c>
       <c r="BF32" s="2">
-        <f t="shared" ref="BF32:DQ32" si="75">+BE32*(1+$BH$38)</f>
+        <f t="shared" ref="BF32:DQ32" si="78">+BE32*(1+$BH$38)</f>
         <v>21803.285919536855</v>
       </c>
       <c r="BG32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>22021.318778732224</v>
       </c>
       <c r="BH32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>22241.531966519546</v>
       </c>
       <c r="BI32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>22463.947286184743</v>
       </c>
       <c r="BJ32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>22688.58675904659</v>
       </c>
       <c r="BK32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>22915.472626637056</v>
       </c>
       <c r="BL32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>23144.627352903426</v>
       </c>
       <c r="BM32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>23376.073626432462</v>
       </c>
       <c r="BN32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>23609.834362696787</v>
       </c>
       <c r="BO32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>23845.932706323754</v>
       </c>
       <c r="BP32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>24084.392033386994</v>
       </c>
       <c r="BQ32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>24325.235953720865</v>
       </c>
       <c r="BR32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>24568.488313258073</v>
       </c>
       <c r="BS32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>24814.173196390653</v>
       </c>
       <c r="BT32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>25062.314928354561</v>
       </c>
       <c r="BU32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>25312.938077638108</v>
       </c>
       <c r="BV32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>25566.067458414487</v>
       </c>
       <c r="BW32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>25821.728132998633</v>
       </c>
       <c r="BX32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>26079.94541432862</v>
       </c>
       <c r="BY32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>26340.744868471906</v>
       </c>
       <c r="BZ32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>26604.152317156626</v>
       </c>
       <c r="CA32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>26870.193840328193</v>
       </c>
       <c r="CB32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>27138.895778731476</v>
       </c>
       <c r="CC32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>27410.284736518792</v>
       </c>
       <c r="CD32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>27684.387583883981</v>
       </c>
       <c r="CE32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>27961.231459722821</v>
       </c>
       <c r="CF32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>28240.843774320048</v>
       </c>
       <c r="CG32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>28523.252212063249</v>
       </c>
       <c r="CH32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>28808.484734183883</v>
       </c>
       <c r="CI32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>29096.56958152572</v>
       </c>
       <c r="CJ32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>29387.53527734098</v>
       </c>
       <c r="CK32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>29681.410630114391</v>
       </c>
       <c r="CL32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>29978.224736415534</v>
       </c>
       <c r="CM32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>30278.006983779691</v>
       </c>
       <c r="CN32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>30580.787053617489</v>
       </c>
       <c r="CO32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>30886.594924153665</v>
       </c>
       <c r="CP32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>31195.460873395201</v>
       </c>
       <c r="CQ32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>31507.415482129152</v>
       </c>
       <c r="CR32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>31822.489636950442</v>
       </c>
       <c r="CS32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>32140.714533319948</v>
       </c>
       <c r="CT32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>32462.121678653148</v>
       </c>
       <c r="CU32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>32786.742895439682</v>
       </c>
       <c r="CV32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>33114.610324394082</v>
       </c>
       <c r="CW32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>33445.756427638022</v>
       </c>
       <c r="CX32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>33780.213991914403</v>
       </c>
       <c r="CY32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>34118.016131833545</v>
       </c>
       <c r="CZ32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>34459.196293151879</v>
       </c>
       <c r="DA32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>34803.788256083397</v>
       </c>
       <c r="DB32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>35151.826138644232</v>
       </c>
       <c r="DC32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>35503.344400030677</v>
       </c>
       <c r="DD32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>35858.377844030983</v>
       </c>
       <c r="DE32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>36216.961622471295</v>
       </c>
       <c r="DF32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>36579.131238696005</v>
       </c>
       <c r="DG32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>36944.922551082964</v>
       </c>
       <c r="DH32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>37314.371776593791</v>
       </c>
       <c r="DI32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>37687.51549435973</v>
       </c>
       <c r="DJ32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>38064.390649303328</v>
       </c>
       <c r="DK32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>38445.034555796359</v>
       </c>
       <c r="DL32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>38829.484901354321</v>
       </c>
       <c r="DM32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>39217.779750367867</v>
       </c>
       <c r="DN32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>39609.957547871549</v>
       </c>
       <c r="DO32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>40006.057123350263</v>
       </c>
       <c r="DP32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>40406.117694583765</v>
       </c>
       <c r="DQ32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>40810.178871529606</v>
       </c>
       <c r="DR32" s="2">
-        <f t="shared" ref="DR32:ED32" si="76">+DQ32*(1+$BH$38)</f>
+        <f t="shared" ref="DR32:ED32" si="79">+DQ32*(1+$BH$38)</f>
         <v>41218.280660244905</v>
       </c>
       <c r="DS32" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>41630.463466847352</v>
       </c>
       <c r="DT32" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>42046.768101515823</v>
       </c>
       <c r="DU32" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>42467.235782530981</v>
       </c>
       <c r="DV32" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>42891.908140356289</v>
       </c>
       <c r="DW32" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>43320.82722175985</v>
       </c>
       <c r="DX32" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>43754.035493977448</v>
       </c>
       <c r="DY32" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>44191.575848917222</v>
       </c>
       <c r="DZ32" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>44633.491607406395</v>
       </c>
       <c r="EA32" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>45079.826523480457</v>
       </c>
       <c r="EB32" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>45530.624788715264</v>
       </c>
       <c r="EC32" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>45985.931036602415</v>
       </c>
       <c r="ED32" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>46445.790346968439</v>
       </c>
     </row>
@@ -4527,67 +4524,67 @@
         <v>35</v>
       </c>
       <c r="G33" s="16">
-        <f t="shared" ref="G33:N33" si="77">+G32/G34</f>
+        <f t="shared" ref="G33:N33" si="80">+G32/G34</f>
         <v>1.27001953125</v>
       </c>
       <c r="H33" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>1.2517140058765917</v>
       </c>
       <c r="I33" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>1.2623592755751345</v>
       </c>
       <c r="J33" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>1.0483516483516484</v>
       </c>
       <c r="K33" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0.62795227660092523</v>
       </c>
       <c r="L33" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>-0.17853658536585365</v>
       </c>
       <c r="M33" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0.152</v>
       </c>
       <c r="N33" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>-0.12581659811275103</v>
       </c>
       <c r="O33" s="16">
-        <f>+O32/O34</f>
+        <f t="shared" ref="O33:V33" si="81">+O32/O34</f>
         <v>-0.3040442946557535</v>
       </c>
       <c r="P33" s="16">
-        <f>+P32/P34</f>
+        <f t="shared" si="81"/>
         <v>-0.14108674928503337</v>
       </c>
       <c r="Q33" s="16">
-        <f>+Q32/Q34</f>
+        <f t="shared" si="81"/>
         <v>0.22582170725939937</v>
       </c>
       <c r="R33" s="16">
-        <f>+R32/R34</f>
+        <f t="shared" si="81"/>
         <v>0.33615023474178402</v>
       </c>
       <c r="S33" s="16">
-        <f>+S32/S34</f>
+        <f t="shared" si="81"/>
         <v>-0.13578500707213578</v>
       </c>
       <c r="T33" s="16">
-        <f>+T32/T34</f>
+        <f t="shared" si="81"/>
         <v>-0.22052964612139678</v>
       </c>
       <c r="U33" s="16">
-        <f>+U32/U34</f>
+        <f t="shared" si="81"/>
         <v>1.1717834544176237E-2</v>
       </c>
       <c r="V33" s="16">
-        <f>+V32/V34</f>
+        <f t="shared" si="81"/>
         <v>0.18658542301382702</v>
       </c>
       <c r="Z33" s="1">
@@ -4607,19 +4604,19 @@
         <v>1.1798886569241476</v>
       </c>
       <c r="AD33" s="1">
-        <f t="shared" ref="AD33" si="78">+AD32/AD34</f>
+        <f t="shared" ref="AD33" si="82">+AD32/AD34</f>
         <v>0.79344552701505755</v>
       </c>
       <c r="AE33" s="1">
-        <f t="shared" ref="AE33" si="79">+AE32/AE34</f>
+        <f t="shared" ref="AE33" si="83">+AE32/AE34</f>
         <v>1.916432584269663</v>
       </c>
       <c r="AF33" s="1">
-        <f t="shared" ref="AF33" si="80">+AF32/AF34</f>
+        <f t="shared" ref="AF33" si="84">+AF32/AF34</f>
         <v>2.3481796340787287</v>
       </c>
       <c r="AG33" s="1">
-        <f t="shared" ref="AG33" si="81">+AG32/AG34</f>
+        <f t="shared" ref="AG33" si="85">+AG32/AG34</f>
         <v>2.1286821705426355</v>
       </c>
       <c r="AH33" s="1">
@@ -4627,15 +4624,15 @@
         <v>1.8991563664900921</v>
       </c>
       <c r="AI33" s="1">
-        <f t="shared" ref="AI33:AK33" si="82">+AI32/AI34</f>
+        <f t="shared" ref="AI33:AK33" si="86">+AI32/AI34</f>
         <v>2.3500791139240507</v>
       </c>
       <c r="AJ33" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>2.3955864323661626</v>
       </c>
       <c r="AK33" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>2.4594871794871795</v>
       </c>
       <c r="AL33" s="1">
@@ -4655,63 +4652,63 @@
         <v>4.5352079395085063</v>
       </c>
       <c r="AP33" s="1">
-        <f t="shared" ref="AP33:AR33" si="83">+AP32/AP34</f>
+        <f t="shared" ref="AP33:AR33" si="87">+AP32/AP34</f>
         <v>4.8325183374083132</v>
       </c>
       <c r="AQ33" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.90977443609022557</v>
       </c>
       <c r="AR33" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.12637330007720174</v>
       </c>
       <c r="AS33" s="1">
-        <f t="shared" ref="AS33" si="84">+AS32/AS34</f>
+        <f t="shared" ref="AS33" si="88">+AS32/AS34</f>
         <v>-0.15744645895675646</v>
       </c>
       <c r="AT33" s="1">
-        <f t="shared" ref="AT33" si="85">+AT32/AT34</f>
+        <f t="shared" ref="AT33" si="89">+AT32/AT34</f>
         <v>1.1772776198744355</v>
       </c>
       <c r="AU33" s="1">
-        <f t="shared" ref="AU33" si="86">+AU32/AU34</f>
+        <f t="shared" ref="AU33" si="90">+AU32/AU34</f>
         <v>1.4304602186084614</v>
       </c>
       <c r="AV33" s="1">
-        <f t="shared" ref="AV33" si="87">+AV32/AV34</f>
+        <f t="shared" ref="AV33" si="91">+AV32/AV34</f>
         <v>1.7162920348623689</v>
       </c>
       <c r="AW33" s="1">
-        <f t="shared" ref="AW33" si="88">+AW32/AW34</f>
+        <f t="shared" ref="AW33" si="92">+AW32/AW34</f>
         <v>2.0507836746587951</v>
       </c>
       <c r="AX33" s="1">
-        <f t="shared" ref="AX33" si="89">+AX32/AX34</f>
+        <f t="shared" ref="AX33" si="93">+AX32/AX34</f>
         <v>2.4036452852604264</v>
       </c>
       <c r="AY33" s="1">
-        <f t="shared" ref="AY33" si="90">+AY32/AY34</f>
+        <f t="shared" ref="AY33" si="94">+AY32/AY34</f>
         <v>2.6364404959789667</v>
       </c>
       <c r="AZ33" s="1">
-        <f t="shared" ref="AZ33" si="91">+AZ32/AZ34</f>
+        <f t="shared" ref="AZ33" si="95">+AZ32/AZ34</f>
         <v>3.1902434488754992</v>
       </c>
       <c r="BA33" s="1">
-        <f t="shared" ref="BA33" si="92">+BA32/BA34</f>
+        <f t="shared" ref="BA33" si="96">+BA32/BA34</f>
         <v>3.6284145236689036</v>
       </c>
       <c r="BB33" s="1">
-        <f t="shared" ref="BB33" si="93">+BB32/BB34</f>
+        <f t="shared" ref="BB33" si="97">+BB32/BB34</f>
         <v>4.1176543323070982</v>
       </c>
       <c r="BC33" s="1">
-        <f t="shared" ref="BC33" si="94">+BC32/BC34</f>
+        <f t="shared" ref="BC33" si="98">+BC32/BC34</f>
         <v>4.4573309755753021</v>
       </c>
       <c r="BD33" s="1">
-        <f t="shared" ref="BD33" si="95">+BD32/BD34</f>
+        <f t="shared" ref="BD33" si="99">+BD32/BD34</f>
         <v>5.0164114418850021</v>
       </c>
     </row>
@@ -4832,47 +4829,47 @@
         <v>4260.75</v>
       </c>
       <c r="AT34" s="2">
-        <f t="shared" ref="AS34:BD34" si="96">+AS34</f>
+        <f t="shared" ref="AT34:BD34" si="100">+AS34</f>
         <v>4260.75</v>
       </c>
       <c r="AU34" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>4260.75</v>
       </c>
       <c r="AV34" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>4260.75</v>
       </c>
       <c r="AW34" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>4260.75</v>
       </c>
       <c r="AX34" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>4260.75</v>
       </c>
       <c r="AY34" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>4260.75</v>
       </c>
       <c r="AZ34" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>4260.75</v>
       </c>
       <c r="BA34" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>4260.75</v>
       </c>
       <c r="BB34" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>4260.75</v>
       </c>
       <c r="BC34" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>4260.75</v>
       </c>
       <c r="BD34" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>4260.75</v>
       </c>
     </row>
@@ -4898,15 +4895,15 @@
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="17">
-        <f t="shared" ref="K36:M36" si="97">+K22/G22-1</f>
+        <f t="shared" ref="K36:M36" si="101">+K22/G22-1</f>
         <v>-6.7097036547552502E-2</v>
       </c>
       <c r="L36" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>-0.2195507106107687</v>
       </c>
       <c r="M36" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>-0.20081283868278454</v>
       </c>
       <c r="N36" s="17">
@@ -4914,35 +4911,35 @@
         <v>-0.31595869056897896</v>
       </c>
       <c r="O36" s="17">
-        <f t="shared" ref="O36" si="98">+O22/K22-1</f>
+        <f t="shared" ref="O36" si="102">+O22/K22-1</f>
         <v>-0.36168473818994173</v>
       </c>
       <c r="P36" s="17">
-        <f t="shared" ref="P36" si="99">+P22/L22-1</f>
+        <f t="shared" ref="P36" si="103">+P22/L22-1</f>
         <v>-0.15482018145029697</v>
       </c>
       <c r="Q36" s="17">
-        <f t="shared" ref="Q36" si="100">+Q22/M22-1</f>
+        <f t="shared" ref="Q36" si="104">+Q22/M22-1</f>
         <v>-7.6933107315164895E-2</v>
       </c>
       <c r="R36" s="17">
-        <f t="shared" ref="R36:V36" si="101">+R22/N22-1</f>
+        <f t="shared" ref="R36:V36" si="105">+R22/N22-1</f>
         <v>9.7137159948725182E-2</v>
       </c>
       <c r="S36" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>8.6128894579598825E-2</v>
       </c>
       <c r="T36" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>-8.9582207120241231E-3</v>
       </c>
       <c r="U36" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>-8.1791213448227151E-2</v>
       </c>
       <c r="V36" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="W36" s="17"/>
@@ -4965,103 +4962,103 @@
         <v>0.2418652318729182</v>
       </c>
       <c r="AF36" s="15">
-        <f t="shared" ref="AF36:AH36" si="102">+AF22/AE22-1</f>
+        <f t="shared" ref="AF36:AH36" si="106">+AF22/AE22-1</f>
         <v>0.2378561767874745</v>
       </c>
       <c r="AG36" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v>-1.2185410840941491E-2</v>
       </c>
       <c r="AH36" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v>-1.1867044112408798E-2</v>
       </c>
       <c r="AI36" s="15">
-        <f t="shared" ref="AI36:AQ36" si="103">+AI22/AH22-1</f>
+        <f t="shared" ref="AI36:AQ36" si="107">+AI22/AH22-1</f>
         <v>5.9990893223040187E-2</v>
       </c>
       <c r="AJ36" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>-9.2178270986218447E-3</v>
       </c>
       <c r="AK36" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>7.283894860446205E-2</v>
       </c>
       <c r="AL36" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>5.6813780793776525E-2</v>
       </c>
       <c r="AM36" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>0.12885390608817571</v>
       </c>
       <c r="AN36" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>1.576614724480585E-2</v>
       </c>
       <c r="AO36" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>8.2012089210032668E-2</v>
       </c>
       <c r="AP36" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>1.4858669269395275E-2</v>
       </c>
       <c r="AQ36" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>-0.20209050415063778</v>
       </c>
       <c r="AR36" s="15">
-        <f t="shared" ref="AR36:BD36" si="104">+AR22/AQ22-1</f>
+        <f t="shared" ref="AR36:BD36" si="108">+AR22/AQ22-1</f>
         <v>-0.13997525930155108</v>
       </c>
       <c r="AS36" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>-3.329645201740794E-2</v>
       </c>
       <c r="AT36" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>0.11932739248870727</v>
       </c>
       <c r="AU36" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>7.0192307692307665E-2</v>
       </c>
       <c r="AV36" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="AW36" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>6.9811320754717077E-2</v>
       </c>
       <c r="AX36" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AY36" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AZ36" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>6.9444444444444642E-2</v>
       </c>
       <c r="BA36" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>6.9090909090909092E-2</v>
       </c>
       <c r="BB36" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="BC36" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BD36" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BG36" t="s">
@@ -5099,67 +5096,67 @@
       <c r="X37" s="17"/>
       <c r="AA37" s="15"/>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37:AG37" si="105">+AB11/AA11-1</f>
+        <f t="shared" ref="AB37:AG37" si="109">+AB11/AA11-1</f>
         <v>0.13900501672240795</v>
       </c>
       <c r="AC37" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>6.7351807671132358E-2</v>
       </c>
       <c r="AD37" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>6.0316368638239304E-2</v>
       </c>
       <c r="AE37" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>0.13802944801193484</v>
       </c>
       <c r="AF37" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>4.1208321459105246E-2</v>
       </c>
       <c r="AG37" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>-3.9139478870155453E-2</v>
       </c>
       <c r="AH37" s="15">
-        <f t="shared" ref="AH37:AR37" si="106">+AH11/AG11-1</f>
+        <f t="shared" ref="AH37:AQ37" si="110">+AH11/AG11-1</f>
         <v>-9.8729561898251106E-2</v>
       </c>
       <c r="AI37" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>-8.5967130214916754E-3</v>
       </c>
       <c r="AJ37" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>-8.2887018617699537E-2</v>
       </c>
       <c r="AK37" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>-6.2500000000000111E-2</v>
       </c>
       <c r="AL37" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>-2.6325546903967267E-2</v>
       </c>
       <c r="AM37" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>-1.1043412033511224E-2</v>
       </c>
       <c r="AN37" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>1.0974201001155315E-2</v>
       </c>
       <c r="AO37" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>0.17722338602171006</v>
       </c>
       <c r="AP37" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>0.10563608127345692</v>
       </c>
       <c r="AQ37" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>-0.16878822462177745</v>
       </c>
       <c r="AR37" s="15">
@@ -5218,47 +5215,47 @@
         <v>25</v>
       </c>
       <c r="G39" s="19">
-        <f t="shared" ref="G39:L39" si="107">+G24/G22</f>
+        <f t="shared" ref="G39:K39" si="111">+G24/G22</f>
         <v>0.55172063233873836</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>0.57083184758799854</v>
       </c>
       <c r="I39" s="19">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>0.55992080033347225</v>
       </c>
       <c r="J39" s="19">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>0.53629189399844113</v>
       </c>
       <c r="K39" s="19">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>0.50367787282733067</v>
       </c>
       <c r="L39" s="19">
-        <f t="shared" ref="L39:Q39" si="108">+L24/L22</f>
+        <f t="shared" ref="L39:Q39" si="112">+L24/L22</f>
         <v>0.36466288101298872</v>
       </c>
       <c r="M39" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>0.42606597991915501</v>
       </c>
       <c r="N39" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>0.39168209656744052</v>
       </c>
       <c r="O39" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>0.34212548015364919</v>
       </c>
       <c r="P39" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>0.35817437639972199</v>
       </c>
       <c r="Q39" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>0.42506003672835146</v>
       </c>
       <c r="R39" s="19">
@@ -5282,63 +5279,63 @@
         <v>0.4</v>
       </c>
       <c r="Z39" s="4">
-        <f t="shared" ref="Z39:AG39" si="109">+Z24/Z22</f>
+        <f t="shared" ref="Z39:AG39" si="113">+Z24/Z22</f>
         <v>0.59364858599907278</v>
       </c>
       <c r="AA39" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>0.51489457916454695</v>
       </c>
       <c r="AB39" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>0.51922575259560699</v>
       </c>
       <c r="AC39" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>0.55456819028361626</v>
       </c>
       <c r="AD39" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>0.55686508953226865</v>
       </c>
       <c r="AE39" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>0.65311876762258436</v>
       </c>
       <c r="AF39" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>0.62514120631863557</v>
       </c>
       <c r="AG39" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>0.62149191053786024</v>
       </c>
       <c r="AH39" s="4">
-        <f t="shared" ref="AH39" si="110">+AH24/AH22</f>
+        <f t="shared" ref="AH39" si="114">+AH24/AH22</f>
         <v>0.5980306594824315</v>
       </c>
       <c r="AI39" s="4">
-        <f t="shared" ref="AI39" si="111">+AI24/AI22</f>
+        <f t="shared" ref="AI39" si="115">+AI24/AI22</f>
         <v>0.6373545731161625</v>
       </c>
       <c r="AJ39" s="4">
-        <f t="shared" ref="AJ39:AL39" si="112">+AJ24/AJ22</f>
+        <f t="shared" ref="AJ39:AL39" si="116">+AJ24/AJ22</f>
         <v>0.62648360581699936</v>
       </c>
       <c r="AK39" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>0.60940946671830531</v>
       </c>
       <c r="AL39" s="4">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>0.6225044215356671</v>
       </c>
       <c r="AM39" s="4">
-        <f t="shared" ref="AM39:AN39" si="113">+AM24/AM22</f>
+        <f t="shared" ref="AM39:AN39" si="117">+AM24/AM22</f>
         <v>0.61733570460704612</v>
       </c>
       <c r="AN39" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>0.5855624261793928</v>
       </c>
       <c r="AO39" s="4">
@@ -5353,56 +5350,56 @@
         <f>+AQ24/AQ22</f>
         <v>0.42607923367272499</v>
       </c>
-      <c r="AR39" s="22">
-        <f t="shared" ref="AR39:BD40" si="114">+AR24/AR22</f>
+      <c r="AR39" s="21">
+        <f t="shared" ref="AR39:BD39" si="118">+AR24/AR22</f>
         <v>0.40036512502766097</v>
       </c>
       <c r="AS39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>0.39124801611524845</v>
       </c>
       <c r="AT39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>0.47999999999999993</v>
       </c>
       <c r="AU39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>0.48</v>
       </c>
       <c r="AV39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>0.49</v>
       </c>
       <c r="AW39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>0.48999999999999994</v>
       </c>
       <c r="AX39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>0.5</v>
       </c>
       <c r="AY39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>0.5</v>
       </c>
       <c r="AZ39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>0.51</v>
       </c>
       <c r="BA39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>0.51</v>
       </c>
       <c r="BB39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>0.52</v>
       </c>
       <c r="BC39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>0.52</v>
       </c>
       <c r="BD39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>0.53</v>
       </c>
       <c r="BG39" t="s">
@@ -5451,7 +5448,7 @@
       <c r="AO40" s="4"/>
       <c r="AP40" s="4"/>
       <c r="AQ40" s="4"/>
-      <c r="AR40" s="22">
+      <c r="AR40" s="21">
         <v>0.436</v>
       </c>
       <c r="AS40" s="4"/>
@@ -5489,47 +5486,47 @@
       <c r="AR42" s="2"/>
       <c r="AS42" s="2"/>
       <c r="AT42" s="2">
-        <f t="shared" ref="AS42:BD42" si="115">+AS42+AT32</f>
+        <f t="shared" ref="AT42:BD42" si="119">+AS42+AT32</f>
         <v>5016.0856188800008</v>
       </c>
       <c r="AU42" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>11110.918995316002</v>
       </c>
       <c r="AV42" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>18423.61028285584</v>
       </c>
       <c r="AW42" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>27161.486824658299</v>
       </c>
       <c r="AX42" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>37402.818473831663</v>
       </c>
       <c r="AY42" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>48636.032317074045</v>
       </c>
       <c r="AZ42" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>62228.862091870324</v>
       </c>
       <c r="BA42" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>77688.629273592611</v>
       </c>
       <c r="BB42" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>95232.924969970074</v>
       </c>
       <c r="BC42" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>114224.49792415254</v>
       </c>
       <c r="BD42" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>135598.17297516408</v>
       </c>
       <c r="BH42" s="4">
@@ -5917,75 +5914,75 @@
         <v>37</v>
       </c>
       <c r="Z61" s="2">
-        <f t="shared" ref="Z61:AG61" si="116">+Z32</f>
+        <f t="shared" ref="Z61:AG61" si="120">+Z32</f>
         <v>7705</v>
       </c>
       <c r="AA61" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>3023</v>
       </c>
       <c r="AB61" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>5765</v>
       </c>
       <c r="AC61" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>6782</v>
       </c>
       <c r="AD61" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>4479</v>
       </c>
       <c r="AE61" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>10916</v>
       </c>
       <c r="AF61" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>12706</v>
       </c>
       <c r="AG61" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>10984</v>
       </c>
       <c r="AH61" s="2">
-        <f t="shared" ref="AH61:AO61" si="117">+AH32</f>
+        <f t="shared" ref="AH61:AO61" si="121">+AH32</f>
         <v>9680</v>
       </c>
       <c r="AI61" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>11882</v>
       </c>
       <c r="AJ61" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>11724</v>
       </c>
       <c r="AK61" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>11990</v>
       </c>
       <c r="AL61" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>18262</v>
       </c>
       <c r="AM61" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>21106</v>
       </c>
       <c r="AN61" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>19902</v>
       </c>
       <c r="AO61" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>19193</v>
       </c>
       <c r="AP61" s="2">
-        <f t="shared" ref="AP61:AQ61" si="118">+AP32</f>
+        <f t="shared" ref="AP61:AQ61" si="122">+AP32</f>
         <v>19765</v>
       </c>
       <c r="AQ61" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>3751</v>
       </c>
     </row>
@@ -6304,55 +6301,55 @@
         <v>48</v>
       </c>
       <c r="Z73" s="6">
-        <f t="shared" ref="Z73:AL73" si="119">+Z70-Z72</f>
+        <f t="shared" ref="Z73:AL73" si="123">+Z70-Z72</f>
         <v>8980</v>
       </c>
       <c r="AA73" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>4772</v>
       </c>
       <c r="AB73" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>7625</v>
       </c>
       <c r="AC73" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>5729</v>
       </c>
       <c r="AD73" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>6655</v>
       </c>
       <c r="AE73" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>11485</v>
       </c>
       <c r="AF73" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>15756</v>
       </c>
       <c r="AG73" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>7857</v>
       </c>
       <c r="AH73" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>10065</v>
       </c>
       <c r="AI73" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>10313</v>
       </c>
       <c r="AJ73" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>11691</v>
       </c>
       <c r="AK73" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>12183</v>
       </c>
       <c r="AL73" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>10332</v>
       </c>
       <c r="AM73" s="6">

--- a/INTC.xlsx
+++ b/INTC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB79729-9F3E-4CF2-8001-9ED2ECC75063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCC5742-45AA-4255-A7FB-A5C89AAB7645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50610" yWindow="690" windowWidth="32715" windowHeight="15345" xr2:uid="{2060C4C8-3805-4E23-AE6B-F728D7027876}"/>
+    <workbookView xWindow="-44775" yWindow="825" windowWidth="23715" windowHeight="19635" xr2:uid="{2060C4C8-3805-4E23-AE6B-F728D7027876}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="147">
   <si>
     <t>Price</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>Lunar Lake - SOC/laptop (battle mage)</t>
+  </si>
+  <si>
+    <t>NI-FCF</t>
   </si>
 </sst>
 </file>
@@ -1062,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345AE7DF-8440-4CDE-A9CC-8CE68EF0CE24}">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1074,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>21.58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -1100,7 +1103,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>92081.859999999986</v>
+        <v>170680</v>
       </c>
       <c r="M4" s="3"/>
     </row>
@@ -1141,7 +1144,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>110013.85999999999</v>
+        <v>188612</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1266,11 +1269,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B929D04B-6226-42F4-9686-EE1156E609DE}">
   <dimension ref="A1:ED76"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BD4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR15" sqref="AR15"/>
+      <selection pane="bottomRight" activeCell="BK27" sqref="BK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5478,6 +5481,10 @@
       <c r="B42" t="s">
         <v>76</v>
       </c>
+      <c r="S42" s="5">
+        <f>+S43-S52</f>
+        <v>-25000</v>
+      </c>
       <c r="T42" s="5">
         <f>+T43-T52</f>
         <v>-17932</v>
@@ -5531,12 +5538,16 @@
       </c>
       <c r="BH42" s="4">
         <f>+BH41/Main!L2-1</f>
-        <v>0.76633192100426406</v>
+        <v>-4.7063928618199524E-2</v>
       </c>
     </row>
     <row r="43" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>3</v>
+      </c>
+      <c r="S43" s="5">
+        <f>6923+14388+6139</f>
+        <v>27450</v>
       </c>
       <c r="T43" s="5">
         <f>11287+17986+5824</f>
@@ -5562,6 +5573,9 @@
       <c r="B44" t="s">
         <v>85</v>
       </c>
+      <c r="S44" s="5">
+        <v>3323</v>
+      </c>
       <c r="T44" s="5">
         <v>3131</v>
       </c>
@@ -5585,6 +5599,9 @@
       <c r="B45" t="s">
         <v>86</v>
       </c>
+      <c r="S45" s="5">
+        <v>11494</v>
+      </c>
       <c r="T45" s="5">
         <v>11244</v>
       </c>
@@ -5608,6 +5625,9 @@
       <c r="B46" t="s">
         <v>87</v>
       </c>
+      <c r="S46" s="5">
+        <v>6480</v>
+      </c>
       <c r="T46" s="5">
         <v>7181</v>
       </c>
@@ -5631,6 +5651,9 @@
       <c r="B47" t="s">
         <v>88</v>
       </c>
+      <c r="S47" s="5">
+        <v>99924</v>
+      </c>
       <c r="T47" s="5">
         <v>103398</v>
       </c>
@@ -5654,6 +5677,10 @@
       <c r="B48" t="s">
         <v>89</v>
       </c>
+      <c r="S48" s="5">
+        <f>27440+4675</f>
+        <v>32115</v>
+      </c>
       <c r="T48" s="5">
         <f>27442+4383</f>
         <v>31825</v>
@@ -5678,6 +5705,9 @@
       <c r="B49" t="s">
         <v>90</v>
       </c>
+      <c r="S49" s="5">
+        <v>11947</v>
+      </c>
       <c r="T49" s="5">
         <v>14329</v>
       </c>
@@ -5700,6 +5730,10 @@
     <row r="50" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>91</v>
+      </c>
+      <c r="S50" s="5">
+        <f>SUM(S43:S49)</f>
+        <v>192733</v>
       </c>
       <c r="T50" s="5">
         <f>SUM(T43:T49)</f>
@@ -5742,6 +5776,10 @@
       <c r="B52" t="s">
         <v>4</v>
       </c>
+      <c r="S52" s="5">
+        <f>4581+47869</f>
+        <v>52450</v>
+      </c>
       <c r="T52" s="5">
         <f>4695+48334</f>
         <v>53029</v>
@@ -5766,6 +5804,9 @@
       <c r="B53" t="s">
         <v>94</v>
       </c>
+      <c r="S53" s="5">
+        <v>8559</v>
+      </c>
       <c r="T53" s="5">
         <v>9618</v>
       </c>
@@ -5789,6 +5830,9 @@
       <c r="B54" t="s">
         <v>95</v>
       </c>
+      <c r="S54" s="5">
+        <v>2506</v>
+      </c>
       <c r="T54" s="5">
         <v>2651</v>
       </c>
@@ -5812,6 +5856,9 @@
       <c r="B55" t="s">
         <v>33</v>
       </c>
+      <c r="S55" s="5">
+        <v>346</v>
+      </c>
       <c r="T55" s="5">
         <v>1856</v>
       </c>
@@ -5835,6 +5882,9 @@
       <c r="B56" t="s">
         <v>96</v>
       </c>
+      <c r="S56" s="5">
+        <v>11221</v>
+      </c>
       <c r="T56" s="5">
         <v>13207</v>
       </c>
@@ -5858,6 +5908,9 @@
       <c r="B57" t="s">
         <v>97</v>
       </c>
+      <c r="S57" s="5">
+        <v>6895</v>
+      </c>
       <c r="T57" s="5">
         <v>5410</v>
       </c>
@@ -5881,6 +5934,9 @@
       <c r="B58" t="s">
         <v>93</v>
       </c>
+      <c r="S58" s="5">
+        <v>110756</v>
+      </c>
       <c r="T58" s="5">
         <v>120434</v>
       </c>
@@ -5904,6 +5960,10 @@
       <c r="B59" t="s">
         <v>92</v>
       </c>
+      <c r="S59" s="5">
+        <f>SUM(S52:S58)</f>
+        <v>192733</v>
+      </c>
       <c r="T59" s="5">
         <f>SUM(T52:T58)</f>
         <v>206205</v>
@@ -5913,6 +5973,14 @@
       <c r="B61" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="S61" s="5">
+        <f>+S32</f>
+        <v>-576</v>
+      </c>
+      <c r="T61" s="5">
+        <f>+T32</f>
+        <v>-941</v>
+      </c>
       <c r="Z61" s="2">
         <f t="shared" ref="Z61:AG61" si="120">+Z32</f>
         <v>7705</v>
@@ -5990,6 +6058,13 @@
       <c r="B62" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="S62" s="5">
+        <v>-437</v>
+      </c>
+      <c r="T62" s="5">
+        <f>-2091-S62</f>
+        <v>-1654</v>
+      </c>
       <c r="Z62" s="2">
         <v>8664</v>
       </c>
@@ -6048,6 +6123,13 @@
     <row r="63" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="S63" s="5">
+        <v>2200</v>
+      </c>
+      <c r="T63" s="5">
+        <f>4403-S63</f>
+        <v>2203</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
@@ -6066,6 +6148,13 @@
       <c r="B64" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="S64" s="5">
+        <v>1179</v>
+      </c>
+      <c r="T64" s="5">
+        <f>1959-S64</f>
+        <v>780</v>
+      </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
@@ -6079,9 +6168,16 @@
         <v>3128</v>
       </c>
     </row>
-    <row r="65" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="S65" s="5">
+        <v>348</v>
+      </c>
+      <c r="T65" s="5">
+        <f>1291-S65</f>
+        <v>943</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
@@ -6096,9 +6192,16 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="66" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="S66" s="5">
+        <v>351</v>
+      </c>
+      <c r="T66" s="5">
+        <f>717-S66</f>
+        <v>366</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
@@ -6113,9 +6216,16 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="67" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="S67" s="5">
+        <v>-208</v>
+      </c>
+      <c r="T67" s="5">
+        <f>-84-S67</f>
+        <v>124</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
@@ -6130,9 +6240,15 @@
         <v>-4254</v>
       </c>
     </row>
-    <row r="68" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="S68" s="5">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
@@ -6147,9 +6263,17 @@
         <v>-1059</v>
       </c>
     </row>
-    <row r="69" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="S69" s="5">
+        <f>80-366-386-1289-591-2104</f>
+        <v>-4656</v>
+      </c>
+      <c r="T69" s="5">
+        <f>272-116+184-1309-2174-1983-S69</f>
+        <v>-470</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
@@ -6167,9 +6291,25 @@
         <v>-4508</v>
       </c>
     </row>
-    <row r="70" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="S70" s="5">
+        <f>SUM(S62:S69)</f>
+        <v>-1223</v>
+      </c>
+      <c r="T70" s="5">
+        <f>SUM(T62:T69)</f>
+        <v>2292</v>
+      </c>
+      <c r="U70" s="5">
+        <f>+T70</f>
+        <v>2292</v>
+      </c>
+      <c r="V70" s="5">
+        <f>+U70</f>
+        <v>2292</v>
       </c>
       <c r="Z70" s="2">
         <v>14851</v>
@@ -6228,8 +6368,15 @@
         <f>SUM(AQ62:AQ69)</f>
         <v>15433</v>
       </c>
-    </row>
-    <row r="71" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AR70" s="2">
+        <v>11471</v>
+      </c>
+      <c r="AS70" s="2">
+        <f>SUM(S70:V70)</f>
+        <v>5653</v>
+      </c>
+    </row>
+    <row r="71" spans="2:45" x14ac:dyDescent="0.2">
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
@@ -6237,10 +6384,25 @@
       <c r="AI71" s="2"/>
       <c r="AJ71" s="2"/>
     </row>
-    <row r="72" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="S72" s="5">
+        <v>-5970</v>
+      </c>
+      <c r="T72" s="5">
+        <f>-11652-S72</f>
+        <v>-5682</v>
+      </c>
+      <c r="U72" s="5">
+        <f>+T72</f>
+        <v>-5682</v>
+      </c>
+      <c r="V72" s="5">
+        <f>+U72</f>
+        <v>-5682</v>
+      </c>
       <c r="Z72" s="2">
         <v>5871</v>
       </c>
@@ -6295,10 +6457,33 @@
       <c r="AQ72" s="2">
         <v>-24844</v>
       </c>
-    </row>
-    <row r="73" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AR72" s="2">
+        <v>-25750</v>
+      </c>
+      <c r="AS72" s="2">
+        <f>SUM(S72:V72)</f>
+        <v>-23016</v>
+      </c>
+    </row>
+    <row r="73" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="S73" s="5">
+        <f>+S72+S70</f>
+        <v>-7193</v>
+      </c>
+      <c r="T73" s="5">
+        <f>+T72+T70</f>
+        <v>-3390</v>
+      </c>
+      <c r="U73" s="5">
+        <f>+T73</f>
+        <v>-3390</v>
+      </c>
+      <c r="V73" s="5">
+        <f>+U73</f>
+        <v>-3390</v>
       </c>
       <c r="Z73" s="6">
         <f t="shared" ref="Z73:AL73" si="123">+Z70-Z72</f>
@@ -6372,9 +6557,77 @@
         <f>+AQ70+AQ72</f>
         <v>-9411</v>
       </c>
-      <c r="AR73" s="2"/>
-    </row>
-    <row r="76" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AR73" s="6">
+        <f>+AR70+AR72</f>
+        <v>-14279</v>
+      </c>
+      <c r="AS73" s="6">
+        <f>+AS70+AS72</f>
+        <v>-17363</v>
+      </c>
+    </row>
+    <row r="74" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF74" s="2">
+        <f>+AF32-AF73</f>
+        <v>-3050</v>
+      </c>
+      <c r="AG74" s="2">
+        <f t="shared" ref="AG74:AL74" si="124">+AG32-AG73</f>
+        <v>3127</v>
+      </c>
+      <c r="AH74" s="2">
+        <f t="shared" si="124"/>
+        <v>-385</v>
+      </c>
+      <c r="AI74" s="2">
+        <f t="shared" si="124"/>
+        <v>1569</v>
+      </c>
+      <c r="AJ74" s="2">
+        <f t="shared" si="124"/>
+        <v>33</v>
+      </c>
+      <c r="AK74" s="2">
+        <f t="shared" si="124"/>
+        <v>-193</v>
+      </c>
+      <c r="AL74" s="2">
+        <f t="shared" si="124"/>
+        <v>7930</v>
+      </c>
+      <c r="AM74" s="2">
+        <f t="shared" ref="AM74" si="125">+AM32-AM73</f>
+        <v>6855</v>
+      </c>
+      <c r="AN74" s="2">
+        <f t="shared" ref="AN74" si="126">+AN32-AN73</f>
+        <v>2970</v>
+      </c>
+      <c r="AO74" s="2">
+        <f t="shared" ref="AO74" si="127">+AO32-AO73</f>
+        <v>-2412</v>
+      </c>
+      <c r="AP74" s="2">
+        <f t="shared" ref="AP74" si="128">+AP32-AP73</f>
+        <v>9042</v>
+      </c>
+      <c r="AQ74" s="2">
+        <f t="shared" ref="AQ74" si="129">+AQ32-AQ73</f>
+        <v>13162</v>
+      </c>
+      <c r="AR74" s="2">
+        <f t="shared" ref="AR74:AS74" si="130">+AR32-AR73</f>
+        <v>14811</v>
+      </c>
+      <c r="AS74" s="2">
+        <f t="shared" si="130"/>
+        <v>16692.16</v>
+      </c>
+    </row>
+    <row r="76" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>84</v>
       </c>

--- a/INTC.xlsx
+++ b/INTC.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCC5742-45AA-4255-A7FB-A5C89AAB7645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF4AEA0-130D-4E52-9079-18CABF6D648B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44775" yWindow="825" windowWidth="23715" windowHeight="19635" xr2:uid="{2060C4C8-3805-4E23-AE6B-F728D7027876}"/>
+    <workbookView xWindow="-19425" yWindow="1425" windowWidth="19080" windowHeight="17160" activeTab="3" xr2:uid="{2060C4C8-3805-4E23-AE6B-F728D7027876}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="14th" sheetId="3" r:id="rId3"/>
+    <sheet name="IP" sheetId="4" r:id="rId4"/>
+    <sheet name="Semiconductors" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,12 +42,30 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={553749E0-B84C-400F-AA60-70B2200EB741}</author>
+    <author>tc={53CD2C1B-5EFB-433B-8341-4E710A5D9E0D}</author>
     <author>tc={4AF041F6-2BD0-46AD-AD03-05C15165F132}</author>
     <author>tc={7EE51CAC-1EE9-40D6-A4B0-06A92694160C}</author>
     <author>tc={BEA6A42C-CEC1-47E1-B002-6B6D239FF53A}</author>
   </authors>
   <commentList>
-    <comment ref="O22" authorId="0" shapeId="0" xr:uid="{4AF041F6-2BD0-46AD-AD03-05C15165F132}">
+    <comment ref="P14" authorId="0" shapeId="0" xr:uid="{553749E0-B84C-400F-AA60-70B2200EB741}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Was 232m, moved from DCAI</t>
+      </text>
+    </comment>
+    <comment ref="P18" authorId="1" shapeId="0" xr:uid="{53CD2C1B-5EFB-433B-8341-4E710A5D9E0D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Was 4,004, moved to foundry</t>
+      </text>
+    </comment>
+    <comment ref="O22" authorId="2" shapeId="0" xr:uid="{4AF041F6-2BD0-46AD-AD03-05C15165F132}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +73,7 @@
     10.5-11.5B guidance for Q123 given Q422</t>
       </text>
     </comment>
-    <comment ref="U22" authorId="1" shapeId="0" xr:uid="{7EE51CAC-1EE9-40D6-A4B0-06A92694160C}">
+    <comment ref="U22" authorId="3" shapeId="0" xr:uid="{7EE51CAC-1EE9-40D6-A4B0-06A92694160C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -61,7 +81,7 @@
     Q224: 12.5B-13.5B</t>
       </text>
     </comment>
-    <comment ref="O24" authorId="2" shapeId="0" xr:uid="{BEA6A42C-CEC1-47E1-B002-6B6D239FF53A}">
+    <comment ref="O24" authorId="4" shapeId="0" xr:uid="{BEA6A42C-CEC1-47E1-B002-6B6D239FF53A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="242">
   <si>
     <t>Price</t>
   </si>
@@ -515,6 +535,291 @@
   </si>
   <si>
     <t>NI-FCF</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Impairments</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>ESOP</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Unifying Interface for Cloud Content Sharing Devices</t>
+  </si>
+  <si>
+    <t>Inventors</t>
+  </si>
+  <si>
+    <t>Steven J. Birkel</t>
+  </si>
+  <si>
+    <t>Optimizing Head Mounted Displays for Augmented Reality</t>
+  </si>
+  <si>
+    <t>Anna Petrovskaya</t>
+  </si>
+  <si>
+    <t>Embedded Bridge Die With Through-Silicon Vias</t>
+  </si>
+  <si>
+    <t>Aditya Vaidya</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fabrication</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>wafer</t>
+  </si>
+  <si>
+    <t>the small, thin silce of silicon that houses the IC. Contains millions - billions transistors and other components</t>
+  </si>
+  <si>
+    <t>the active component of the electronic device, it is encased in packaging</t>
+  </si>
+  <si>
+    <t>printed circuit board, a large, flat board which acts as a platform to connect and organize electronic components such as dies, capacitors, resistors, etc. provides power and communication between components via conductive traces (copper paths</t>
+  </si>
+  <si>
+    <t>conductive traces</t>
+  </si>
+  <si>
+    <t>packaging</t>
+  </si>
+  <si>
+    <t>houses the die in a plastic or ceramic enclosure with pins or solder balls to form an IC chip</t>
+  </si>
+  <si>
+    <t>integrated circuit</t>
+  </si>
+  <si>
+    <t>Circuits were once made of discrete components: individual transistors, resistors, capacitors, diodes, all connected via wires on a circuit board. Jack Kilby and Robert Noyce developed methods to combine these materials on a silicon substrate.</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>BEOL</t>
+  </si>
+  <si>
+    <t>back-end-of-line process is where multiple metal layers are deposited and patterned on a chip to form interconnections</t>
+  </si>
+  <si>
+    <t>vertical connections that allow signal to pass through different layers of a device.</t>
+  </si>
+  <si>
+    <t>TSV</t>
+  </si>
+  <si>
+    <t>through-silicon vias are vias which pass through a silicon die in a 3D stacked IC</t>
+  </si>
+  <si>
+    <t>HBM</t>
+  </si>
+  <si>
+    <t>3D stacked IC</t>
+  </si>
+  <si>
+    <t>3D NAND</t>
+  </si>
+  <si>
+    <t>through-hole vias</t>
+  </si>
+  <si>
+    <t>small drilled hole enabling connection to different layers of the board</t>
+  </si>
+  <si>
+    <t>blind vias</t>
+  </si>
+  <si>
+    <t>buried vias</t>
+  </si>
+  <si>
+    <t>not visible, connects internal PCB layers</t>
+  </si>
+  <si>
+    <t>connects an outer layer to an inner layer, but not through the entire board</t>
+  </si>
+  <si>
+    <t>contact pitches</t>
+  </si>
+  <si>
+    <t>trace routing</t>
+  </si>
+  <si>
+    <t>see conductive traces</t>
+  </si>
+  <si>
+    <t>pitch</t>
+  </si>
+  <si>
+    <t>routing pitch</t>
+  </si>
+  <si>
+    <t>bridging die</t>
+  </si>
+  <si>
+    <t>FIVR</t>
+  </si>
+  <si>
+    <t>MCI</t>
+  </si>
+  <si>
+    <t>multilayer chip inductor</t>
+  </si>
+  <si>
+    <t>fully integrated voltage regulator</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>bond pad</t>
+  </si>
+  <si>
+    <t>electrical bond pad</t>
+  </si>
+  <si>
+    <t>MEMS</t>
+  </si>
+  <si>
+    <t>bump</t>
+  </si>
+  <si>
+    <t>also known as a solder bump</t>
+  </si>
+  <si>
+    <t>dielectric layer</t>
+  </si>
+  <si>
+    <t>DBF</t>
+  </si>
+  <si>
+    <t>die backside film</t>
+  </si>
+  <si>
+    <t>epoxy film</t>
+  </si>
+  <si>
+    <t>RAM die</t>
+  </si>
+  <si>
+    <t>logic die</t>
+  </si>
+  <si>
+    <t>power bus</t>
+  </si>
+  <si>
+    <t>wet etch</t>
+  </si>
+  <si>
+    <t>DRIE</t>
+  </si>
+  <si>
+    <t>deep reactive ion etching</t>
+  </si>
+  <si>
+    <t>PECVD</t>
+  </si>
+  <si>
+    <t>plasma-enhanced chemical vapor deposition</t>
+  </si>
+  <si>
+    <t>RF sputtering</t>
+  </si>
+  <si>
+    <t>LPD</t>
+  </si>
+  <si>
+    <t>liquid phase deposition</t>
+  </si>
+  <si>
+    <t>electroplating</t>
+  </si>
+  <si>
+    <t>photolithography</t>
+  </si>
+  <si>
+    <t>adhesion layer</t>
+  </si>
+  <si>
+    <t>carrier wafer</t>
+  </si>
+  <si>
+    <t>ACF</t>
+  </si>
+  <si>
+    <t>anisotropic conductive film</t>
+  </si>
+  <si>
+    <t>BBUL</t>
+  </si>
+  <si>
+    <t>bumpless build-up layer package</t>
+  </si>
+  <si>
+    <t>FLI</t>
+  </si>
+  <si>
+    <t>first-level interconnect</t>
+  </si>
+  <si>
+    <t>microvias</t>
+  </si>
+  <si>
+    <t>system-on-chip</t>
+  </si>
+  <si>
+    <t>Processor Related Communications</t>
+  </si>
+  <si>
+    <t>Chih-Jen Chang</t>
   </si>
 </sst>
 </file>
@@ -524,7 +829,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -560,6 +865,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -582,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -621,6 +932,9 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -645,15 +959,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>36033</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>36033</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>135669</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -695,15 +1009,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>20051</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>59464</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>20051</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>59464</xdr:colOff>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>107156</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -719,8 +1033,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12491848" y="0"/>
-          <a:ext cx="0" cy="11519297"/>
+          <a:off x="13210533" y="0"/>
+          <a:ext cx="0" cy="13080863"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1049,6 +1363,12 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P14" dT="2024-12-09T19:16:37.54" personId="{885FAFCD-EA21-4344-9B78-0E93CEEF76F9}" id="{553749E0-B84C-400F-AA60-70B2200EB741}">
+    <text>Was 232m, moved from DCAI</text>
+  </threadedComment>
+  <threadedComment ref="P18" dT="2024-12-09T19:16:13.48" personId="{885FAFCD-EA21-4344-9B78-0E93CEEF76F9}" id="{53CD2C1B-5EFB-433B-8341-4E710A5D9E0D}">
+    <text>Was 4,004, moved to foundry</text>
+  </threadedComment>
   <threadedComment ref="O22" dT="2023-02-01T15:27:50.55" personId="{885FAFCD-EA21-4344-9B78-0E93CEEF76F9}" id="{4AF041F6-2BD0-46AD-AD03-05C15165F132}">
     <text>10.5-11.5B guidance for Q123 given Q422</text>
   </threadedComment>
@@ -1065,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345AE7DF-8440-4CDE-A9CC-8CE68EF0CE24}">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1077,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -1103,7 +1423,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>170680</v>
+        <v>85340</v>
       </c>
       <c r="M4" s="3"/>
     </row>
@@ -1144,7 +1464,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>188612</v>
+        <v>103272</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1267,29 +1587,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B929D04B-6226-42F4-9686-EE1156E609DE}">
-  <dimension ref="A1:ED76"/>
+  <dimension ref="A1:EF91"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BD4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BK27" sqref="BK27"/>
+      <selection pane="bottomRight" activeCell="AT16" sqref="AT16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="24" width="9.140625" style="3"/>
-    <col min="60" max="60" width="10.7109375" customWidth="1"/>
+    <col min="3" max="26" width="9.140625" style="3"/>
+    <col min="62" max="62" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1350,260 +1670,266 @@
       <c r="V2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Z2">
+      <c r="W2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB2">
         <v>2005</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>2006</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>2007</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>2008</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>2009</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>2010</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>2011</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>2012</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>2013</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>2014</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>2015</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <v>2016</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>2017</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>2018</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <v>2019</v>
       </c>
-      <c r="AO2">
+      <c r="AQ2">
         <v>2020</v>
       </c>
-      <c r="AP2">
-        <f>+AO2+1</f>
+      <c r="AR2">
+        <f>+AQ2+1</f>
         <v>2021</v>
-      </c>
-      <c r="AQ2">
-        <f>+AP2+1</f>
-        <v>2022</v>
-      </c>
-      <c r="AR2">
-        <v>2023</v>
       </c>
       <c r="AS2">
         <f>+AR2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="AT2">
+        <v>2023</v>
+      </c>
+      <c r="AU2">
+        <f>+AT2+1</f>
         <v>2024</v>
       </c>
-      <c r="AT2">
-        <f t="shared" ref="AT2:BI2" si="0">+AS2+1</f>
+      <c r="AV2">
+        <f t="shared" ref="AV2:BK2" si="0">+AU2+1</f>
         <v>2025</v>
       </c>
-      <c r="AU2">
+      <c r="AW2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AV2">
+      <c r="AX2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AW2">
+      <c r="AY2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AX2">
+      <c r="AZ2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AY2">
+      <c r="BA2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AZ2">
+      <c r="BB2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="BA2">
+      <c r="BC2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="BB2">
+      <c r="BD2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="BC2">
+      <c r="BE2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="BD2">
+      <c r="BF2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="BE2">
+      <c r="BG2">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="BF2">
+      <c r="BH2">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="BG2">
+      <c r="BI2">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="BH2">
+      <c r="BJ2">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="BI2">
+      <c r="BK2">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>71</v>
       </c>
-      <c r="AN3" s="2">
-        <f>+AN5+AN6+AN22</f>
-        <v>89614</v>
-      </c>
-      <c r="AO3" s="2">
-        <f>+AO5+AO6+AO22</f>
-        <v>104305</v>
-      </c>
       <c r="AP3" s="2">
         <f>+AP5+AP6+AP22</f>
-        <v>122372</v>
+        <v>89614</v>
       </c>
       <c r="AQ3" s="2">
         <f>+AQ5+AQ6+AQ22</f>
+        <v>104305</v>
+      </c>
+      <c r="AR3" s="2">
+        <f>+AR5+AR6+AR22</f>
+        <v>122372</v>
+      </c>
+      <c r="AS3" s="2">
+        <f>+AS5+AS6+AS22</f>
         <v>106411</v>
       </c>
-      <c r="AR3" s="2">
-        <f t="shared" ref="AR3" si="1">+AR5+AR6+AR22</f>
+      <c r="AT3" s="2">
+        <f t="shared" ref="AT3" si="1">+AT5+AT6+AT22</f>
         <v>102351</v>
       </c>
-      <c r="AS3" s="2">
-        <f>+AR3*1.05</f>
+      <c r="AU3" s="2">
+        <f>+AT3*1.05</f>
         <v>107468.55</v>
       </c>
-      <c r="AT3" s="2">
-        <f t="shared" ref="AT3:BD3" si="2">+AS3*1.05</f>
+      <c r="AV3" s="2">
+        <f t="shared" ref="AV3:BF3" si="2">+AU3*1.05</f>
         <v>112841.97750000001</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AW3" s="2">
         <f t="shared" si="2"/>
         <v>118484.07637500002</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="AX3" s="2">
         <f t="shared" si="2"/>
         <v>124408.28019375002</v>
       </c>
-      <c r="AW3" s="2">
+      <c r="AY3" s="2">
         <f t="shared" si="2"/>
         <v>130628.69420343752</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="AZ3" s="2">
         <f t="shared" si="2"/>
         <v>137160.1289136094</v>
       </c>
-      <c r="AY3" s="2">
+      <c r="BA3" s="2">
         <f t="shared" si="2"/>
         <v>144018.13535928988</v>
       </c>
-      <c r="AZ3" s="2">
+      <c r="BB3" s="2">
         <f t="shared" si="2"/>
         <v>151219.04212725439</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BC3" s="2">
         <f t="shared" si="2"/>
         <v>158779.99423361712</v>
       </c>
-      <c r="BB3" s="2">
+      <c r="BD3" s="2">
         <f t="shared" si="2"/>
         <v>166718.99394529799</v>
       </c>
-      <c r="BC3" s="2">
+      <c r="BE3" s="2">
         <f t="shared" si="2"/>
         <v>175054.9436425629</v>
       </c>
-      <c r="BD3" s="2">
+      <c r="BF3" s="2">
         <f t="shared" si="2"/>
         <v>183807.69082469106</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>72</v>
       </c>
-      <c r="AN4" s="18">
-        <f>+AN22/AN3</f>
-        <v>0.80305532617671349</v>
-      </c>
-      <c r="AO4" s="18">
-        <f>+AO22/AO3</f>
-        <v>0.74653180576194811</v>
-      </c>
       <c r="AP4" s="18">
         <f>+AP22/AP3</f>
-        <v>0.64576863988494104</v>
+        <v>0.80305532617671349</v>
       </c>
       <c r="AQ4" s="18">
         <f>+AQ22/AQ3</f>
-        <v>0.59255152192912386</v>
+        <v>0.74653180576194811</v>
       </c>
       <c r="AR4" s="18">
         <f>+AR22/AR3</f>
+        <v>0.64576863988494104</v>
+      </c>
+      <c r="AS4" s="18">
+        <f>+AS22/AS3</f>
+        <v>0.59255152192912386</v>
+      </c>
+      <c r="AT4" s="18">
+        <f>+AT22/AT3</f>
         <v>0.52982384148664885</v>
       </c>
-      <c r="AS4" s="4">
+      <c r="AU4" s="4">
         <v>0.51</v>
       </c>
-      <c r="AT4" s="4">
+      <c r="AV4" s="4">
         <v>0.52</v>
       </c>
-      <c r="AU4" s="4">
+      <c r="AW4" s="4">
         <v>0.53</v>
       </c>
-      <c r="AV4" s="4">
+      <c r="AX4" s="4">
         <v>0.53</v>
-      </c>
-      <c r="AW4" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="AX4" s="4">
-        <v>0.54</v>
       </c>
       <c r="AY4" s="4">
         <v>0.54</v>
       </c>
       <c r="AZ4" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="BA4" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="BB4" s="4">
         <v>0.55000000000000004</v>
-      </c>
-      <c r="BA4" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="BB4" s="4">
-        <v>0.56000000000000005</v>
       </c>
       <c r="BC4" s="4">
         <v>0.56000000000000005</v>
@@ -1611,8 +1937,14 @@
       <c r="BD4" s="4">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:61" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BE4" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BF4" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>36</v>
       </c>
@@ -1638,24 +1970,26 @@
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
-      <c r="AN5" s="10">
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AP5" s="10">
         <v>10918</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AQ5" s="10">
         <v>16675</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AR5" s="10">
         <v>26914</v>
       </c>
-      <c r="AQ5" s="10">
+      <c r="AS5" s="10">
         <v>26923</v>
       </c>
-      <c r="AR5" s="10">
-        <f>+AQ5</f>
+      <c r="AT5" s="10">
+        <f>+AS5</f>
         <v>26923</v>
       </c>
     </row>
-    <row r="6" spans="1:61" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>70</v>
       </c>
@@ -1681,43 +2015,45 @@
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
-      <c r="AH6" s="10">
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AJ6" s="10">
         <v>5299</v>
       </c>
-      <c r="AI6" s="10">
+      <c r="AK6" s="10">
         <v>5506</v>
       </c>
-      <c r="AJ6" s="10">
+      <c r="AL6" s="10">
         <v>3991</v>
       </c>
-      <c r="AK6" s="10">
+      <c r="AM6" s="10">
         <v>4272</v>
       </c>
-      <c r="AL6" s="10">
+      <c r="AN6" s="10">
         <v>5329</v>
       </c>
-      <c r="AM6" s="10">
+      <c r="AO6" s="10">
         <v>6475</v>
       </c>
-      <c r="AN6" s="10">
+      <c r="AP6" s="10">
         <v>6731</v>
       </c>
-      <c r="AO6" s="10">
+      <c r="AQ6" s="10">
         <v>9763</v>
       </c>
-      <c r="AP6" s="10">
+      <c r="AR6" s="10">
         <v>16434</v>
       </c>
-      <c r="AQ6" s="10">
-        <f>+AP6</f>
+      <c r="AS6" s="10">
+        <f>+AR6</f>
         <v>16434</v>
       </c>
-      <c r="AR6" s="10">
+      <c r="AT6" s="10">
         <f>5300*4</f>
         <v>21200</v>
       </c>
     </row>
-    <row r="7" spans="1:61" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>98</v>
       </c>
@@ -1743,13 +2079,15 @@
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
       <c r="AP7" s="10"/>
       <c r="AQ7" s="10"/>
       <c r="AR7" s="10"/>
-    </row>
-    <row r="8" spans="1:61" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+    </row>
+    <row r="8" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>99</v>
       </c>
@@ -1775,13 +2113,15 @@
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
       <c r="AP8" s="10"/>
       <c r="AQ8" s="10"/>
       <c r="AR8" s="10"/>
-    </row>
-    <row r="9" spans="1:61" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+    </row>
+    <row r="9" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>101</v>
       </c>
@@ -1807,52 +2147,54 @@
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
-      <c r="AH9" s="10">
-        <f>+AH6+AH22</f>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AJ9" s="10">
+        <f>+AJ6+AJ22</f>
         <v>58007</v>
       </c>
-      <c r="AI9" s="10">
-        <f t="shared" ref="AI9:AR9" si="3">+AI6+AI22</f>
+      <c r="AK9" s="10">
+        <f t="shared" ref="AK9:AT9" si="3">+AK6+AK22</f>
         <v>61376</v>
       </c>
-      <c r="AJ9" s="10">
+      <c r="AL9" s="10">
         <f t="shared" si="3"/>
         <v>59346</v>
       </c>
-      <c r="AK9" s="10">
+      <c r="AM9" s="10">
         <f t="shared" si="3"/>
         <v>63659</v>
       </c>
-      <c r="AL9" s="10">
+      <c r="AN9" s="10">
         <f t="shared" si="3"/>
         <v>68090</v>
       </c>
-      <c r="AM9" s="10">
+      <c r="AO9" s="10">
         <f t="shared" si="3"/>
         <v>77323</v>
       </c>
-      <c r="AN9" s="10">
+      <c r="AP9" s="10">
         <f t="shared" si="3"/>
         <v>78696</v>
       </c>
-      <c r="AO9" s="10">
+      <c r="AQ9" s="10">
         <f t="shared" si="3"/>
         <v>87630</v>
       </c>
-      <c r="AP9" s="10">
+      <c r="AR9" s="10">
         <f t="shared" si="3"/>
         <v>95458</v>
       </c>
-      <c r="AQ9" s="10">
+      <c r="AS9" s="10">
         <f t="shared" si="3"/>
         <v>79488</v>
       </c>
-      <c r="AR9" s="10">
+      <c r="AT9" s="10">
         <f t="shared" si="3"/>
         <v>75428</v>
       </c>
     </row>
-    <row r="10" spans="1:61" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>102</v>
       </c>
@@ -1878,52 +2220,54 @@
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
-      <c r="AH10" s="18">
-        <f>+AH22/AH9</f>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AJ10" s="18">
+        <f>+AJ22/AJ9</f>
         <v>0.90864895616046337</v>
       </c>
-      <c r="AI10" s="18">
-        <f t="shared" ref="AI10:AR10" si="4">+AI22/AI9</f>
+      <c r="AK10" s="18">
+        <f t="shared" ref="AK10:AT10" si="4">+AK22/AK9</f>
         <v>0.91029066736183528</v>
       </c>
-      <c r="AJ10" s="18">
+      <c r="AL10" s="18">
         <f t="shared" si="4"/>
         <v>0.93275031173120349</v>
       </c>
-      <c r="AK10" s="18">
+      <c r="AM10" s="18">
         <f t="shared" si="4"/>
         <v>0.93289244254543746</v>
       </c>
-      <c r="AL10" s="18">
+      <c r="AN10" s="18">
         <f t="shared" si="4"/>
         <v>0.92173593772947571</v>
       </c>
-      <c r="AM10" s="18">
+      <c r="AO10" s="18">
         <f t="shared" si="4"/>
         <v>0.91626036237600716</v>
       </c>
-      <c r="AN10" s="18">
+      <c r="AP10" s="18">
         <f t="shared" si="4"/>
         <v>0.91446833384161841</v>
       </c>
-      <c r="AO10" s="18">
+      <c r="AQ10" s="18">
         <f t="shared" si="4"/>
         <v>0.88858838297386744</v>
       </c>
-      <c r="AP10" s="18">
+      <c r="AR10" s="18">
         <f t="shared" si="4"/>
         <v>0.82784051624798338</v>
       </c>
-      <c r="AQ10" s="18">
+      <c r="AS10" s="18">
         <f t="shared" si="4"/>
         <v>0.79325181159420288</v>
       </c>
-      <c r="AR10" s="18">
+      <c r="AT10" s="18">
         <f t="shared" si="4"/>
         <v>0.71893726467624752</v>
       </c>
     </row>
-    <row r="11" spans="1:61" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>100</v>
       </c>
@@ -1949,62 +2293,64 @@
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
-      <c r="AA11" s="10">
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AC11" s="10">
         <v>239.2</v>
       </c>
-      <c r="AB11" s="10">
+      <c r="AD11" s="10">
         <v>272.45</v>
       </c>
-      <c r="AC11" s="10">
+      <c r="AE11" s="10">
         <v>290.8</v>
       </c>
-      <c r="AD11" s="10">
+      <c r="AF11" s="10">
         <v>308.33999999999997</v>
       </c>
-      <c r="AE11" s="10">
+      <c r="AG11" s="10">
         <v>350.9</v>
       </c>
-      <c r="AF11" s="10">
+      <c r="AH11" s="10">
         <v>365.36</v>
       </c>
-      <c r="AG11" s="10">
+      <c r="AI11" s="10">
         <v>351.06</v>
       </c>
-      <c r="AH11" s="10">
+      <c r="AJ11" s="10">
         <v>316.39999999999998</v>
       </c>
-      <c r="AI11" s="10">
+      <c r="AK11" s="10">
         <v>313.68</v>
       </c>
-      <c r="AJ11" s="10">
+      <c r="AL11" s="10">
         <v>287.68</v>
       </c>
-      <c r="AK11" s="10">
+      <c r="AM11" s="10">
         <v>269.7</v>
       </c>
-      <c r="AL11" s="10">
+      <c r="AN11" s="10">
         <v>262.60000000000002</v>
       </c>
-      <c r="AM11" s="10">
+      <c r="AO11" s="10">
         <v>259.7</v>
       </c>
-      <c r="AN11" s="10">
+      <c r="AP11" s="10">
         <v>262.55</v>
       </c>
-      <c r="AO11" s="10">
+      <c r="AQ11" s="10">
         <v>309.08</v>
       </c>
-      <c r="AP11" s="10">
+      <c r="AR11" s="10">
         <v>341.73</v>
       </c>
-      <c r="AQ11" s="10">
+      <c r="AS11" s="10">
         <v>284.05</v>
       </c>
-      <c r="AR11" s="10">
+      <c r="AT11" s="10">
         <v>241.89</v>
       </c>
     </row>
-    <row r="12" spans="1:61" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>104</v>
       </c>
@@ -2030,80 +2376,82 @@
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
-      <c r="AA12" s="20">
-        <f>+AA22/AA11</f>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AC12" s="20">
+        <f>+AC22/AC11</f>
         <v>147.91806020066889</v>
       </c>
-      <c r="AB12" s="20">
-        <f t="shared" ref="AB12:AR12" si="5">+AB22/AB11</f>
+      <c r="AD12" s="20">
+        <f t="shared" ref="AD12:AT12" si="5">+AD22/AD11</f>
         <v>140.7010460634979</v>
       </c>
-      <c r="AC12" s="20">
+      <c r="AE12" s="20">
         <f t="shared" si="5"/>
         <v>129.2503438789546</v>
       </c>
-      <c r="AD12" s="20">
+      <c r="AF12" s="20">
         <f t="shared" si="5"/>
         <v>113.92294220665499</v>
       </c>
-      <c r="AE12" s="20">
+      <c r="AG12" s="20">
         <f t="shared" si="5"/>
         <v>124.31746936449132</v>
       </c>
-      <c r="AF12" s="20">
+      <c r="AH12" s="20">
         <f t="shared" si="5"/>
         <v>147.79669367199475</v>
       </c>
-      <c r="AG12" s="20">
+      <c r="AI12" s="20">
         <f t="shared" si="5"/>
         <v>151.94268785962512</v>
       </c>
-      <c r="AH12" s="20">
+      <c r="AJ12" s="20">
         <f t="shared" si="5"/>
         <v>166.5865992414665</v>
       </c>
-      <c r="AI12" s="20">
+      <c r="AK12" s="20">
         <f t="shared" si="5"/>
         <v>178.11145116041826</v>
       </c>
-      <c r="AJ12" s="20">
+      <c r="AL12" s="20">
         <f t="shared" si="5"/>
         <v>192.41865962180199</v>
       </c>
-      <c r="AK12" s="20">
+      <c r="AM12" s="20">
         <f t="shared" si="5"/>
         <v>220.19651464590285</v>
       </c>
-      <c r="AL12" s="20">
+      <c r="AN12" s="20">
         <f t="shared" si="5"/>
         <v>238.99847677075397</v>
       </c>
-      <c r="AM12" s="20">
+      <c r="AO12" s="20">
         <f t="shared" si="5"/>
         <v>272.80708509819021</v>
       </c>
-      <c r="AN12" s="20">
+      <c r="AP12" s="20">
         <f t="shared" si="5"/>
         <v>274.10017139592458</v>
       </c>
-      <c r="AO12" s="20">
+      <c r="AQ12" s="20">
         <f t="shared" si="5"/>
         <v>251.93153876019156</v>
       </c>
-      <c r="AP12" s="20">
+      <c r="AR12" s="20">
         <f t="shared" si="5"/>
         <v>231.24689082023818</v>
       </c>
-      <c r="AQ12" s="20">
+      <c r="AS12" s="20">
         <f t="shared" si="5"/>
         <v>221.9820454145397</v>
       </c>
-      <c r="AR12" s="20">
+      <c r="AT12" s="20">
         <f t="shared" si="5"/>
         <v>224.18454669477862</v>
       </c>
     </row>
-    <row r="13" spans="1:61" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -2126,134 +2474,225 @@
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
       <c r="AQ13" s="10"/>
-    </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>60</v>
       </c>
+      <c r="K14" s="5">
+        <v>156</v>
+      </c>
+      <c r="L14" s="3">
+        <v>57</v>
+      </c>
+      <c r="O14" s="5">
+        <v>118</v>
+      </c>
       <c r="P14" s="5">
         <v>4172</v>
       </c>
+      <c r="Q14" s="5">
+        <v>4732</v>
+      </c>
       <c r="T14" s="5">
         <v>4320</v>
       </c>
-      <c r="AO14" s="2">
+      <c r="U14" s="5">
+        <v>4352</v>
+      </c>
+      <c r="AQ14" s="2">
         <v>700</v>
       </c>
-      <c r="AP14" s="2">
+      <c r="AR14" s="2">
         <v>800</v>
       </c>
-      <c r="AQ14" s="2">
+      <c r="AS14" s="2">
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>59</v>
       </c>
+      <c r="K15" s="5">
+        <v>268</v>
+      </c>
+      <c r="L15" s="3">
+        <v>220</v>
+      </c>
+      <c r="O15" s="5">
+        <v>165</v>
+      </c>
       <c r="P15" s="3">
         <v>848</v>
       </c>
+      <c r="Q15" s="3">
+        <v>735</v>
+      </c>
       <c r="T15" s="3">
         <v>361</v>
       </c>
-      <c r="AO15" s="2">
+      <c r="U15" s="3">
+        <v>412</v>
+      </c>
+      <c r="AQ15" s="2">
         <v>700</v>
       </c>
-      <c r="AP15" s="2">
+      <c r="AR15" s="2">
         <v>800</v>
       </c>
-      <c r="AQ15" s="2">
+      <c r="AS15" s="2">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>58</v>
       </c>
+      <c r="K16" s="5">
+        <v>394</v>
+      </c>
+      <c r="L16" s="3">
+        <v>460</v>
+      </c>
+      <c r="O16" s="5">
+        <v>458</v>
+      </c>
       <c r="P16" s="5">
         <v>454</v>
       </c>
+      <c r="Q16" s="3">
+        <v>530</v>
+      </c>
       <c r="T16" s="5">
         <v>440</v>
       </c>
-      <c r="AO16" s="2">
+      <c r="U16" s="5">
+        <v>485</v>
+      </c>
+      <c r="AQ16" s="2">
         <v>1000</v>
       </c>
-      <c r="AP16" s="2">
+      <c r="AR16" s="2">
         <v>1400</v>
       </c>
-      <c r="AQ16" s="2">
+      <c r="AS16" s="2">
         <v>1900</v>
       </c>
     </row>
-    <row r="17" spans="2:134" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:136" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>57</v>
       </c>
+      <c r="K17" s="5">
+        <v>2139</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2211</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1489</v>
+      </c>
       <c r="P17" s="5">
         <v>1364</v>
       </c>
+      <c r="Q17" s="5">
+        <v>1450</v>
+      </c>
       <c r="T17" s="5">
         <v>1344</v>
       </c>
-      <c r="AO17" s="2">
+      <c r="U17" s="5">
+        <v>1511</v>
+      </c>
+      <c r="AQ17" s="2">
         <v>7100</v>
       </c>
-      <c r="AP17" s="2">
+      <c r="AR17" s="2">
         <v>8000</v>
       </c>
-      <c r="AQ17" s="2">
+      <c r="AS17" s="2">
         <v>8900</v>
       </c>
     </row>
-    <row r="18" spans="2:134" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:136" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>56</v>
       </c>
+      <c r="K18" s="5">
+        <v>6074</v>
+      </c>
+      <c r="L18" s="5">
+        <v>4695</v>
+      </c>
+      <c r="O18" s="5">
+        <v>3718</v>
+      </c>
       <c r="P18" s="5">
         <v>3155</v>
       </c>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="5">
+        <v>3076</v>
+      </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5">
         <v>3045</v>
       </c>
-      <c r="AO18" s="2">
+      <c r="U18" s="5">
+        <v>3349</v>
+      </c>
+      <c r="AQ18" s="2">
         <v>23400</v>
       </c>
-      <c r="AP18" s="2">
+      <c r="AR18" s="2">
         <v>22700</v>
       </c>
-      <c r="AQ18" s="2">
+      <c r="AS18" s="2">
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="2:134" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:136" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>55</v>
       </c>
+      <c r="K19" s="5">
+        <v>722</v>
+      </c>
+      <c r="L19" s="5">
+        <v>638</v>
+      </c>
+      <c r="O19" s="5">
+        <v>481</v>
+      </c>
       <c r="P19" s="3">
         <v>514</v>
       </c>
+      <c r="Q19" s="3">
+        <v>611</v>
+      </c>
       <c r="T19" s="3">
         <v>403</v>
       </c>
-      <c r="AO19" s="2">
+      <c r="U19" s="3">
+        <v>372</v>
+      </c>
+      <c r="AQ19" s="2">
         <v>4500</v>
       </c>
-      <c r="AP19" s="2">
+      <c r="AR19" s="2">
         <v>3200</v>
       </c>
-      <c r="AQ19" s="2">
+      <c r="AS19" s="2">
         <v>2300</v>
       </c>
     </row>
-    <row r="20" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:136" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
@@ -2265,35 +2704,47 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="K20" s="5">
+        <v>2641</v>
+      </c>
+      <c r="L20" s="5">
+        <v>2289</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="O20" s="5">
+        <v>1879</v>
+      </c>
       <c r="P20" s="5">
         <v>2370</v>
       </c>
-      <c r="Q20" s="5"/>
+      <c r="Q20" s="5">
+        <v>2753</v>
+      </c>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5">
         <v>2527</v>
       </c>
-      <c r="U20" s="5"/>
+      <c r="U20" s="5">
+        <v>2070</v>
+      </c>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
-      <c r="AO20" s="2">
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AQ20" s="2">
         <v>11200</v>
       </c>
-      <c r="AP20" s="2">
+      <c r="AR20" s="2">
         <v>12400</v>
       </c>
-      <c r="AQ20" s="2">
+      <c r="AS20" s="2">
         <v>10700</v>
       </c>
     </row>
-    <row r="21" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:136" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
@@ -2305,35 +2756,47 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="K21" s="5">
+        <v>5959</v>
+      </c>
+      <c r="L21" s="5">
+        <v>4751</v>
+      </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="O21" s="5">
+        <v>3407</v>
+      </c>
       <c r="P21" s="5">
         <v>3896</v>
       </c>
-      <c r="Q21" s="5"/>
+      <c r="Q21" s="5">
+        <v>4503</v>
+      </c>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5">
         <v>4480</v>
       </c>
-      <c r="U21" s="5"/>
+      <c r="U21" s="5">
+        <v>4888</v>
+      </c>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
-      <c r="AO21" s="2">
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AQ21" s="2">
         <v>24900</v>
       </c>
-      <c r="AP21" s="2">
+      <c r="AR21" s="2">
         <v>25400</v>
       </c>
-      <c r="AQ21" s="2">
+      <c r="AS21" s="2">
         <v>18800</v>
       </c>
     </row>
-    <row r="22" spans="2:134" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:136" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
@@ -2384,122 +2847,136 @@
         <v>12833</v>
       </c>
       <c r="U22" s="7">
-        <v>13000</v>
+        <v>13284</v>
       </c>
       <c r="V22" s="7">
         <f>+R22*0.9</f>
         <v>13865.4</v>
       </c>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Z22" s="6">
+      <c r="W22" s="7">
+        <f>+S22*0.9</f>
+        <v>11451.6</v>
+      </c>
+      <c r="X22" s="7">
+        <f>+T22*0.9</f>
+        <v>11549.7</v>
+      </c>
+      <c r="Y22" s="7">
+        <f>+U22*0.9</f>
+        <v>11955.6</v>
+      </c>
+      <c r="Z22" s="7">
+        <f>+V22*0.9</f>
+        <v>12478.86</v>
+      </c>
+      <c r="AB22" s="6">
         <v>38826</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AC22" s="6">
         <v>35382</v>
       </c>
-      <c r="AB22" s="6">
+      <c r="AD22" s="6">
         <v>38334</v>
       </c>
-      <c r="AC22" s="6">
+      <c r="AE22" s="6">
         <v>37586</v>
       </c>
-      <c r="AD22" s="6">
+      <c r="AF22" s="6">
         <v>35127</v>
       </c>
-      <c r="AE22" s="6">
+      <c r="AG22" s="6">
         <v>43623</v>
       </c>
-      <c r="AF22" s="6">
+      <c r="AH22" s="6">
         <v>53999</v>
       </c>
-      <c r="AG22" s="6">
+      <c r="AI22" s="6">
         <v>53341</v>
       </c>
-      <c r="AH22" s="6">
+      <c r="AJ22" s="6">
         <v>52708</v>
       </c>
-      <c r="AI22" s="6">
+      <c r="AK22" s="6">
         <v>55870</v>
       </c>
-      <c r="AJ22" s="6">
+      <c r="AL22" s="6">
         <v>55355</v>
       </c>
-      <c r="AK22" s="6">
+      <c r="AM22" s="6">
         <v>59387</v>
       </c>
-      <c r="AL22" s="6">
+      <c r="AN22" s="6">
         <v>62761</v>
       </c>
-      <c r="AM22" s="6">
+      <c r="AO22" s="6">
         <v>70848</v>
       </c>
-      <c r="AN22" s="6">
+      <c r="AP22" s="6">
         <v>71965</v>
       </c>
-      <c r="AO22" s="6">
+      <c r="AQ22" s="6">
         <v>77867</v>
       </c>
-      <c r="AP22" s="6">
+      <c r="AR22" s="6">
         <v>79024</v>
       </c>
-      <c r="AQ22" s="6">
+      <c r="AS22" s="6">
         <v>63054</v>
       </c>
-      <c r="AR22" s="6">
+      <c r="AT22" s="6">
         <f>SUM(O22:R22)</f>
         <v>54228</v>
       </c>
-      <c r="AS22" s="6">
+      <c r="AU22" s="6">
         <f>SUM(S22:V22)</f>
-        <v>52422.400000000001</v>
-      </c>
-      <c r="AT22" s="6">
-        <f t="shared" ref="AT22:BD22" si="6">+AT4*AT3</f>
+        <v>52706.400000000001</v>
+      </c>
+      <c r="AV22" s="6">
+        <f t="shared" ref="AV22:BF22" si="6">+AV4*AV3</f>
         <v>58677.828300000008</v>
       </c>
-      <c r="AU22" s="6">
+      <c r="AW22" s="6">
         <f t="shared" si="6"/>
         <v>62796.560478750012</v>
       </c>
-      <c r="AV22" s="6">
+      <c r="AX22" s="6">
         <f t="shared" si="6"/>
         <v>65936.388502687507</v>
       </c>
-      <c r="AW22" s="6">
+      <c r="AY22" s="6">
         <f t="shared" si="6"/>
         <v>70539.494869856266</v>
       </c>
-      <c r="AX22" s="6">
+      <c r="AZ22" s="6">
         <f t="shared" si="6"/>
         <v>74066.46961334908</v>
       </c>
-      <c r="AY22" s="6">
+      <c r="BA22" s="6">
         <f t="shared" si="6"/>
         <v>77769.793094016539</v>
       </c>
-      <c r="AZ22" s="6">
+      <c r="BB22" s="6">
         <f t="shared" si="6"/>
         <v>83170.473169989928</v>
       </c>
-      <c r="BA22" s="6">
+      <c r="BC22" s="6">
         <f t="shared" si="6"/>
         <v>88916.796770825604</v>
       </c>
-      <c r="BB22" s="6">
+      <c r="BD22" s="6">
         <f t="shared" si="6"/>
         <v>93362.636609366877</v>
       </c>
-      <c r="BC22" s="6">
+      <c r="BE22" s="6">
         <f t="shared" si="6"/>
         <v>98030.768439835228</v>
       </c>
-      <c r="BD22" s="6">
+      <c r="BF22" s="6">
         <f t="shared" si="6"/>
         <v>102932.306861827</v>
       </c>
     </row>
-    <row r="23" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:136" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
@@ -2550,79 +3027,92 @@
         <v>8286</v>
       </c>
       <c r="U23" s="5">
-        <f>+U22-U24</f>
-        <v>7800</v>
+        <v>11287</v>
       </c>
       <c r="V23" s="5">
         <f>+V22-V24</f>
         <v>8319.24</v>
       </c>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Z23" s="2">
+      <c r="W23" s="5">
+        <f>+W22-W24</f>
+        <v>6870.96</v>
+      </c>
+      <c r="X23" s="5">
+        <f>+X22-X24</f>
+        <v>6929.8200000000006</v>
+      </c>
+      <c r="Y23" s="5">
+        <f>+Y22-Y24</f>
+        <v>7173.36</v>
+      </c>
+      <c r="Z23" s="5">
+        <f>+Z22-Z24</f>
+        <v>7487.3159999999998</v>
+      </c>
+      <c r="AB23" s="2">
         <v>15777</v>
       </c>
-      <c r="AA23" s="2">
+      <c r="AC23" s="2">
         <v>17164</v>
       </c>
-      <c r="AB23" s="2">
+      <c r="AD23" s="2">
         <v>18430</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AE23" s="2">
         <v>16742</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AF23" s="2">
         <v>15566</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AG23" s="2">
         <v>15132</v>
       </c>
-      <c r="AF23" s="2">
+      <c r="AH23" s="2">
         <v>20242</v>
       </c>
-      <c r="AG23" s="2">
+      <c r="AI23" s="2">
         <v>20190</v>
       </c>
-      <c r="AH23" s="2">
+      <c r="AJ23" s="2">
         <v>21187</v>
       </c>
-      <c r="AI23" s="2">
+      <c r="AK23" s="2">
         <v>20261</v>
       </c>
-      <c r="AJ23" s="2">
+      <c r="AL23" s="2">
         <v>20676</v>
       </c>
-      <c r="AK23" s="2">
+      <c r="AM23" s="2">
         <v>23196</v>
       </c>
-      <c r="AL23" s="2">
+      <c r="AN23" s="2">
         <v>23692</v>
       </c>
-      <c r="AM23" s="2">
+      <c r="AO23" s="2">
         <v>27111</v>
       </c>
-      <c r="AN23" s="2">
+      <c r="AP23" s="2">
         <v>29825</v>
       </c>
-      <c r="AO23" s="2">
+      <c r="AQ23" s="2">
         <v>34255</v>
       </c>
-      <c r="AP23" s="2">
+      <c r="AR23" s="2">
         <v>35209</v>
       </c>
-      <c r="AQ23" s="2">
+      <c r="AS23" s="2">
         <v>36188</v>
       </c>
-      <c r="AR23" s="2">
+      <c r="AT23" s="2">
         <f>SUM(O23:R23)</f>
         <v>32517</v>
       </c>
-      <c r="AS23" s="2">
+      <c r="AU23" s="2">
         <f>SUM(S23:V23)</f>
-        <v>31912.239999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>35399.24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:136" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
@@ -2687,141 +3177,155 @@
         <v>4547</v>
       </c>
       <c r="U24" s="5">
-        <f>+U22*0.4</f>
-        <v>5200</v>
+        <f>+U22-U23</f>
+        <v>1997</v>
       </c>
       <c r="V24" s="5">
         <f>+V22*0.4</f>
         <v>5546.16</v>
       </c>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Z24" s="2">
-        <f>+Z22-Z23</f>
-        <v>23049</v>
-      </c>
-      <c r="AA24" s="2">
-        <f>+AA22-AA23</f>
-        <v>18218</v>
+      <c r="W24" s="5">
+        <f>+W22*0.4</f>
+        <v>4580.6400000000003</v>
+      </c>
+      <c r="X24" s="5">
+        <f>+X22*0.4</f>
+        <v>4619.88</v>
+      </c>
+      <c r="Y24" s="5">
+        <f>+Y22*0.4</f>
+        <v>4782.2400000000007</v>
+      </c>
+      <c r="Z24" s="5">
+        <f>+Z22*0.4</f>
+        <v>4991.5440000000008</v>
       </c>
       <c r="AB24" s="2">
         <f>+AB22-AB23</f>
-        <v>19904</v>
+        <v>23049</v>
       </c>
       <c r="AC24" s="2">
         <f>+AC22-AC23</f>
+        <v>18218</v>
+      </c>
+      <c r="AD24" s="2">
+        <f>+AD22-AD23</f>
+        <v>19904</v>
+      </c>
+      <c r="AE24" s="2">
+        <f>+AE22-AE23</f>
         <v>20844</v>
       </c>
-      <c r="AD24" s="2">
-        <f t="shared" ref="AD24" si="9">+AD22-AD23</f>
+      <c r="AF24" s="2">
+        <f t="shared" ref="AF24" si="9">+AF22-AF23</f>
         <v>19561</v>
       </c>
-      <c r="AE24" s="2">
-        <f t="shared" ref="AE24" si="10">+AE22-AE23</f>
+      <c r="AG24" s="2">
+        <f t="shared" ref="AG24" si="10">+AG22-AG23</f>
         <v>28491</v>
       </c>
-      <c r="AF24" s="2">
-        <f t="shared" ref="AF24" si="11">+AF22-AF23</f>
+      <c r="AH24" s="2">
+        <f t="shared" ref="AH24" si="11">+AH22-AH23</f>
         <v>33757</v>
       </c>
-      <c r="AG24" s="2">
-        <f t="shared" ref="AG24" si="12">+AG22-AG23</f>
+      <c r="AI24" s="2">
+        <f t="shared" ref="AI24" si="12">+AI22-AI23</f>
         <v>33151</v>
       </c>
-      <c r="AH24" s="2">
-        <f t="shared" ref="AH24:AQ24" si="13">+AH22-AH23</f>
+      <c r="AJ24" s="2">
+        <f t="shared" ref="AJ24:AS24" si="13">+AJ22-AJ23</f>
         <v>31521</v>
       </c>
-      <c r="AI24" s="2">
+      <c r="AK24" s="2">
         <f t="shared" si="13"/>
         <v>35609</v>
       </c>
-      <c r="AJ24" s="2">
+      <c r="AL24" s="2">
         <f t="shared" si="13"/>
         <v>34679</v>
       </c>
-      <c r="AK24" s="2">
+      <c r="AM24" s="2">
         <f t="shared" si="13"/>
         <v>36191</v>
       </c>
-      <c r="AL24" s="2">
+      <c r="AN24" s="2">
         <f t="shared" si="13"/>
         <v>39069</v>
       </c>
-      <c r="AM24" s="2">
+      <c r="AO24" s="2">
         <f t="shared" si="13"/>
         <v>43737</v>
       </c>
-      <c r="AN24" s="2">
+      <c r="AP24" s="2">
         <f t="shared" si="13"/>
         <v>42140</v>
       </c>
-      <c r="AO24" s="2">
+      <c r="AQ24" s="2">
         <f t="shared" si="13"/>
         <v>43612</v>
       </c>
-      <c r="AP24" s="2">
+      <c r="AR24" s="2">
         <f t="shared" si="13"/>
         <v>43815</v>
       </c>
-      <c r="AQ24" s="2">
+      <c r="AS24" s="2">
         <f t="shared" si="13"/>
         <v>26866</v>
       </c>
-      <c r="AR24" s="2">
-        <f>+AR22-AR23</f>
+      <c r="AT24" s="2">
+        <f>+AT22-AT23</f>
         <v>21711</v>
       </c>
-      <c r="AS24" s="2">
+      <c r="AU24" s="2">
         <f>SUM(S24:V24)</f>
-        <v>20510.16</v>
-      </c>
-      <c r="AT24" s="2">
-        <f>+AT22*0.48</f>
+        <v>17307.16</v>
+      </c>
+      <c r="AV24" s="2">
+        <f>+AV22*0.48</f>
         <v>28165.357584000001</v>
       </c>
-      <c r="AU24" s="2">
-        <f>+AU22*0.48</f>
+      <c r="AW24" s="2">
+        <f>+AW22*0.48</f>
         <v>30142.349029800003</v>
       </c>
-      <c r="AV24" s="2">
-        <f>+AV22*0.49</f>
+      <c r="AX24" s="2">
+        <f>+AX22*0.49</f>
         <v>32308.830366316877</v>
       </c>
-      <c r="AW24" s="2">
-        <f>+AW22*0.49</f>
+      <c r="AY24" s="2">
+        <f>+AY22*0.49</f>
         <v>34564.352486229567</v>
       </c>
-      <c r="AX24" s="2">
-        <f>+AX22*0.5</f>
+      <c r="AZ24" s="2">
+        <f>+AZ22*0.5</f>
         <v>37033.23480667454</v>
       </c>
-      <c r="AY24" s="2">
-        <f>+AY22*0.5</f>
+      <c r="BA24" s="2">
+        <f>+BA22*0.5</f>
         <v>38884.896547008269</v>
       </c>
-      <c r="AZ24" s="2">
-        <f>+AZ22*0.51</f>
+      <c r="BB24" s="2">
+        <f>+BB22*0.51</f>
         <v>42416.941316694865</v>
       </c>
-      <c r="BA24" s="2">
-        <f>+BA22*0.51</f>
+      <c r="BC24" s="2">
+        <f>+BC22*0.51</f>
         <v>45347.566353121059</v>
       </c>
-      <c r="BB24" s="2">
-        <f>+BB22*0.52</f>
+      <c r="BD24" s="2">
+        <f>+BD22*0.52</f>
         <v>48548.571036870781</v>
       </c>
-      <c r="BC24" s="2">
-        <f>+BC22*0.52</f>
+      <c r="BE24" s="2">
+        <f>+BE22*0.52</f>
         <v>50975.999588714323</v>
       </c>
-      <c r="BD24" s="2">
-        <f>+BD22*0.53</f>
+      <c r="BF24" s="2">
+        <f>+BF22*0.53</f>
         <v>54554.122636768312</v>
       </c>
     </row>
-    <row r="25" spans="2:134" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:136" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
@@ -2868,119 +3372,121 @@
         <v>4239</v>
       </c>
       <c r="U25" s="5">
-        <v>4000</v>
+        <v>4049</v>
       </c>
       <c r="V25" s="5">
         <v>3750</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="AB25" s="2">
         <v>5145</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AC25" s="2">
         <v>5873</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AD25" s="2">
         <v>5755</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AE25" s="2">
         <v>5722</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AF25" s="2">
         <v>5653</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AG25" s="2">
         <v>6576</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AH25" s="2">
         <v>8350</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AI25" s="2">
         <v>10148</v>
       </c>
-      <c r="AH25" s="2">
+      <c r="AJ25" s="2">
         <v>10611</v>
       </c>
-      <c r="AI25" s="2">
+      <c r="AK25" s="2">
         <v>11537</v>
       </c>
-      <c r="AJ25" s="2">
+      <c r="AL25" s="2">
         <v>12128</v>
       </c>
-      <c r="AK25" s="2">
+      <c r="AM25" s="2">
         <v>12740</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AN25" s="2">
         <v>13098</v>
       </c>
-      <c r="AM25" s="2">
+      <c r="AO25" s="2">
         <v>13543</v>
       </c>
-      <c r="AN25" s="2">
+      <c r="AP25" s="2">
         <v>13362</v>
       </c>
-      <c r="AO25" s="2">
+      <c r="AQ25" s="2">
         <v>13556</v>
       </c>
-      <c r="AP25" s="2">
+      <c r="AR25" s="2">
         <v>15190</v>
       </c>
-      <c r="AQ25" s="2">
+      <c r="AS25" s="2">
         <v>17528</v>
       </c>
-      <c r="AR25" s="2">
+      <c r="AT25" s="2">
         <f>SUM(O25:R25)</f>
         <v>16046</v>
       </c>
-      <c r="AS25" s="2">
+      <c r="AU25" s="2">
         <f>SUM(S25:V25)</f>
-        <v>16371</v>
-      </c>
-      <c r="AT25" s="2">
-        <f t="shared" ref="AT25:BD25" si="14">+AS25*1.03</f>
-        <v>16862.13</v>
-      </c>
-      <c r="AU25" s="2">
-        <f t="shared" si="14"/>
-        <v>17367.993900000001</v>
+        <v>16420</v>
       </c>
       <c r="AV25" s="2">
-        <f t="shared" si="14"/>
-        <v>17889.033717000002</v>
+        <f t="shared" ref="AV25:BF25" si="14">+AU25*1.03</f>
+        <v>16912.600000000002</v>
       </c>
       <c r="AW25" s="2">
         <f t="shared" si="14"/>
-        <v>18425.704728510002</v>
+        <v>17419.978000000003</v>
       </c>
       <c r="AX25" s="2">
         <f t="shared" si="14"/>
-        <v>18978.475870365302</v>
+        <v>17942.577340000003</v>
       </c>
       <c r="AY25" s="2">
         <f t="shared" si="14"/>
-        <v>19547.830146476263</v>
+        <v>18480.854660200002</v>
       </c>
       <c r="AZ25" s="2">
         <f t="shared" si="14"/>
-        <v>20134.265050870552</v>
+        <v>19035.280300006001</v>
       </c>
       <c r="BA25" s="2">
         <f t="shared" si="14"/>
-        <v>20738.293002396669</v>
+        <v>19606.338709006181</v>
       </c>
       <c r="BB25" s="2">
         <f t="shared" si="14"/>
-        <v>21360.441792468569</v>
+        <v>20194.528870276368</v>
       </c>
       <c r="BC25" s="2">
         <f t="shared" si="14"/>
-        <v>22001.255046242626</v>
+        <v>20800.364736384661</v>
       </c>
       <c r="BD25" s="2">
         <f t="shared" si="14"/>
-        <v>22661.292697629906</v>
-      </c>
-    </row>
-    <row r="26" spans="2:134" x14ac:dyDescent="0.2">
+        <v>21424.375678476201</v>
+      </c>
+      <c r="BE25" s="2">
+        <f t="shared" si="14"/>
+        <v>22067.106948830486</v>
+      </c>
+      <c r="BF25" s="2">
+        <f t="shared" si="14"/>
+        <v>22729.120157295401</v>
+      </c>
+    </row>
+    <row r="26" spans="2:136" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
@@ -3027,119 +3533,121 @@
         <v>1329</v>
       </c>
       <c r="U26" s="5">
-        <v>1150</v>
+        <v>1383</v>
       </c>
       <c r="V26" s="5">
         <v>1000</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="AB26" s="2">
         <v>5688</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AC26" s="2">
         <v>6096</v>
       </c>
-      <c r="AB26" s="2">
+      <c r="AD26" s="2">
         <v>5401</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AE26" s="2">
         <v>5458</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AF26" s="2">
         <v>7931</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AG26" s="2">
         <v>6309</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AH26" s="2">
         <v>7670</v>
       </c>
-      <c r="AG26" s="2">
+      <c r="AI26" s="2">
         <v>8057</v>
       </c>
-      <c r="AH26" s="2">
+      <c r="AJ26" s="2">
         <v>8088</v>
       </c>
-      <c r="AI26" s="2">
+      <c r="AK26" s="2">
         <v>8136</v>
       </c>
-      <c r="AJ26" s="2">
+      <c r="AL26" s="2">
         <v>7930</v>
       </c>
-      <c r="AK26" s="2">
+      <c r="AM26" s="2">
         <v>8397</v>
       </c>
-      <c r="AL26" s="2">
+      <c r="AN26" s="2">
         <v>7474</v>
       </c>
-      <c r="AM26" s="2">
+      <c r="AO26" s="2">
         <v>6950</v>
       </c>
-      <c r="AN26" s="2">
+      <c r="AP26" s="2">
         <v>6350</v>
       </c>
-      <c r="AO26" s="2">
+      <c r="AQ26" s="2">
         <v>6180</v>
       </c>
-      <c r="AP26" s="2">
+      <c r="AR26" s="2">
         <v>6543</v>
       </c>
-      <c r="AQ26" s="2">
+      <c r="AS26" s="2">
         <v>7002</v>
       </c>
-      <c r="AR26" s="2">
+      <c r="AT26" s="2">
         <f>SUM(O26:R26)</f>
         <v>5634</v>
       </c>
-      <c r="AS26" s="2">
+      <c r="AU26" s="2">
         <f>SUM(S26:V26)</f>
-        <v>5035</v>
-      </c>
-      <c r="AT26" s="2">
-        <f t="shared" ref="AT26:BD26" si="15">+AS26*1.03</f>
-        <v>5186.05</v>
-      </c>
-      <c r="AU26" s="2">
-        <f t="shared" si="15"/>
-        <v>5341.6315000000004</v>
+        <v>5268</v>
       </c>
       <c r="AV26" s="2">
-        <f t="shared" si="15"/>
-        <v>5501.8804450000007</v>
+        <f t="shared" ref="AV26:BF26" si="15">+AU26*1.03</f>
+        <v>5426.04</v>
       </c>
       <c r="AW26" s="2">
         <f t="shared" si="15"/>
-        <v>5666.9368583500009</v>
+        <v>5588.8212000000003</v>
       </c>
       <c r="AX26" s="2">
         <f t="shared" si="15"/>
-        <v>5836.9449641005012</v>
+        <v>5756.4858360000007</v>
       </c>
       <c r="AY26" s="2">
         <f t="shared" si="15"/>
-        <v>6012.0533130235162</v>
+        <v>5929.1804110800012</v>
       </c>
       <c r="AZ26" s="2">
         <f t="shared" si="15"/>
-        <v>6192.4149124142223</v>
+        <v>6107.0558234124019</v>
       </c>
       <c r="BA26" s="2">
         <f t="shared" si="15"/>
-        <v>6378.1873597866488</v>
+        <v>6290.2674981147738</v>
       </c>
       <c r="BB26" s="2">
         <f t="shared" si="15"/>
-        <v>6569.5329805802485</v>
+        <v>6478.9755230582168</v>
       </c>
       <c r="BC26" s="2">
         <f t="shared" si="15"/>
-        <v>6766.6189699976558</v>
+        <v>6673.3447887499633</v>
       </c>
       <c r="BD26" s="2">
         <f t="shared" si="15"/>
-        <v>6969.6175390975859</v>
-      </c>
-    </row>
-    <row r="27" spans="2:134" x14ac:dyDescent="0.2">
+        <v>6873.5451324124624</v>
+      </c>
+      <c r="BE26" s="2">
+        <f t="shared" si="15"/>
+        <v>7079.7514863848364</v>
+      </c>
+      <c r="BF26" s="2">
+        <f t="shared" si="15"/>
+        <v>7292.1440309763821</v>
+      </c>
+    </row>
+    <row r="27" spans="2:136" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
@@ -3200,336 +3708,364 @@
         <v>5568</v>
       </c>
       <c r="U27" s="5">
-        <f t="shared" ref="U27:V27" si="22">+U25+U26</f>
-        <v>5150</v>
+        <f t="shared" ref="U27:W27" si="22">+U25+U26</f>
+        <v>5432</v>
       </c>
       <c r="V27" s="5">
         <f t="shared" si="22"/>
         <v>4750</v>
       </c>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Z27" s="2">
-        <f>+Z25+Z26</f>
-        <v>10833</v>
-      </c>
-      <c r="AA27" s="2">
-        <f>+AA25+AA26</f>
-        <v>11969</v>
+      <c r="W27" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="5">
+        <f t="shared" ref="X27:Z27" si="23">+X25+X26</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AB27" s="2">
         <f>+AB25+AB26</f>
-        <v>11156</v>
+        <v>10833</v>
       </c>
       <c r="AC27" s="2">
         <f>+AC25+AC26</f>
+        <v>11969</v>
+      </c>
+      <c r="AD27" s="2">
+        <f>+AD25+AD26</f>
+        <v>11156</v>
+      </c>
+      <c r="AE27" s="2">
+        <f>+AE25+AE26</f>
         <v>11180</v>
       </c>
-      <c r="AD27" s="2">
-        <f t="shared" ref="AD27" si="23">+AD25+AD26</f>
+      <c r="AF27" s="2">
+        <f t="shared" ref="AF27" si="24">+AF25+AF26</f>
         <v>13584</v>
       </c>
-      <c r="AE27" s="2">
-        <f t="shared" ref="AE27" si="24">+AE25+AE26</f>
+      <c r="AG27" s="2">
+        <f t="shared" ref="AG27" si="25">+AG25+AG26</f>
         <v>12885</v>
       </c>
-      <c r="AF27" s="2">
-        <f t="shared" ref="AF27" si="25">+AF25+AF26</f>
+      <c r="AH27" s="2">
+        <f t="shared" ref="AH27" si="26">+AH25+AH26</f>
         <v>16020</v>
       </c>
-      <c r="AG27" s="2">
-        <f t="shared" ref="AG27" si="26">+AG25+AG26</f>
+      <c r="AI27" s="2">
+        <f t="shared" ref="AI27" si="27">+AI25+AI26</f>
         <v>18205</v>
       </c>
-      <c r="AH27" s="2">
-        <f>+AH25+AH26</f>
+      <c r="AJ27" s="2">
+        <f>+AJ25+AJ26</f>
         <v>18699</v>
       </c>
-      <c r="AI27" s="2">
-        <f t="shared" ref="AI27:AK27" si="27">+AI25+AI26</f>
+      <c r="AK27" s="2">
+        <f t="shared" ref="AK27:AM27" si="28">+AK25+AK26</f>
         <v>19673</v>
       </c>
-      <c r="AJ27" s="2">
-        <f t="shared" si="27"/>
+      <c r="AL27" s="2">
+        <f t="shared" si="28"/>
         <v>20058</v>
       </c>
-      <c r="AK27" s="2">
-        <f t="shared" si="27"/>
+      <c r="AM27" s="2">
+        <f t="shared" si="28"/>
         <v>21137</v>
-      </c>
-      <c r="AL27" s="2">
-        <f>+AL25+AL26</f>
-        <v>20572</v>
-      </c>
-      <c r="AM27" s="2">
-        <f>+AM25+AM26</f>
-        <v>20493</v>
       </c>
       <c r="AN27" s="2">
         <f>+AN25+AN26</f>
-        <v>19712</v>
+        <v>20572</v>
       </c>
       <c r="AO27" s="2">
         <f>+AO25+AO26</f>
+        <v>20493</v>
+      </c>
+      <c r="AP27" s="2">
+        <f>+AP25+AP26</f>
+        <v>19712</v>
+      </c>
+      <c r="AQ27" s="2">
+        <f>+AQ25+AQ26</f>
         <v>19736</v>
       </c>
-      <c r="AP27" s="2">
-        <f t="shared" ref="AP27:AQ27" si="28">+AP25+AP26</f>
+      <c r="AR27" s="2">
+        <f t="shared" ref="AR27:AS27" si="29">+AR25+AR26</f>
         <v>21733</v>
       </c>
-      <c r="AQ27" s="2">
-        <f t="shared" si="28"/>
+      <c r="AS27" s="2">
+        <f t="shared" si="29"/>
         <v>24530</v>
       </c>
-      <c r="AR27" s="2">
-        <f>+AR25+AR26</f>
+      <c r="AT27" s="2">
+        <f>+AT25+AT26</f>
         <v>21680</v>
       </c>
-      <c r="AS27" s="2">
-        <f t="shared" ref="AS27:BD27" si="29">+AS25+AS26</f>
-        <v>21406</v>
-      </c>
-      <c r="AT27" s="2">
-        <f t="shared" si="29"/>
-        <v>22048.18</v>
-      </c>
       <c r="AU27" s="2">
-        <f t="shared" si="29"/>
-        <v>22709.625400000001</v>
+        <f t="shared" ref="AU27:BF27" si="30">+AU25+AU26</f>
+        <v>21688</v>
       </c>
       <c r="AV27" s="2">
-        <f t="shared" si="29"/>
-        <v>23390.914162000001</v>
+        <f t="shared" si="30"/>
+        <v>22338.640000000003</v>
       </c>
       <c r="AW27" s="2">
-        <f t="shared" si="29"/>
-        <v>24092.641586860002</v>
+        <f t="shared" si="30"/>
+        <v>23008.799200000001</v>
       </c>
       <c r="AX27" s="2">
-        <f t="shared" si="29"/>
-        <v>24815.420834465804</v>
+        <f t="shared" si="30"/>
+        <v>23699.063176000003</v>
       </c>
       <c r="AY27" s="2">
-        <f t="shared" si="29"/>
-        <v>25559.883459499779</v>
+        <f t="shared" si="30"/>
+        <v>24410.035071280003</v>
       </c>
       <c r="AZ27" s="2">
-        <f t="shared" si="29"/>
-        <v>26326.679963284776</v>
+        <f t="shared" si="30"/>
+        <v>25142.336123418405</v>
       </c>
       <c r="BA27" s="2">
-        <f t="shared" si="29"/>
-        <v>27116.48036218332</v>
+        <f t="shared" si="30"/>
+        <v>25896.606207120953</v>
       </c>
       <c r="BB27" s="2">
-        <f t="shared" si="29"/>
-        <v>27929.974773048816</v>
+        <f t="shared" si="30"/>
+        <v>26673.504393334584</v>
       </c>
       <c r="BC27" s="2">
-        <f t="shared" si="29"/>
-        <v>28767.874016240283</v>
+        <f t="shared" si="30"/>
+        <v>27473.709525134625</v>
       </c>
       <c r="BD27" s="2">
-        <f t="shared" si="29"/>
-        <v>29630.91023672749</v>
-      </c>
-    </row>
-    <row r="28" spans="2:134" x14ac:dyDescent="0.2">
+        <f t="shared" si="30"/>
+        <v>28297.920810888663</v>
+      </c>
+      <c r="BE27" s="2">
+        <f t="shared" si="30"/>
+        <v>29146.858435215323</v>
+      </c>
+      <c r="BF27" s="2">
+        <f t="shared" si="30"/>
+        <v>30021.264188271783</v>
+      </c>
+    </row>
+    <row r="28" spans="2:136" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" ref="G28:N28" si="30">+G24-G27</f>
+        <f t="shared" ref="G28:N28" si="31">+G24-G27</f>
         <v>5903</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5892</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5269</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5018</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3130</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-613</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>489</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-670</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" ref="O28" si="31">+O24-O27</f>
+        <f t="shared" ref="O28" si="32">+O24-O27</f>
         <v>-1404</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" ref="P28" si="32">+P24-P27</f>
+        <f t="shared" ref="P28" si="33">+P24-P27</f>
         <v>-816</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" ref="Q28" si="33">+Q24-Q27</f>
+        <f t="shared" ref="Q28" si="34">+Q24-Q27</f>
         <v>808</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" ref="R28:T28" si="34">+R24-R27</f>
+        <f t="shared" ref="R28:T28" si="35">+R24-R27</f>
         <v>1443</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" ref="S28" si="35">+S24-S27</f>
+        <f t="shared" ref="S28" si="36">+S24-S27</f>
         <v>-721</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1021</v>
       </c>
       <c r="U28" s="5">
-        <f t="shared" ref="U28:V28" si="36">+U24-U27</f>
-        <v>50</v>
+        <f t="shared" ref="U28:W28" si="37">+U24-U27</f>
+        <v>-3435</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>796.15999999999985</v>
       </c>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Z28" s="2">
-        <f>+Z24-Z27</f>
-        <v>12216</v>
-      </c>
-      <c r="AA28" s="2">
-        <f>+AA24-AA27</f>
-        <v>6249</v>
+      <c r="W28" s="5">
+        <f t="shared" si="37"/>
+        <v>4580.6400000000003</v>
+      </c>
+      <c r="X28" s="5">
+        <f t="shared" ref="X28:Z28" si="38">+X24-X27</f>
+        <v>4619.88</v>
+      </c>
+      <c r="Y28" s="5">
+        <f t="shared" si="38"/>
+        <v>4782.2400000000007</v>
+      </c>
+      <c r="Z28" s="5">
+        <f t="shared" si="38"/>
+        <v>4991.5440000000008</v>
       </c>
       <c r="AB28" s="2">
         <f>+AB24-AB27</f>
-        <v>8748</v>
+        <v>12216</v>
       </c>
       <c r="AC28" s="2">
         <f>+AC24-AC27</f>
+        <v>6249</v>
+      </c>
+      <c r="AD28" s="2">
+        <f>+AD24-AD27</f>
+        <v>8748</v>
+      </c>
+      <c r="AE28" s="2">
+        <f>+AE24-AE27</f>
         <v>9664</v>
-      </c>
-      <c r="AD28" s="2">
-        <f t="shared" ref="AD28" si="37">+AD24-AD27</f>
-        <v>5977</v>
-      </c>
-      <c r="AE28" s="2">
-        <f t="shared" ref="AE28" si="38">+AE24-AE27</f>
-        <v>15606</v>
       </c>
       <c r="AF28" s="2">
         <f t="shared" ref="AF28" si="39">+AF24-AF27</f>
-        <v>17737</v>
+        <v>5977</v>
       </c>
       <c r="AG28" s="2">
         <f t="shared" ref="AG28" si="40">+AG24-AG27</f>
+        <v>15606</v>
+      </c>
+      <c r="AH28" s="2">
+        <f t="shared" ref="AH28" si="41">+AH24-AH27</f>
+        <v>17737</v>
+      </c>
+      <c r="AI28" s="2">
+        <f t="shared" ref="AI28" si="42">+AI24-AI27</f>
         <v>14946</v>
       </c>
-      <c r="AH28" s="2">
-        <f>+AH24-AH27</f>
+      <c r="AJ28" s="2">
+        <f>+AJ24-AJ27</f>
         <v>12822</v>
       </c>
-      <c r="AI28" s="2">
-        <f t="shared" ref="AI28:AK28" si="41">+AI24-AI27</f>
+      <c r="AK28" s="2">
+        <f t="shared" ref="AK28:AM28" si="43">+AK24-AK27</f>
         <v>15936</v>
       </c>
-      <c r="AJ28" s="2">
-        <f t="shared" si="41"/>
+      <c r="AL28" s="2">
+        <f t="shared" si="43"/>
         <v>14621</v>
       </c>
-      <c r="AK28" s="2">
-        <f t="shared" si="41"/>
+      <c r="AM28" s="2">
+        <f t="shared" si="43"/>
         <v>15054</v>
       </c>
-      <c r="AL28" s="2">
-        <f t="shared" ref="AL28:AR28" si="42">+AL24-AL27</f>
+      <c r="AN28" s="2">
+        <f t="shared" ref="AN28:AT28" si="44">+AN24-AN27</f>
         <v>18497</v>
       </c>
-      <c r="AM28" s="2">
-        <f t="shared" si="42"/>
+      <c r="AO28" s="2">
+        <f t="shared" si="44"/>
         <v>23244</v>
       </c>
-      <c r="AN28" s="2">
-        <f t="shared" si="42"/>
+      <c r="AP28" s="2">
+        <f t="shared" si="44"/>
         <v>22428</v>
       </c>
-      <c r="AO28" s="2">
-        <f t="shared" si="42"/>
+      <c r="AQ28" s="2">
+        <f t="shared" si="44"/>
         <v>23876</v>
       </c>
-      <c r="AP28" s="2">
-        <f t="shared" si="42"/>
+      <c r="AR28" s="2">
+        <f t="shared" si="44"/>
         <v>22082</v>
       </c>
-      <c r="AQ28" s="2">
-        <f t="shared" si="42"/>
+      <c r="AS28" s="2">
+        <f t="shared" si="44"/>
         <v>2336</v>
       </c>
-      <c r="AR28" s="2">
-        <f t="shared" si="42"/>
+      <c r="AT28" s="2">
+        <f t="shared" si="44"/>
         <v>31</v>
       </c>
-      <c r="AS28" s="2">
-        <f t="shared" ref="AS28:BD28" si="43">+AS24-AS27</f>
-        <v>-895.84000000000015</v>
-      </c>
-      <c r="AT28" s="2">
-        <f t="shared" si="43"/>
-        <v>6117.1775840000009</v>
-      </c>
       <c r="AU28" s="2">
-        <f t="shared" si="43"/>
-        <v>7432.7236298000025</v>
+        <f t="shared" ref="AU28:BF28" si="45">+AU24-AU27</f>
+        <v>-4380.84</v>
       </c>
       <c r="AV28" s="2">
-        <f t="shared" si="43"/>
-        <v>8917.9162043168762</v>
+        <f t="shared" si="45"/>
+        <v>5826.7175839999982</v>
       </c>
       <c r="AW28" s="2">
-        <f t="shared" si="43"/>
-        <v>10471.710899369566</v>
+        <f t="shared" si="45"/>
+        <v>7133.549829800002</v>
       </c>
       <c r="AX28" s="2">
-        <f t="shared" si="43"/>
-        <v>12217.813972208736</v>
+        <f t="shared" si="45"/>
+        <v>8609.7671903168739</v>
       </c>
       <c r="AY28" s="2">
-        <f t="shared" si="43"/>
-        <v>13325.013087508491</v>
+        <f t="shared" si="45"/>
+        <v>10154.317414949564</v>
       </c>
       <c r="AZ28" s="2">
-        <f t="shared" si="43"/>
-        <v>16090.261353410089</v>
+        <f t="shared" si="45"/>
+        <v>11890.898683256135</v>
       </c>
       <c r="BA28" s="2">
-        <f t="shared" si="43"/>
-        <v>18231.08599093774</v>
+        <f t="shared" si="45"/>
+        <v>12988.290339887317</v>
       </c>
       <c r="BB28" s="2">
-        <f t="shared" si="43"/>
-        <v>20618.596263821964</v>
+        <f t="shared" si="45"/>
+        <v>15743.436923360281</v>
       </c>
       <c r="BC28" s="2">
-        <f t="shared" si="43"/>
-        <v>22208.12557247404</v>
+        <f t="shared" si="45"/>
+        <v>17873.856827986434</v>
       </c>
       <c r="BD28" s="2">
-        <f t="shared" si="43"/>
-        <v>24923.212400040822</v>
-      </c>
-    </row>
-    <row r="29" spans="2:134" x14ac:dyDescent="0.2">
+        <f t="shared" si="45"/>
+        <v>20250.650225982117</v>
+      </c>
+      <c r="BE28" s="2">
+        <f t="shared" si="45"/>
+        <v>21829.141153499</v>
+      </c>
+      <c r="BF28" s="2">
+        <f t="shared" si="45"/>
+        <v>24532.858448496529</v>
+      </c>
+    </row>
+    <row r="29" spans="2:136" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
@@ -3575,296 +4111,315 @@
       <c r="T29" s="3">
         <v>80</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="U29" s="3">
+        <v>130</v>
+      </c>
+      <c r="AB29" s="2">
         <v>-565</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AC29" s="2">
         <v>-1202</v>
       </c>
-      <c r="AB29" s="2">
+      <c r="AD29" s="2">
         <v>-793</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AE29" s="2">
         <v>-488</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AF29" s="2">
         <v>-163</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AG29" s="2">
         <v>-109</v>
       </c>
-      <c r="AF29" s="2">
+      <c r="AH29" s="2">
         <v>-192</v>
       </c>
-      <c r="AG29" s="2">
+      <c r="AI29" s="2">
         <v>-94</v>
       </c>
-      <c r="AH29" s="2">
+      <c r="AJ29" s="2">
         <v>-151</v>
       </c>
-      <c r="AI29" s="2">
+      <c r="AK29" s="2">
         <v>43</v>
       </c>
-      <c r="AJ29" s="2">
+      <c r="AL29" s="2">
         <v>-105</v>
       </c>
-      <c r="AK29" s="2">
+      <c r="AM29" s="2">
         <v>-444</v>
       </c>
-      <c r="AL29" s="2">
+      <c r="AN29" s="2">
         <v>-235</v>
       </c>
-      <c r="AM29" s="2">
+      <c r="AO29" s="2">
         <v>126</v>
       </c>
-      <c r="AN29" s="2">
+      <c r="AP29" s="2">
         <v>484</v>
       </c>
-      <c r="AO29" s="2">
+      <c r="AQ29" s="2">
         <v>-504</v>
       </c>
-      <c r="AP29" s="2">
+      <c r="AR29" s="2">
         <v>-482</v>
       </c>
-      <c r="AQ29" s="2">
+      <c r="AS29" s="2">
         <v>1166</v>
       </c>
-      <c r="AR29" s="2">
+      <c r="AT29" s="2">
         <f>SUM(O29:R29)</f>
         <v>629</v>
       </c>
-      <c r="AS29" s="2">
+      <c r="AU29" s="2">
         <f>SUM(S29:V29)</f>
-        <v>225</v>
-      </c>
-      <c r="AW29" s="2">
-        <f>+AV42*$BH$36</f>
-        <v>184.23610282855839</v>
-      </c>
-      <c r="AX29" s="2">
-        <f t="shared" ref="AX29:BD29" si="44">+AW42*$BH$36</f>
-        <v>271.614868246583</v>
+        <v>355</v>
       </c>
       <c r="AY29" s="2">
-        <f t="shared" si="44"/>
-        <v>374.02818473831661</v>
+        <f>+AX42*$BJ$36</f>
+        <v>176.87428375375836</v>
       </c>
       <c r="AZ29" s="2">
-        <f t="shared" si="44"/>
-        <v>486.36032317074046</v>
+        <f t="shared" ref="AZ29:BF29" si="46">+AY42*$BJ$36</f>
+        <v>261.59005568312563</v>
       </c>
       <c r="BA29" s="2">
-        <f t="shared" si="44"/>
-        <v>622.28862091870326</v>
+        <f t="shared" si="46"/>
+        <v>361.24046334242752</v>
       </c>
       <c r="BB29" s="2">
-        <f t="shared" si="44"/>
-        <v>776.88629273592608</v>
+        <f t="shared" si="46"/>
+        <v>470.70661592891145</v>
       </c>
       <c r="BC29" s="2">
-        <f t="shared" si="44"/>
-        <v>952.32924969970077</v>
+        <f t="shared" si="46"/>
+        <v>603.66259295108273</v>
       </c>
       <c r="BD29" s="2">
-        <f t="shared" si="44"/>
-        <v>1142.2449792415255</v>
-      </c>
-    </row>
-    <row r="30" spans="2:134" x14ac:dyDescent="0.2">
+        <f t="shared" si="46"/>
+        <v>755.17825220277041</v>
+      </c>
+      <c r="BE29" s="2">
+        <f t="shared" si="46"/>
+        <v>927.42604572388655</v>
+      </c>
+      <c r="BF29" s="2">
+        <f t="shared" si="46"/>
+        <v>1114.0298967575143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:136" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" ref="G30:N30" si="45">+G28+G29</f>
+        <f t="shared" ref="G30:N30" si="47">+G28+G29</f>
         <v>5747</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5796</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5193</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4864</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4127</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-732</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>627</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-520</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" ref="O30:T30" si="46">+O28+O29</f>
+        <f t="shared" ref="O30:T30" si="48">+O28+O29</f>
         <v>-1263</v>
       </c>
       <c r="P30" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-592</v>
       </c>
       <c r="Q30" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>955</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1560</v>
       </c>
       <c r="S30" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-576</v>
       </c>
       <c r="T30" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-941</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" ref="U30:V30" si="47">+U28+U29</f>
-        <v>50</v>
+        <f t="shared" ref="U30:Z30" si="49">+U28+U29</f>
+        <v>-3305</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>796.15999999999985</v>
       </c>
-      <c r="Z30" s="2">
-        <f>+Z28+Z29</f>
-        <v>11651</v>
-      </c>
-      <c r="AA30" s="2">
-        <f>+AA28+AA29</f>
-        <v>5047</v>
+      <c r="W30" s="5">
+        <f t="shared" si="49"/>
+        <v>4580.6400000000003</v>
+      </c>
+      <c r="X30" s="5">
+        <f t="shared" si="49"/>
+        <v>4619.88</v>
+      </c>
+      <c r="Y30" s="5">
+        <f t="shared" si="49"/>
+        <v>4782.2400000000007</v>
+      </c>
+      <c r="Z30" s="5">
+        <f t="shared" si="49"/>
+        <v>4991.5440000000008</v>
       </c>
       <c r="AB30" s="2">
         <f>+AB28+AB29</f>
-        <v>7955</v>
+        <v>11651</v>
       </c>
       <c r="AC30" s="2">
         <f>+AC28+AC29</f>
+        <v>5047</v>
+      </c>
+      <c r="AD30" s="2">
+        <f>+AD28+AD29</f>
+        <v>7955</v>
+      </c>
+      <c r="AE30" s="2">
+        <f>+AE28+AE29</f>
         <v>9176</v>
-      </c>
-      <c r="AD30" s="2">
-        <f t="shared" ref="AD30" si="48">+AD28+AD29</f>
-        <v>5814</v>
-      </c>
-      <c r="AE30" s="2">
-        <f t="shared" ref="AE30" si="49">+AE28+AE29</f>
-        <v>15497</v>
       </c>
       <c r="AF30" s="2">
         <f t="shared" ref="AF30" si="50">+AF28+AF29</f>
-        <v>17545</v>
+        <v>5814</v>
       </c>
       <c r="AG30" s="2">
         <f t="shared" ref="AG30" si="51">+AG28+AG29</f>
+        <v>15497</v>
+      </c>
+      <c r="AH30" s="2">
+        <f t="shared" ref="AH30" si="52">+AH28+AH29</f>
+        <v>17545</v>
+      </c>
+      <c r="AI30" s="2">
+        <f t="shared" ref="AI30" si="53">+AI28+AI29</f>
         <v>14852</v>
-      </c>
-      <c r="AH30" s="2">
-        <f>+AH28+AH29</f>
-        <v>12671</v>
-      </c>
-      <c r="AI30" s="2">
-        <f>+AI28+AI29</f>
-        <v>15979</v>
       </c>
       <c r="AJ30" s="2">
         <f>+AJ28+AJ29</f>
+        <v>12671</v>
+      </c>
+      <c r="AK30" s="2">
+        <f>+AK28+AK29</f>
+        <v>15979</v>
+      </c>
+      <c r="AL30" s="2">
+        <f>+AL28+AL29</f>
         <v>14516</v>
       </c>
-      <c r="AK30" s="2">
-        <f t="shared" ref="AK30" si="52">+AK28+AK29</f>
+      <c r="AM30" s="2">
+        <f t="shared" ref="AM30" si="54">+AM28+AM29</f>
         <v>14610</v>
       </c>
-      <c r="AL30" s="2">
-        <f t="shared" ref="AL30:AQ30" si="53">+AL28+AL29</f>
+      <c r="AN30" s="2">
+        <f t="shared" ref="AN30:AS30" si="55">+AN28+AN29</f>
         <v>18262</v>
       </c>
-      <c r="AM30" s="2">
-        <f t="shared" si="53"/>
+      <c r="AO30" s="2">
+        <f t="shared" si="55"/>
         <v>23370</v>
       </c>
-      <c r="AN30" s="2">
-        <f t="shared" si="53"/>
+      <c r="AP30" s="2">
+        <f t="shared" si="55"/>
         <v>22912</v>
       </c>
-      <c r="AO30" s="2">
-        <f t="shared" si="53"/>
+      <c r="AQ30" s="2">
+        <f t="shared" si="55"/>
         <v>23372</v>
       </c>
-      <c r="AP30" s="2">
-        <f t="shared" si="53"/>
+      <c r="AR30" s="2">
+        <f t="shared" si="55"/>
         <v>21600</v>
       </c>
-      <c r="AQ30" s="2">
-        <f t="shared" si="53"/>
+      <c r="AS30" s="2">
+        <f t="shared" si="55"/>
         <v>3502</v>
       </c>
-      <c r="AR30" s="2">
-        <f t="shared" ref="AR30:BD30" si="54">+AR28+AR29</f>
+      <c r="AT30" s="2">
+        <f t="shared" ref="AT30:BF30" si="56">+AT28+AT29</f>
         <v>660</v>
       </c>
-      <c r="AS30" s="2">
-        <f t="shared" si="54"/>
-        <v>-670.84000000000015</v>
-      </c>
-      <c r="AT30" s="2">
-        <f t="shared" si="54"/>
-        <v>6117.1775840000009</v>
-      </c>
       <c r="AU30" s="2">
-        <f t="shared" si="54"/>
-        <v>7432.7236298000025</v>
+        <f t="shared" si="56"/>
+        <v>-4025.84</v>
       </c>
       <c r="AV30" s="2">
-        <f t="shared" si="54"/>
-        <v>8917.9162043168762</v>
+        <f t="shared" si="56"/>
+        <v>5826.7175839999982</v>
       </c>
       <c r="AW30" s="2">
-        <f t="shared" si="54"/>
-        <v>10655.947002198123</v>
+        <f t="shared" si="56"/>
+        <v>7133.549829800002</v>
       </c>
       <c r="AX30" s="2">
-        <f t="shared" si="54"/>
-        <v>12489.428840455319</v>
+        <f t="shared" si="56"/>
+        <v>8609.7671903168739</v>
       </c>
       <c r="AY30" s="2">
-        <f t="shared" si="54"/>
-        <v>13699.041272246806</v>
+        <f t="shared" si="56"/>
+        <v>10331.191698703322</v>
       </c>
       <c r="AZ30" s="2">
-        <f t="shared" si="54"/>
-        <v>16576.621676580831</v>
+        <f t="shared" si="56"/>
+        <v>12152.488738939261</v>
       </c>
       <c r="BA30" s="2">
-        <f t="shared" si="54"/>
-        <v>18853.374611856441</v>
+        <f t="shared" si="56"/>
+        <v>13349.530803229743</v>
       </c>
       <c r="BB30" s="2">
-        <f t="shared" si="54"/>
-        <v>21395.48255655789</v>
+        <f t="shared" si="56"/>
+        <v>16214.143539289193</v>
       </c>
       <c r="BC30" s="2">
-        <f t="shared" si="54"/>
-        <v>23160.454822173742</v>
+        <f t="shared" si="56"/>
+        <v>18477.519420937515</v>
       </c>
       <c r="BD30" s="2">
-        <f t="shared" si="54"/>
-        <v>26065.457379282347</v>
-      </c>
-      <c r="BE30" s="2"/>
-    </row>
-    <row r="31" spans="2:134" x14ac:dyDescent="0.2">
+        <f t="shared" si="56"/>
+        <v>21005.828478184889</v>
+      </c>
+      <c r="BE30" s="2">
+        <f t="shared" si="56"/>
+        <v>22756.567199222885</v>
+      </c>
+      <c r="BF30" s="2">
+        <f t="shared" si="56"/>
+        <v>25646.888345254043</v>
+      </c>
+      <c r="BG30" s="2"/>
+    </row>
+    <row r="31" spans="2:136" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
@@ -3910,619 +4465,638 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="2">
         <v>3946</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AC31" s="2">
         <v>2024</v>
       </c>
-      <c r="AB31" s="2">
+      <c r="AD31" s="2">
         <v>2190</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AE31" s="2">
         <v>2394</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AF31" s="2">
         <v>1335</v>
       </c>
-      <c r="AE31" s="2">
+      <c r="AG31" s="2">
         <v>4581</v>
       </c>
-      <c r="AF31" s="2">
+      <c r="AH31" s="2">
         <v>4839</v>
       </c>
-      <c r="AG31" s="2">
+      <c r="AI31" s="2">
         <v>3868</v>
       </c>
-      <c r="AH31" s="2">
+      <c r="AJ31" s="2">
         <v>2991</v>
       </c>
-      <c r="AI31" s="2">
+      <c r="AK31" s="2">
         <v>4097</v>
       </c>
-      <c r="AJ31" s="2">
+      <c r="AL31" s="2">
         <v>2792</v>
       </c>
-      <c r="AK31" s="2">
+      <c r="AM31" s="2">
         <v>2620</v>
       </c>
-      <c r="AL31" s="2">
+      <c r="AN31" s="2">
         <v>0</v>
       </c>
-      <c r="AM31" s="2">
+      <c r="AO31" s="2">
         <v>2264</v>
       </c>
-      <c r="AN31" s="2">
+      <c r="AP31" s="2">
         <v>3010</v>
       </c>
-      <c r="AO31" s="2">
+      <c r="AQ31" s="2">
         <v>4179</v>
       </c>
-      <c r="AP31" s="2">
+      <c r="AR31" s="2">
         <v>1835</v>
       </c>
-      <c r="AQ31" s="2">
+      <c r="AS31" s="2">
         <v>-249</v>
       </c>
-      <c r="AR31" s="2">
+      <c r="AT31" s="2">
         <f>SUM(O31:R31)</f>
         <v>128</v>
       </c>
-      <c r="AS31" s="2">
+      <c r="AU31" s="2">
         <f>SUM(S31:V31)</f>
         <v>0</v>
       </c>
-      <c r="AT31" s="2">
-        <f t="shared" ref="AT31:BD31" si="55">+AT30*0.18</f>
-        <v>1101.0919651200002</v>
-      </c>
-      <c r="AU31" s="2">
-        <f t="shared" si="55"/>
-        <v>1337.8902533640005</v>
-      </c>
       <c r="AV31" s="2">
-        <f t="shared" si="55"/>
-        <v>1605.2249167770376</v>
+        <f t="shared" ref="AV31:BF31" si="57">+AV30*0.18</f>
+        <v>1048.8091651199995</v>
       </c>
       <c r="AW31" s="2">
-        <f t="shared" si="55"/>
-        <v>1918.0704603956622</v>
+        <f t="shared" si="57"/>
+        <v>1284.0389693640004</v>
       </c>
       <c r="AX31" s="2">
-        <f t="shared" si="55"/>
-        <v>2248.0971912819573</v>
+        <f t="shared" si="57"/>
+        <v>1549.7580942570373</v>
       </c>
       <c r="AY31" s="2">
-        <f t="shared" si="55"/>
-        <v>2465.8274290044251</v>
+        <f t="shared" si="57"/>
+        <v>1859.6145057665979</v>
       </c>
       <c r="AZ31" s="2">
-        <f t="shared" si="55"/>
-        <v>2983.7919017845497</v>
+        <f t="shared" si="57"/>
+        <v>2187.447973009067</v>
       </c>
       <c r="BA31" s="2">
-        <f t="shared" si="55"/>
-        <v>3393.6074301341591</v>
+        <f t="shared" si="57"/>
+        <v>2402.9155445813535</v>
       </c>
       <c r="BB31" s="2">
-        <f t="shared" si="55"/>
-        <v>3851.1868601804199</v>
+        <f t="shared" si="57"/>
+        <v>2918.5458370720544</v>
       </c>
       <c r="BC31" s="2">
-        <f t="shared" si="55"/>
-        <v>4168.8818679912738</v>
+        <f t="shared" si="57"/>
+        <v>3325.9534957687524</v>
       </c>
       <c r="BD31" s="2">
-        <f t="shared" si="55"/>
-        <v>4691.7823282708223</v>
-      </c>
-    </row>
-    <row r="32" spans="2:134" x14ac:dyDescent="0.2">
+        <f t="shared" si="57"/>
+        <v>3781.0491260732797</v>
+      </c>
+      <c r="BE31" s="2">
+        <f t="shared" si="57"/>
+        <v>4096.1820958601193</v>
+      </c>
+      <c r="BF31" s="2">
+        <f t="shared" si="57"/>
+        <v>4616.4399021457275</v>
+      </c>
+    </row>
+    <row r="32" spans="2:136" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" ref="G32:N32" si="56">+G30-G31</f>
+        <f t="shared" ref="G32:N32" si="58">+G30-G31</f>
         <v>5202</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>5112</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>5158</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>4293</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>2579</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>-732</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>627</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>-520</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" ref="O32:T32" si="57">+O30-O31</f>
+        <f t="shared" ref="O32:T32" si="59">+O30-O31</f>
         <v>-1263</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>-592</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>955</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1432</v>
       </c>
       <c r="S32" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>-576</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>-941</v>
       </c>
       <c r="U32" s="5">
-        <f t="shared" ref="U32:V32" si="58">+U30-U31</f>
-        <v>50</v>
+        <f t="shared" ref="U32:Z32" si="60">+U30-U31</f>
+        <v>-3305</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>796.15999999999985</v>
       </c>
-      <c r="Z32" s="2">
-        <f>+Z30-Z31</f>
-        <v>7705</v>
-      </c>
-      <c r="AA32" s="2">
-        <f>+AA30-AA31</f>
-        <v>3023</v>
+      <c r="W32" s="5">
+        <f t="shared" si="60"/>
+        <v>4580.6400000000003</v>
+      </c>
+      <c r="X32" s="5">
+        <f t="shared" si="60"/>
+        <v>4619.88</v>
+      </c>
+      <c r="Y32" s="5">
+        <f t="shared" si="60"/>
+        <v>4782.2400000000007</v>
+      </c>
+      <c r="Z32" s="5">
+        <f t="shared" si="60"/>
+        <v>4991.5440000000008</v>
       </c>
       <c r="AB32" s="2">
         <f>+AB30-AB31</f>
-        <v>5765</v>
+        <v>7705</v>
       </c>
       <c r="AC32" s="2">
         <f>+AC30-AC31</f>
+        <v>3023</v>
+      </c>
+      <c r="AD32" s="2">
+        <f>+AD30-AD31</f>
+        <v>5765</v>
+      </c>
+      <c r="AE32" s="2">
+        <f>+AE30-AE31</f>
         <v>6782</v>
-      </c>
-      <c r="AD32" s="2">
-        <f t="shared" ref="AD32" si="59">+AD30-AD31</f>
-        <v>4479</v>
-      </c>
-      <c r="AE32" s="2">
-        <f t="shared" ref="AE32" si="60">+AE30-AE31</f>
-        <v>10916</v>
       </c>
       <c r="AF32" s="2">
         <f t="shared" ref="AF32" si="61">+AF30-AF31</f>
-        <v>12706</v>
+        <v>4479</v>
       </c>
       <c r="AG32" s="2">
         <f t="shared" ref="AG32" si="62">+AG30-AG31</f>
+        <v>10916</v>
+      </c>
+      <c r="AH32" s="2">
+        <f t="shared" ref="AH32" si="63">+AH30-AH31</f>
+        <v>12706</v>
+      </c>
+      <c r="AI32" s="2">
+        <f t="shared" ref="AI32" si="64">+AI30-AI31</f>
         <v>10984</v>
-      </c>
-      <c r="AH32" s="2">
-        <f>+AH30-AH31</f>
-        <v>9680</v>
-      </c>
-      <c r="AI32" s="2">
-        <f>+AI30-AI31</f>
-        <v>11882</v>
       </c>
       <c r="AJ32" s="2">
         <f>+AJ30-AJ31</f>
-        <v>11724</v>
+        <v>9680</v>
       </c>
       <c r="AK32" s="2">
-        <f t="shared" ref="AK32" si="63">+AK30-AK31</f>
-        <v>11990</v>
+        <f>+AK30-AK31</f>
+        <v>11882</v>
       </c>
       <c r="AL32" s="2">
         <f>+AL30-AL31</f>
-        <v>18262</v>
+        <v>11724</v>
       </c>
       <c r="AM32" s="2">
-        <f>+AM30-AM31</f>
-        <v>21106</v>
+        <f t="shared" ref="AM32" si="65">+AM30-AM31</f>
+        <v>11990</v>
       </c>
       <c r="AN32" s="2">
         <f>+AN30-AN31</f>
-        <v>19902</v>
+        <v>18262</v>
       </c>
       <c r="AO32" s="2">
         <f>+AO30-AO31</f>
+        <v>21106</v>
+      </c>
+      <c r="AP32" s="2">
+        <f>+AP30-AP31</f>
+        <v>19902</v>
+      </c>
+      <c r="AQ32" s="2">
+        <f>+AQ30-AQ31</f>
         <v>19193</v>
       </c>
-      <c r="AP32" s="2">
-        <f t="shared" ref="AP32:AQ32" si="64">+AP30-AP31</f>
+      <c r="AR32" s="2">
+        <f t="shared" ref="AR32:AS32" si="66">+AR30-AR31</f>
         <v>19765</v>
       </c>
-      <c r="AQ32" s="2">
-        <f t="shared" si="64"/>
+      <c r="AS32" s="2">
+        <f t="shared" si="66"/>
         <v>3751</v>
-      </c>
-      <c r="AR32" s="2">
-        <f t="shared" ref="AR32" si="65">+AR30-AR31</f>
-        <v>532</v>
-      </c>
-      <c r="AS32" s="2">
-        <f t="shared" ref="AS32" si="66">+AS30-AS31</f>
-        <v>-670.84000000000015</v>
       </c>
       <c r="AT32" s="2">
         <f t="shared" ref="AT32" si="67">+AT30-AT31</f>
-        <v>5016.0856188800008</v>
+        <v>532</v>
       </c>
       <c r="AU32" s="2">
         <f t="shared" ref="AU32" si="68">+AU30-AU31</f>
-        <v>6094.8333764360023</v>
+        <v>-4025.84</v>
       </c>
       <c r="AV32" s="2">
         <f t="shared" ref="AV32" si="69">+AV30-AV31</f>
-        <v>7312.6912875398384</v>
+        <v>4777.9084188799989</v>
       </c>
       <c r="AW32" s="2">
         <f t="shared" ref="AW32" si="70">+AW30-AW31</f>
-        <v>8737.8765418024614</v>
+        <v>5849.5108604360012</v>
       </c>
       <c r="AX32" s="2">
         <f t="shared" ref="AX32" si="71">+AX30-AX31</f>
-        <v>10241.331649173362</v>
+        <v>7060.0090960598363</v>
       </c>
       <c r="AY32" s="2">
         <f t="shared" ref="AY32" si="72">+AY30-AY31</f>
-        <v>11233.213843242382</v>
+        <v>8471.5771929367238</v>
       </c>
       <c r="AZ32" s="2">
         <f t="shared" ref="AZ32" si="73">+AZ30-AZ31</f>
-        <v>13592.829774796282</v>
+        <v>9965.0407659301927</v>
       </c>
       <c r="BA32" s="2">
         <f t="shared" ref="BA32" si="74">+BA30-BA31</f>
-        <v>15459.767181722282</v>
+        <v>10946.615258648389</v>
       </c>
       <c r="BB32" s="2">
         <f t="shared" ref="BB32" si="75">+BB30-BB31</f>
-        <v>17544.29569637747</v>
+        <v>13295.597702217139</v>
       </c>
       <c r="BC32" s="2">
         <f t="shared" ref="BC32" si="76">+BC30-BC31</f>
-        <v>18991.572954182469</v>
+        <v>15151.565925168763</v>
       </c>
       <c r="BD32" s="2">
         <f t="shared" ref="BD32" si="77">+BD30-BD31</f>
-        <v>21373.675051011523</v>
+        <v>17224.779352111611</v>
       </c>
       <c r="BE32" s="2">
-        <f>+BD32*(1+$BH$38)</f>
-        <v>21587.411801521637</v>
+        <f t="shared" ref="BE32" si="78">+BE30-BE31</f>
+        <v>18660.385103362765</v>
       </c>
       <c r="BF32" s="2">
-        <f t="shared" ref="BF32:DQ32" si="78">+BE32*(1+$BH$38)</f>
-        <v>21803.285919536855</v>
+        <f t="shared" ref="BF32" si="79">+BF30-BF31</f>
+        <v>21030.448443108315</v>
       </c>
       <c r="BG32" s="2">
-        <f t="shared" si="78"/>
-        <v>22021.318778732224</v>
+        <f>+BF32*(1+$BJ$37)</f>
+        <v>21240.752927539397</v>
       </c>
       <c r="BH32" s="2">
-        <f t="shared" si="78"/>
-        <v>22241.531966519546</v>
+        <f>+BG32*(1+$BJ$37)</f>
+        <v>21453.160456814792</v>
       </c>
       <c r="BI32" s="2">
-        <f t="shared" si="78"/>
-        <v>22463.947286184743</v>
+        <f>+BH32*(1+$BJ$37)</f>
+        <v>21667.692061382939</v>
       </c>
       <c r="BJ32" s="2">
-        <f t="shared" si="78"/>
-        <v>22688.58675904659</v>
+        <f>+BI32*(1+$BJ$37)</f>
+        <v>21884.368981996769</v>
       </c>
       <c r="BK32" s="2">
-        <f t="shared" si="78"/>
-        <v>22915.472626637056</v>
+        <f>+BJ32*(1+$BJ$37)</f>
+        <v>22103.212671816738</v>
       </c>
       <c r="BL32" s="2">
-        <f t="shared" si="78"/>
-        <v>23144.627352903426</v>
+        <f>+BK32*(1+$BJ$37)</f>
+        <v>22324.244798534906</v>
       </c>
       <c r="BM32" s="2">
-        <f t="shared" si="78"/>
-        <v>23376.073626432462</v>
+        <f>+BL32*(1+$BJ$37)</f>
+        <v>22547.487246520257</v>
       </c>
       <c r="BN32" s="2">
-        <f t="shared" si="78"/>
-        <v>23609.834362696787</v>
+        <f>+BM32*(1+$BJ$37)</f>
+        <v>22772.962118985459</v>
       </c>
       <c r="BO32" s="2">
-        <f t="shared" si="78"/>
-        <v>23845.932706323754</v>
+        <f>+BN32*(1+$BJ$37)</f>
+        <v>23000.691740175313</v>
       </c>
       <c r="BP32" s="2">
-        <f t="shared" si="78"/>
-        <v>24084.392033386994</v>
+        <f>+BO32*(1+$BJ$37)</f>
+        <v>23230.698657577064</v>
       </c>
       <c r="BQ32" s="2">
-        <f t="shared" si="78"/>
-        <v>24325.235953720865</v>
+        <f>+BP32*(1+$BJ$37)</f>
+        <v>23463.005644152836</v>
       </c>
       <c r="BR32" s="2">
-        <f t="shared" si="78"/>
-        <v>24568.488313258073</v>
+        <f>+BQ32*(1+$BJ$37)</f>
+        <v>23697.635700594365</v>
       </c>
       <c r="BS32" s="2">
-        <f t="shared" si="78"/>
-        <v>24814.173196390653</v>
+        <f>+BR32*(1+$BJ$37)</f>
+        <v>23934.612057600309</v>
       </c>
       <c r="BT32" s="2">
-        <f t="shared" si="78"/>
-        <v>25062.314928354561</v>
+        <f>+BS32*(1+$BJ$37)</f>
+        <v>24173.958178176312</v>
       </c>
       <c r="BU32" s="2">
-        <f t="shared" si="78"/>
-        <v>25312.938077638108</v>
+        <f>+BT32*(1+$BJ$37)</f>
+        <v>24415.697759958075</v>
       </c>
       <c r="BV32" s="2">
-        <f t="shared" si="78"/>
-        <v>25566.067458414487</v>
+        <f>+BU32*(1+$BJ$37)</f>
+        <v>24659.854737557656</v>
       </c>
       <c r="BW32" s="2">
-        <f t="shared" si="78"/>
-        <v>25821.728132998633</v>
+        <f>+BV32*(1+$BJ$37)</f>
+        <v>24906.453284933232</v>
       </c>
       <c r="BX32" s="2">
-        <f t="shared" si="78"/>
-        <v>26079.94541432862</v>
+        <f>+BW32*(1+$BJ$37)</f>
+        <v>25155.517817782566</v>
       </c>
       <c r="BY32" s="2">
-        <f t="shared" si="78"/>
-        <v>26340.744868471906</v>
+        <f>+BX32*(1+$BJ$37)</f>
+        <v>25407.072995960392</v>
       </c>
       <c r="BZ32" s="2">
-        <f t="shared" si="78"/>
-        <v>26604.152317156626</v>
+        <f>+BY32*(1+$BJ$37)</f>
+        <v>25661.143725919996</v>
       </c>
       <c r="CA32" s="2">
-        <f t="shared" si="78"/>
-        <v>26870.193840328193</v>
+        <f>+BZ32*(1+$BJ$37)</f>
+        <v>25917.755163179198</v>
       </c>
       <c r="CB32" s="2">
-        <f t="shared" si="78"/>
-        <v>27138.895778731476</v>
+        <f>+CA32*(1+$BJ$37)</f>
+        <v>26176.932714810991</v>
       </c>
       <c r="CC32" s="2">
-        <f t="shared" si="78"/>
-        <v>27410.284736518792</v>
+        <f>+CB32*(1+$BJ$37)</f>
+        <v>26438.702041959103</v>
       </c>
       <c r="CD32" s="2">
-        <f t="shared" si="78"/>
-        <v>27684.387583883981</v>
+        <f>+CC32*(1+$BJ$37)</f>
+        <v>26703.089062378695</v>
       </c>
       <c r="CE32" s="2">
-        <f t="shared" si="78"/>
-        <v>27961.231459722821</v>
+        <f>+CD32*(1+$BJ$37)</f>
+        <v>26970.119953002482</v>
       </c>
       <c r="CF32" s="2">
-        <f t="shared" si="78"/>
-        <v>28240.843774320048</v>
+        <f>+CE32*(1+$BJ$37)</f>
+        <v>27239.821152532506</v>
       </c>
       <c r="CG32" s="2">
-        <f t="shared" si="78"/>
-        <v>28523.252212063249</v>
+        <f>+CF32*(1+$BJ$37)</f>
+        <v>27512.21936405783</v>
       </c>
       <c r="CH32" s="2">
-        <f t="shared" si="78"/>
-        <v>28808.484734183883</v>
+        <f>+CG32*(1+$BJ$37)</f>
+        <v>27787.341557698408</v>
       </c>
       <c r="CI32" s="2">
-        <f t="shared" si="78"/>
-        <v>29096.56958152572</v>
+        <f>+CH32*(1+$BJ$37)</f>
+        <v>28065.214973275393</v>
       </c>
       <c r="CJ32" s="2">
-        <f t="shared" si="78"/>
-        <v>29387.53527734098</v>
+        <f>+CI32*(1+$BJ$37)</f>
+        <v>28345.867123008149</v>
       </c>
       <c r="CK32" s="2">
-        <f t="shared" si="78"/>
-        <v>29681.410630114391</v>
+        <f>+CJ32*(1+$BJ$37)</f>
+        <v>28629.32579423823</v>
       </c>
       <c r="CL32" s="2">
-        <f t="shared" si="78"/>
-        <v>29978.224736415534</v>
+        <f>+CK32*(1+$BJ$37)</f>
+        <v>28915.619052180613</v>
       </c>
       <c r="CM32" s="2">
-        <f t="shared" si="78"/>
-        <v>30278.006983779691</v>
+        <f>+CL32*(1+$BJ$37)</f>
+        <v>29204.775242702421</v>
       </c>
       <c r="CN32" s="2">
-        <f t="shared" si="78"/>
-        <v>30580.787053617489</v>
+        <f>+CM32*(1+$BJ$37)</f>
+        <v>29496.822995129445</v>
       </c>
       <c r="CO32" s="2">
-        <f t="shared" si="78"/>
-        <v>30886.594924153665</v>
+        <f>+CN32*(1+$BJ$37)</f>
+        <v>29791.791225080739</v>
       </c>
       <c r="CP32" s="2">
-        <f t="shared" si="78"/>
-        <v>31195.460873395201</v>
+        <f>+CO32*(1+$BJ$37)</f>
+        <v>30089.709137331545</v>
       </c>
       <c r="CQ32" s="2">
-        <f t="shared" si="78"/>
-        <v>31507.415482129152</v>
+        <f>+CP32*(1+$BJ$37)</f>
+        <v>30390.606228704863</v>
       </c>
       <c r="CR32" s="2">
-        <f t="shared" si="78"/>
-        <v>31822.489636950442</v>
+        <f>+CQ32*(1+$BJ$37)</f>
+        <v>30694.512290991912</v>
       </c>
       <c r="CS32" s="2">
-        <f t="shared" si="78"/>
-        <v>32140.714533319948</v>
+        <f>+CR32*(1+$BJ$37)</f>
+        <v>31001.45741390183</v>
       </c>
       <c r="CT32" s="2">
-        <f t="shared" si="78"/>
-        <v>32462.121678653148</v>
+        <f>+CS32*(1+$BJ$37)</f>
+        <v>31311.471988040848</v>
       </c>
       <c r="CU32" s="2">
-        <f t="shared" si="78"/>
-        <v>32786.742895439682</v>
+        <f>+CT32*(1+$BJ$37)</f>
+        <v>31624.586707921258</v>
       </c>
       <c r="CV32" s="2">
-        <f t="shared" si="78"/>
-        <v>33114.610324394082</v>
+        <f>+CU32*(1+$BJ$37)</f>
+        <v>31940.83257500047</v>
       </c>
       <c r="CW32" s="2">
-        <f t="shared" si="78"/>
-        <v>33445.756427638022</v>
+        <f>+CV32*(1+$BJ$37)</f>
+        <v>32260.240900750476</v>
       </c>
       <c r="CX32" s="2">
-        <f t="shared" si="78"/>
-        <v>33780.213991914403</v>
+        <f>+CW32*(1+$BJ$37)</f>
+        <v>32582.84330975798</v>
       </c>
       <c r="CY32" s="2">
-        <f t="shared" si="78"/>
-        <v>34118.016131833545</v>
+        <f>+CX32*(1+$BJ$37)</f>
+        <v>32908.671742855557</v>
       </c>
       <c r="CZ32" s="2">
-        <f t="shared" si="78"/>
-        <v>34459.196293151879</v>
+        <f>+CY32*(1+$BJ$37)</f>
+        <v>33237.758460284109</v>
       </c>
       <c r="DA32" s="2">
-        <f t="shared" si="78"/>
-        <v>34803.788256083397</v>
+        <f>+CZ32*(1+$BJ$37)</f>
+        <v>33570.136044886953</v>
       </c>
       <c r="DB32" s="2">
-        <f t="shared" si="78"/>
-        <v>35151.826138644232</v>
+        <f>+DA32*(1+$BJ$37)</f>
+        <v>33905.83740533582</v>
       </c>
       <c r="DC32" s="2">
-        <f t="shared" si="78"/>
-        <v>35503.344400030677</v>
+        <f>+DB32*(1+$BJ$37)</f>
+        <v>34244.895779389182</v>
       </c>
       <c r="DD32" s="2">
-        <f t="shared" si="78"/>
-        <v>35858.377844030983</v>
+        <f>+DC32*(1+$BJ$37)</f>
+        <v>34587.344737183077</v>
       </c>
       <c r="DE32" s="2">
-        <f t="shared" si="78"/>
-        <v>36216.961622471295</v>
+        <f>+DD32*(1+$BJ$37)</f>
+        <v>34933.218184554906</v>
       </c>
       <c r="DF32" s="2">
-        <f t="shared" si="78"/>
-        <v>36579.131238696005</v>
+        <f>+DE32*(1+$BJ$37)</f>
+        <v>35282.550366400457</v>
       </c>
       <c r="DG32" s="2">
-        <f t="shared" si="78"/>
-        <v>36944.922551082964</v>
+        <f>+DF32*(1+$BJ$37)</f>
+        <v>35635.375870064461</v>
       </c>
       <c r="DH32" s="2">
-        <f t="shared" si="78"/>
-        <v>37314.371776593791</v>
+        <f>+DG32*(1+$BJ$37)</f>
+        <v>35991.729628765104</v>
       </c>
       <c r="DI32" s="2">
-        <f t="shared" si="78"/>
-        <v>37687.51549435973</v>
+        <f>+DH32*(1+$BJ$37)</f>
+        <v>36351.646925052759</v>
       </c>
       <c r="DJ32" s="2">
-        <f t="shared" si="78"/>
-        <v>38064.390649303328</v>
+        <f>+DI32*(1+$BJ$37)</f>
+        <v>36715.163394303287</v>
       </c>
       <c r="DK32" s="2">
-        <f t="shared" si="78"/>
-        <v>38445.034555796359</v>
+        <f>+DJ32*(1+$BJ$37)</f>
+        <v>37082.315028246318</v>
       </c>
       <c r="DL32" s="2">
-        <f t="shared" si="78"/>
-        <v>38829.484901354321</v>
+        <f>+DK32*(1+$BJ$37)</f>
+        <v>37453.138178528781</v>
       </c>
       <c r="DM32" s="2">
-        <f t="shared" si="78"/>
-        <v>39217.779750367867</v>
+        <f>+DL32*(1+$BJ$37)</f>
+        <v>37827.669560314069</v>
       </c>
       <c r="DN32" s="2">
-        <f t="shared" si="78"/>
-        <v>39609.957547871549</v>
+        <f>+DM32*(1+$BJ$37)</f>
+        <v>38205.94625591721</v>
       </c>
       <c r="DO32" s="2">
-        <f t="shared" si="78"/>
-        <v>40006.057123350263</v>
+        <f>+DN32*(1+$BJ$37)</f>
+        <v>38588.005718476379</v>
       </c>
       <c r="DP32" s="2">
-        <f t="shared" si="78"/>
-        <v>40406.117694583765</v>
+        <f>+DO32*(1+$BJ$37)</f>
+        <v>38973.88577566114</v>
       </c>
       <c r="DQ32" s="2">
-        <f t="shared" si="78"/>
-        <v>40810.178871529606</v>
+        <f>+DP32*(1+$BJ$37)</f>
+        <v>39363.624633417749</v>
       </c>
       <c r="DR32" s="2">
-        <f t="shared" ref="DR32:ED32" si="79">+DQ32*(1+$BH$38)</f>
-        <v>41218.280660244905</v>
+        <f>+DQ32*(1+$BJ$37)</f>
+        <v>39757.260879751928</v>
       </c>
       <c r="DS32" s="2">
-        <f t="shared" si="79"/>
-        <v>41630.463466847352</v>
+        <f>+DR32*(1+$BJ$37)</f>
+        <v>40154.833488549448</v>
       </c>
       <c r="DT32" s="2">
-        <f t="shared" si="79"/>
-        <v>42046.768101515823</v>
+        <f>+DS32*(1+$BJ$37)</f>
+        <v>40556.381823434946</v>
       </c>
       <c r="DU32" s="2">
-        <f t="shared" si="79"/>
-        <v>42467.235782530981</v>
+        <f>+DT32*(1+$BJ$37)</f>
+        <v>40961.945641669292</v>
       </c>
       <c r="DV32" s="2">
-        <f t="shared" si="79"/>
-        <v>42891.908140356289</v>
+        <f>+DU32*(1+$BJ$37)</f>
+        <v>41371.565098085986</v>
       </c>
       <c r="DW32" s="2">
-        <f t="shared" si="79"/>
-        <v>43320.82722175985</v>
+        <f>+DV32*(1+$BJ$37)</f>
+        <v>41785.280749066849</v>
       </c>
       <c r="DX32" s="2">
-        <f t="shared" si="79"/>
-        <v>43754.035493977448</v>
+        <f>+DW32*(1+$BJ$37)</f>
+        <v>42203.133556557521</v>
       </c>
       <c r="DY32" s="2">
-        <f t="shared" si="79"/>
-        <v>44191.575848917222</v>
+        <f>+DX32*(1+$BJ$37)</f>
+        <v>42625.164892123095</v>
       </c>
       <c r="DZ32" s="2">
-        <f t="shared" si="79"/>
-        <v>44633.491607406395</v>
+        <f>+DY32*(1+$BJ$37)</f>
+        <v>43051.416541044324</v>
       </c>
       <c r="EA32" s="2">
-        <f t="shared" si="79"/>
-        <v>45079.826523480457</v>
+        <f>+DZ32*(1+$BJ$37)</f>
+        <v>43481.930706454768</v>
       </c>
       <c r="EB32" s="2">
-        <f t="shared" si="79"/>
-        <v>45530.624788715264</v>
+        <f>+EA32*(1+$BJ$37)</f>
+        <v>43916.750013519319</v>
       </c>
       <c r="EC32" s="2">
-        <f t="shared" si="79"/>
-        <v>45985.931036602415</v>
+        <f>+EB32*(1+$BJ$37)</f>
+        <v>44355.917513654509</v>
       </c>
       <c r="ED32" s="2">
-        <f t="shared" si="79"/>
-        <v>46445.790346968439</v>
-      </c>
-    </row>
-    <row r="33" spans="2:60" x14ac:dyDescent="0.2">
+        <f>+EC32*(1+$BJ$37)</f>
+        <v>44799.476688791052</v>
+      </c>
+      <c r="EE32" s="2">
+        <f>+ED32*(1+$BJ$37)</f>
+        <v>45247.471455678962</v>
+      </c>
+      <c r="EF32" s="2">
+        <f>+EE32*(1+$BJ$37)</f>
+        <v>45699.946170235751</v>
+      </c>
+    </row>
+    <row r="33" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
@@ -4559,7 +5133,7 @@
         <v>-0.12581659811275103</v>
       </c>
       <c r="O33" s="16">
-        <f t="shared" ref="O33:V33" si="81">+O32/O34</f>
+        <f t="shared" ref="O33:Z33" si="81">+O32/O34</f>
         <v>-0.3040442946557535</v>
       </c>
       <c r="P33" s="16">
@@ -4584,138 +5158,154 @@
       </c>
       <c r="U33" s="16">
         <f t="shared" si="81"/>
-        <v>1.1717834544176237E-2</v>
+        <v>-0.77003727865796834</v>
       </c>
       <c r="V33" s="16">
         <f t="shared" si="81"/>
-        <v>0.18658542301382702</v>
-      </c>
-      <c r="Z33" s="1">
-        <f>+Z32/Z34</f>
-        <v>1.2471673680802848</v>
-      </c>
-      <c r="AA33" s="1">
-        <f>+AA32/AA34</f>
-        <v>0.51411564625850337</v>
+        <v>0.18549860205032614</v>
+      </c>
+      <c r="W33" s="16">
+        <f t="shared" si="81"/>
+        <v>1.0672506989748369</v>
+      </c>
+      <c r="X33" s="16">
+        <f t="shared" si="81"/>
+        <v>1.0763932898415658</v>
+      </c>
+      <c r="Y33" s="16">
+        <f t="shared" si="81"/>
+        <v>1.1142218080149116</v>
+      </c>
+      <c r="Z33" s="16">
+        <f t="shared" si="81"/>
+        <v>1.1629878844361605</v>
       </c>
       <c r="AB33" s="1">
         <f>+AB32/AB34</f>
-        <v>0.97119272237196763</v>
+        <v>1.2471673680802848</v>
       </c>
       <c r="AC33" s="1">
         <f>+AC32/AC34</f>
+        <v>0.51411564625850337</v>
+      </c>
+      <c r="AD33" s="1">
+        <f>+AD32/AD34</f>
+        <v>0.97119272237196763</v>
+      </c>
+      <c r="AE33" s="1">
+        <f>+AE32/AE34</f>
         <v>1.1798886569241476</v>
       </c>
-      <c r="AD33" s="1">
-        <f t="shared" ref="AD33" si="82">+AD32/AD34</f>
+      <c r="AF33" s="1">
+        <f t="shared" ref="AF33" si="82">+AF32/AF34</f>
         <v>0.79344552701505755</v>
       </c>
-      <c r="AE33" s="1">
-        <f t="shared" ref="AE33" si="83">+AE32/AE34</f>
+      <c r="AG33" s="1">
+        <f t="shared" ref="AG33" si="83">+AG32/AG34</f>
         <v>1.916432584269663</v>
       </c>
-      <c r="AF33" s="1">
-        <f t="shared" ref="AF33" si="84">+AF32/AF34</f>
+      <c r="AH33" s="1">
+        <f t="shared" ref="AH33" si="84">+AH32/AH34</f>
         <v>2.3481796340787287</v>
       </c>
-      <c r="AG33" s="1">
-        <f t="shared" ref="AG33" si="85">+AG32/AG34</f>
+      <c r="AI33" s="1">
+        <f t="shared" ref="AI33" si="85">+AI32/AI34</f>
         <v>2.1286821705426355</v>
       </c>
-      <c r="AH33" s="1">
-        <f>+AH32/AH34</f>
+      <c r="AJ33" s="1">
+        <f>+AJ32/AJ34</f>
         <v>1.8991563664900921</v>
       </c>
-      <c r="AI33" s="1">
-        <f t="shared" ref="AI33:AK33" si="86">+AI32/AI34</f>
+      <c r="AK33" s="1">
+        <f t="shared" ref="AK33:AM33" si="86">+AK32/AK34</f>
         <v>2.3500791139240507</v>
       </c>
-      <c r="AJ33" s="1">
+      <c r="AL33" s="1">
         <f t="shared" si="86"/>
         <v>2.3955864323661626</v>
       </c>
-      <c r="AK33" s="1">
+      <c r="AM33" s="1">
         <f t="shared" si="86"/>
         <v>2.4594871794871795</v>
       </c>
-      <c r="AL33" s="1">
-        <f>+AL32/AL34</f>
-        <v>3.7770423991726991</v>
-      </c>
-      <c r="AM33" s="1">
-        <f>+AM32/AM34</f>
-        <v>4.4896830461603914</v>
-      </c>
       <c r="AN33" s="1">
         <f>+AN32/AN34</f>
-        <v>4.4493628437290411</v>
+        <v>3.7770423991726991</v>
       </c>
       <c r="AO33" s="1">
         <f>+AO32/AO34</f>
+        <v>4.4896830461603914</v>
+      </c>
+      <c r="AP33" s="1">
+        <f>+AP32/AP34</f>
+        <v>4.4493628437290411</v>
+      </c>
+      <c r="AQ33" s="1">
+        <f>+AQ32/AQ34</f>
         <v>4.5352079395085063</v>
       </c>
-      <c r="AP33" s="1">
-        <f t="shared" ref="AP33:AR33" si="87">+AP32/AP34</f>
+      <c r="AR33" s="1">
+        <f t="shared" ref="AR33:AT33" si="87">+AR32/AR34</f>
         <v>4.8325183374083132</v>
       </c>
-      <c r="AQ33" s="1">
+      <c r="AS33" s="1">
         <f t="shared" si="87"/>
         <v>0.90977443609022557</v>
       </c>
-      <c r="AR33" s="1">
+      <c r="AT33" s="1">
         <f t="shared" si="87"/>
         <v>0.12637330007720174</v>
       </c>
-      <c r="AS33" s="1">
-        <f t="shared" ref="AS33" si="88">+AS32/AS34</f>
-        <v>-0.15744645895675646</v>
-      </c>
-      <c r="AT33" s="1">
-        <f t="shared" ref="AT33" si="89">+AT32/AT34</f>
-        <v>1.1772776198744355</v>
-      </c>
       <c r="AU33" s="1">
-        <f t="shared" ref="AU33" si="90">+AU32/AU34</f>
-        <v>1.4304602186084614</v>
+        <f t="shared" ref="AU33" si="88">+AU32/AU34</f>
+        <v>-0.94210261510559878</v>
       </c>
       <c r="AV33" s="1">
-        <f t="shared" ref="AV33" si="91">+AV32/AV34</f>
-        <v>1.7162920348623689</v>
+        <f t="shared" ref="AV33" si="89">+AV32/AV34</f>
+        <v>1.1180970967951791</v>
       </c>
       <c r="AW33" s="1">
-        <f t="shared" ref="AW33" si="92">+AW32/AW34</f>
-        <v>2.0507836746587951</v>
+        <f t="shared" ref="AW33" si="90">+AW32/AW34</f>
+        <v>1.3688669889278655</v>
       </c>
       <c r="AX33" s="1">
-        <f t="shared" ref="AX33" si="93">+AX32/AX34</f>
-        <v>2.4036452852604264</v>
+        <f t="shared" ref="AX33" si="91">+AX32/AX34</f>
+        <v>1.6521404308336363</v>
       </c>
       <c r="AY33" s="1">
-        <f t="shared" ref="AY33" si="94">+AY32/AY34</f>
-        <v>2.6364404959789667</v>
+        <f t="shared" ref="AY33" si="92">+AY32/AY34</f>
+        <v>1.9824670199348795</v>
       </c>
       <c r="AZ33" s="1">
-        <f t="shared" ref="AZ33" si="95">+AZ32/AZ34</f>
-        <v>3.1902434488754992</v>
+        <f t="shared" ref="AZ33" si="93">+AZ32/AZ34</f>
+        <v>2.3319582907459644</v>
       </c>
       <c r="BA33" s="1">
-        <f t="shared" ref="BA33" si="96">+BA32/BA34</f>
-        <v>3.6284145236689036</v>
+        <f t="shared" ref="BA33" si="94">+BA32/BA34</f>
+        <v>2.5616603893168874</v>
       </c>
       <c r="BB33" s="1">
-        <f t="shared" ref="BB33" si="97">+BB32/BB34</f>
-        <v>4.1176543323070982</v>
+        <f t="shared" ref="BB33" si="95">+BB32/BB34</f>
+        <v>3.1113549879405928</v>
       </c>
       <c r="BC33" s="1">
-        <f t="shared" ref="BC33" si="98">+BC32/BC34</f>
-        <v>4.4573309755753021</v>
+        <f t="shared" ref="BC33" si="96">+BC32/BC34</f>
+        <v>3.5456773942944513</v>
       </c>
       <c r="BD33" s="1">
-        <f t="shared" ref="BD33" si="99">+BD32/BD34</f>
-        <v>5.0164114418850021</v>
-      </c>
-    </row>
-    <row r="34" spans="2:60" x14ac:dyDescent="0.2">
+        <f t="shared" ref="BD33" si="97">+BD32/BD34</f>
+        <v>4.0308382032672112</v>
+      </c>
+      <c r="BE33" s="1">
+        <f t="shared" ref="BE33" si="98">+BE32/BE34</f>
+        <v>4.3667899381882096</v>
+      </c>
+      <c r="BF33" s="1">
+        <f t="shared" ref="BF33" si="99">+BF32/BF34</f>
+        <v>4.9214177600440685</v>
+      </c>
+    </row>
+    <row r="34" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
@@ -4762,130 +5352,145 @@
         <v>4267</v>
       </c>
       <c r="U34" s="5">
-        <f>+T34</f>
-        <v>4267</v>
+        <v>4292</v>
       </c>
       <c r="V34" s="5">
         <f>+U34</f>
-        <v>4267</v>
-      </c>
-      <c r="Z34" s="2">
+        <v>4292</v>
+      </c>
+      <c r="W34" s="5">
+        <f>+V34</f>
+        <v>4292</v>
+      </c>
+      <c r="X34" s="5">
+        <f>+W34</f>
+        <v>4292</v>
+      </c>
+      <c r="Y34" s="5">
+        <f>+X34</f>
+        <v>4292</v>
+      </c>
+      <c r="Z34" s="5">
+        <f>+Y34</f>
+        <v>4292</v>
+      </c>
+      <c r="AB34" s="2">
         <v>6178</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AC34" s="2">
         <v>5880</v>
       </c>
-      <c r="AB34" s="2">
+      <c r="AD34" s="2">
         <v>5936</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AE34" s="2">
         <v>5748</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AF34" s="2">
         <v>5645</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AG34" s="2">
         <v>5696</v>
       </c>
-      <c r="AF34" s="2">
+      <c r="AH34" s="2">
         <v>5411</v>
       </c>
-      <c r="AG34" s="2">
+      <c r="AI34" s="2">
         <v>5160</v>
       </c>
-      <c r="AH34" s="2">
+      <c r="AJ34" s="2">
         <v>5097</v>
       </c>
-      <c r="AI34" s="2">
+      <c r="AK34" s="2">
         <v>5056</v>
       </c>
-      <c r="AJ34" s="2">
+      <c r="AL34" s="2">
         <v>4894</v>
       </c>
-      <c r="AK34" s="2">
+      <c r="AM34" s="2">
         <v>4875</v>
       </c>
-      <c r="AL34" s="2">
+      <c r="AN34" s="2">
         <v>4835</v>
       </c>
-      <c r="AM34" s="2">
+      <c r="AO34" s="2">
         <v>4701</v>
       </c>
-      <c r="AN34" s="2">
+      <c r="AP34" s="2">
         <v>4473</v>
       </c>
-      <c r="AO34" s="2">
+      <c r="AQ34" s="2">
         <v>4232</v>
       </c>
-      <c r="AP34" s="2">
+      <c r="AR34" s="2">
         <v>4090</v>
       </c>
-      <c r="AQ34" s="2">
+      <c r="AS34" s="2">
         <v>4123</v>
       </c>
-      <c r="AR34" s="2">
+      <c r="AT34" s="2">
         <f>AVERAGE(O34:R34)</f>
         <v>4209.75</v>
       </c>
-      <c r="AS34" s="2">
+      <c r="AU34" s="2">
         <f>AVERAGE(S34:V34)</f>
-        <v>4260.75</v>
-      </c>
-      <c r="AT34" s="2">
-        <f t="shared" ref="AT34:BD34" si="100">+AS34</f>
-        <v>4260.75</v>
-      </c>
-      <c r="AU34" s="2">
-        <f t="shared" si="100"/>
-        <v>4260.75</v>
+        <v>4273.25</v>
       </c>
       <c r="AV34" s="2">
-        <f t="shared" si="100"/>
-        <v>4260.75</v>
+        <f t="shared" ref="AV34:BF34" si="100">+AU34</f>
+        <v>4273.25</v>
       </c>
       <c r="AW34" s="2">
         <f t="shared" si="100"/>
-        <v>4260.75</v>
+        <v>4273.25</v>
       </c>
       <c r="AX34" s="2">
         <f t="shared" si="100"/>
-        <v>4260.75</v>
+        <v>4273.25</v>
       </c>
       <c r="AY34" s="2">
         <f t="shared" si="100"/>
-        <v>4260.75</v>
+        <v>4273.25</v>
       </c>
       <c r="AZ34" s="2">
         <f t="shared" si="100"/>
-        <v>4260.75</v>
+        <v>4273.25</v>
       </c>
       <c r="BA34" s="2">
         <f t="shared" si="100"/>
-        <v>4260.75</v>
+        <v>4273.25</v>
       </c>
       <c r="BB34" s="2">
         <f t="shared" si="100"/>
-        <v>4260.75</v>
+        <v>4273.25</v>
       </c>
       <c r="BC34" s="2">
         <f t="shared" si="100"/>
-        <v>4260.75</v>
+        <v>4273.25</v>
       </c>
       <c r="BD34" s="2">
         <f t="shared" si="100"/>
-        <v>4260.75</v>
-      </c>
-    </row>
-    <row r="35" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="AU35" s="4"/>
-      <c r="BG35" t="s">
+        <v>4273.25</v>
+      </c>
+      <c r="BE34" s="2">
+        <f t="shared" si="100"/>
+        <v>4273.25</v>
+      </c>
+      <c r="BF34" s="2">
+        <f t="shared" si="100"/>
+        <v>4273.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="AW35" s="4"/>
+      <c r="BI35" t="s">
         <v>73</v>
       </c>
-      <c r="BH35" s="4">
+      <c r="BJ35" s="4">
         <v>0.08</v>
       </c>
     </row>
-    <row r="36" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:62" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
         <v>24</v>
       </c>
@@ -4926,7 +5531,7 @@
         <v>-7.6933107315164895E-2</v>
       </c>
       <c r="R36" s="17">
-        <f t="shared" ref="R36:V36" si="105">+R22/N22-1</f>
+        <f t="shared" ref="R36:Z36" si="105">+R22/N22-1</f>
         <v>9.7137159948725182E-2</v>
       </c>
       <c r="S36" s="17">
@@ -4939,139 +5544,153 @@
       </c>
       <c r="U36" s="17">
         <f t="shared" si="105"/>
-        <v>-8.1791213448227151E-2</v>
+        <v>-6.1731883034326862E-2</v>
       </c>
       <c r="V36" s="17">
         <f t="shared" si="105"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15">
-        <f>+AB22/AA22-1</f>
-        <v>8.3432253688316083E-2</v>
-      </c>
-      <c r="AC36" s="15">
-        <f>+AC22/AB22-1</f>
-        <v>-1.9512704126884772E-2</v>
-      </c>
+      <c r="W36" s="17">
+        <f t="shared" si="105"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="X36" s="17">
+        <f t="shared" si="105"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="Y36" s="17">
+        <f t="shared" si="105"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="Z36" s="17">
+        <f t="shared" si="105"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="AC36" s="15"/>
       <c r="AD36" s="15">
         <f>+AD22/AC22-1</f>
-        <v>-6.5423295908050849E-2</v>
+        <v>8.3432253688316083E-2</v>
       </c>
       <c r="AE36" s="15">
         <f>+AE22/AD22-1</f>
+        <v>-1.9512704126884772E-2</v>
+      </c>
+      <c r="AF36" s="15">
+        <f>+AF22/AE22-1</f>
+        <v>-6.5423295908050849E-2</v>
+      </c>
+      <c r="AG36" s="15">
+        <f>+AG22/AF22-1</f>
         <v>0.2418652318729182</v>
       </c>
-      <c r="AF36" s="15">
-        <f t="shared" ref="AF36:AH36" si="106">+AF22/AE22-1</f>
+      <c r="AH36" s="15">
+        <f t="shared" ref="AH36:AJ36" si="106">+AH22/AG22-1</f>
         <v>0.2378561767874745</v>
       </c>
-      <c r="AG36" s="15">
+      <c r="AI36" s="15">
         <f t="shared" si="106"/>
         <v>-1.2185410840941491E-2</v>
       </c>
-      <c r="AH36" s="15">
+      <c r="AJ36" s="15">
         <f t="shared" si="106"/>
         <v>-1.1867044112408798E-2</v>
       </c>
-      <c r="AI36" s="15">
-        <f t="shared" ref="AI36:AQ36" si="107">+AI22/AH22-1</f>
+      <c r="AK36" s="15">
+        <f t="shared" ref="AK36:AS36" si="107">+AK22/AJ22-1</f>
         <v>5.9990893223040187E-2</v>
       </c>
-      <c r="AJ36" s="15">
+      <c r="AL36" s="15">
         <f t="shared" si="107"/>
         <v>-9.2178270986218447E-3</v>
       </c>
-      <c r="AK36" s="15">
+      <c r="AM36" s="15">
         <f t="shared" si="107"/>
         <v>7.283894860446205E-2</v>
       </c>
-      <c r="AL36" s="15">
+      <c r="AN36" s="15">
         <f t="shared" si="107"/>
         <v>5.6813780793776525E-2</v>
       </c>
-      <c r="AM36" s="15">
+      <c r="AO36" s="15">
         <f t="shared" si="107"/>
         <v>0.12885390608817571</v>
       </c>
-      <c r="AN36" s="15">
+      <c r="AP36" s="15">
         <f t="shared" si="107"/>
         <v>1.576614724480585E-2</v>
       </c>
-      <c r="AO36" s="15">
+      <c r="AQ36" s="15">
         <f t="shared" si="107"/>
         <v>8.2012089210032668E-2</v>
       </c>
-      <c r="AP36" s="15">
+      <c r="AR36" s="15">
         <f t="shared" si="107"/>
         <v>1.4858669269395275E-2</v>
       </c>
-      <c r="AQ36" s="15">
+      <c r="AS36" s="15">
         <f t="shared" si="107"/>
         <v>-0.20209050415063778</v>
       </c>
-      <c r="AR36" s="15">
-        <f t="shared" ref="AR36:BD36" si="108">+AR22/AQ22-1</f>
+      <c r="AT36" s="15">
+        <f t="shared" ref="AT36:BF36" si="108">+AT22/AS22-1</f>
         <v>-0.13997525930155108</v>
-      </c>
-      <c r="AS36" s="15">
-        <f t="shared" si="108"/>
-        <v>-3.329645201740794E-2</v>
-      </c>
-      <c r="AT36" s="15">
-        <f t="shared" si="108"/>
-        <v>0.11932739248870727</v>
       </c>
       <c r="AU36" s="15">
         <f t="shared" si="108"/>
-        <v>7.0192307692307665E-2</v>
+        <v>-2.8059305156007963E-2</v>
       </c>
       <c r="AV36" s="15">
         <f t="shared" si="108"/>
-        <v>4.9999999999999822E-2</v>
+        <v>0.11329607599836078</v>
       </c>
       <c r="AW36" s="15">
         <f t="shared" si="108"/>
-        <v>6.9811320754717077E-2</v>
+        <v>7.0192307692307665E-2</v>
       </c>
       <c r="AX36" s="15">
         <f t="shared" si="108"/>
-        <v>5.0000000000000044E-2</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="AY36" s="15">
         <f t="shared" si="108"/>
-        <v>5.0000000000000044E-2</v>
+        <v>6.9811320754717077E-2</v>
       </c>
       <c r="AZ36" s="15">
         <f t="shared" si="108"/>
-        <v>6.9444444444444642E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="BA36" s="15">
         <f t="shared" si="108"/>
-        <v>6.9090909090909092E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="BB36" s="15">
         <f t="shared" si="108"/>
-        <v>4.9999999999999822E-2</v>
+        <v>6.9444444444444642E-2</v>
       </c>
       <c r="BC36" s="15">
         <f t="shared" si="108"/>
-        <v>5.0000000000000044E-2</v>
+        <v>6.9090909090909092E-2</v>
       </c>
       <c r="BD36" s="15">
         <f t="shared" si="108"/>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="BE36" s="15">
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BG36" t="s">
+      <c r="BF36" s="15">
+        <f t="shared" si="108"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BI36" t="s">
         <v>74</v>
       </c>
-      <c r="BH36" s="4">
+      <c r="BJ36" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:62" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
         <v>103</v>
       </c>
@@ -5097,77 +5716,77 @@
       <c r="V37" s="17"/>
       <c r="W37" s="17"/>
       <c r="X37" s="17"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="15">
-        <f t="shared" ref="AB37:AG37" si="109">+AB11/AA11-1</f>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15">
+        <f t="shared" ref="AD37:AI37" si="109">+AD11/AC11-1</f>
         <v>0.13900501672240795</v>
       </c>
-      <c r="AC37" s="15">
+      <c r="AE37" s="15">
         <f t="shared" si="109"/>
         <v>6.7351807671132358E-2</v>
       </c>
-      <c r="AD37" s="15">
+      <c r="AF37" s="15">
         <f t="shared" si="109"/>
         <v>6.0316368638239304E-2</v>
       </c>
-      <c r="AE37" s="15">
+      <c r="AG37" s="15">
         <f t="shared" si="109"/>
         <v>0.13802944801193484</v>
       </c>
-      <c r="AF37" s="15">
+      <c r="AH37" s="15">
         <f t="shared" si="109"/>
         <v>4.1208321459105246E-2</v>
       </c>
-      <c r="AG37" s="15">
+      <c r="AI37" s="15">
         <f t="shared" si="109"/>
         <v>-3.9139478870155453E-2</v>
       </c>
-      <c r="AH37" s="15">
-        <f t="shared" ref="AH37:AQ37" si="110">+AH11/AG11-1</f>
+      <c r="AJ37" s="15">
+        <f t="shared" ref="AJ37:AS37" si="110">+AJ11/AI11-1</f>
         <v>-9.8729561898251106E-2</v>
       </c>
-      <c r="AI37" s="15">
+      <c r="AK37" s="15">
         <f t="shared" si="110"/>
         <v>-8.5967130214916754E-3</v>
       </c>
-      <c r="AJ37" s="15">
+      <c r="AL37" s="15">
         <f t="shared" si="110"/>
         <v>-8.2887018617699537E-2</v>
       </c>
-      <c r="AK37" s="15">
+      <c r="AM37" s="15">
         <f t="shared" si="110"/>
         <v>-6.2500000000000111E-2</v>
       </c>
-      <c r="AL37" s="15">
+      <c r="AN37" s="15">
         <f t="shared" si="110"/>
         <v>-2.6325546903967267E-2</v>
       </c>
-      <c r="AM37" s="15">
+      <c r="AO37" s="15">
         <f t="shared" si="110"/>
         <v>-1.1043412033511224E-2</v>
       </c>
-      <c r="AN37" s="15">
+      <c r="AP37" s="15">
         <f t="shared" si="110"/>
         <v>1.0974201001155315E-2</v>
       </c>
-      <c r="AO37" s="15">
+      <c r="AQ37" s="15">
         <f t="shared" si="110"/>
         <v>0.17722338602171006</v>
       </c>
-      <c r="AP37" s="15">
+      <c r="AR37" s="15">
         <f t="shared" si="110"/>
         <v>0.10563608127345692</v>
       </c>
-      <c r="AQ37" s="15">
+      <c r="AS37" s="15">
         <f t="shared" si="110"/>
         <v>-0.16878822462177745</v>
       </c>
-      <c r="AR37" s="15">
-        <f>+AR11/AQ11-1</f>
+      <c r="AT37" s="15">
+        <f>+AT11/AS11-1</f>
         <v>-0.14842457313853208</v>
       </c>
-      <c r="AS37" s="15"/>
-      <c r="AT37" s="15"/>
       <c r="AU37" s="15"/>
       <c r="AV37" s="15"/>
       <c r="AW37" s="15"/>
@@ -5178,42 +5797,49 @@
       <c r="BB37" s="15"/>
       <c r="BC37" s="15"/>
       <c r="BD37" s="15"/>
-      <c r="BG37"/>
-      <c r="BH37" s="4"/>
-    </row>
-    <row r="38" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE37" s="15"/>
+      <c r="BF37" s="15"/>
+      <c r="BI37" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ37" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AK38" s="4">
+      <c r="AM38" s="4">
         <v>1.67E-2</v>
       </c>
-      <c r="AL38" s="4">
+      <c r="AN38" s="4">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="AM38" s="4">
+      <c r="AO38" s="4">
         <v>2.92E-2</v>
       </c>
-      <c r="AN38" s="4">
+      <c r="AP38" s="4">
         <v>2.29E-2</v>
       </c>
-      <c r="AO38" s="4">
+      <c r="AQ38" s="4">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="AP38" s="4">
+      <c r="AR38" s="4">
         <v>5.67E-2</v>
       </c>
-      <c r="AQ38" s="4">
+      <c r="AS38" s="4">
         <v>0.01</v>
       </c>
-      <c r="BG38" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH38" s="4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="39" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BI38" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ38" s="2">
+        <f>NPV(BJ35,AT32:EF32)+Main!L5-Main!L6</f>
+        <v>156248.16159786101</v>
+      </c>
+    </row>
+    <row r="39" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>25</v>
       </c>
@@ -5275,145 +5901,161 @@
       </c>
       <c r="U39" s="19">
         <f>+U24/U22</f>
-        <v>0.4</v>
+        <v>0.15033122553447756</v>
       </c>
       <c r="V39" s="19">
         <f>+V24/V22</f>
         <v>0.4</v>
       </c>
-      <c r="Z39" s="4">
-        <f t="shared" ref="Z39:AG39" si="113">+Z24/Z22</f>
+      <c r="W39" s="19">
+        <f t="shared" ref="W39:Z39" si="113">+W24/W22</f>
+        <v>0.4</v>
+      </c>
+      <c r="X39" s="19">
+        <f t="shared" si="113"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="Y39" s="19">
+        <f t="shared" si="113"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z39" s="19">
+        <f t="shared" si="113"/>
+        <v>0.4</v>
+      </c>
+      <c r="AB39" s="4">
+        <f t="shared" ref="AB39:AI39" si="114">+AB24/AB22</f>
         <v>0.59364858599907278</v>
       </c>
-      <c r="AA39" s="4">
-        <f t="shared" si="113"/>
+      <c r="AC39" s="4">
+        <f t="shared" si="114"/>
         <v>0.51489457916454695</v>
       </c>
-      <c r="AB39" s="4">
-        <f t="shared" si="113"/>
+      <c r="AD39" s="4">
+        <f t="shared" si="114"/>
         <v>0.51922575259560699</v>
       </c>
-      <c r="AC39" s="4">
-        <f t="shared" si="113"/>
+      <c r="AE39" s="4">
+        <f t="shared" si="114"/>
         <v>0.55456819028361626</v>
       </c>
-      <c r="AD39" s="4">
-        <f t="shared" si="113"/>
+      <c r="AF39" s="4">
+        <f t="shared" si="114"/>
         <v>0.55686508953226865</v>
       </c>
-      <c r="AE39" s="4">
-        <f t="shared" si="113"/>
+      <c r="AG39" s="4">
+        <f t="shared" si="114"/>
         <v>0.65311876762258436</v>
       </c>
-      <c r="AF39" s="4">
-        <f t="shared" si="113"/>
+      <c r="AH39" s="4">
+        <f t="shared" si="114"/>
         <v>0.62514120631863557</v>
       </c>
-      <c r="AG39" s="4">
-        <f t="shared" si="113"/>
+      <c r="AI39" s="4">
+        <f t="shared" si="114"/>
         <v>0.62149191053786024</v>
       </c>
-      <c r="AH39" s="4">
-        <f t="shared" ref="AH39" si="114">+AH24/AH22</f>
+      <c r="AJ39" s="4">
+        <f t="shared" ref="AJ39" si="115">+AJ24/AJ22</f>
         <v>0.5980306594824315</v>
       </c>
-      <c r="AI39" s="4">
-        <f t="shared" ref="AI39" si="115">+AI24/AI22</f>
+      <c r="AK39" s="4">
+        <f t="shared" ref="AK39" si="116">+AK24/AK22</f>
         <v>0.6373545731161625</v>
       </c>
-      <c r="AJ39" s="4">
-        <f t="shared" ref="AJ39:AL39" si="116">+AJ24/AJ22</f>
+      <c r="AL39" s="4">
+        <f t="shared" ref="AL39:AN39" si="117">+AL24/AL22</f>
         <v>0.62648360581699936</v>
       </c>
-      <c r="AK39" s="4">
-        <f t="shared" si="116"/>
+      <c r="AM39" s="4">
+        <f t="shared" si="117"/>
         <v>0.60940946671830531</v>
-      </c>
-      <c r="AL39" s="4">
-        <f t="shared" si="116"/>
-        <v>0.6225044215356671</v>
-      </c>
-      <c r="AM39" s="4">
-        <f t="shared" ref="AM39:AN39" si="117">+AM24/AM22</f>
-        <v>0.61733570460704612</v>
       </c>
       <c r="AN39" s="4">
         <f t="shared" si="117"/>
+        <v>0.6225044215356671</v>
+      </c>
+      <c r="AO39" s="4">
+        <f t="shared" ref="AO39:AP39" si="118">+AO24/AO22</f>
+        <v>0.61733570460704612</v>
+      </c>
+      <c r="AP39" s="4">
+        <f t="shared" si="118"/>
         <v>0.5855624261793928</v>
-      </c>
-      <c r="AO39" s="4">
-        <f>+AO24/AO22</f>
-        <v>0.5600832188218372</v>
-      </c>
-      <c r="AP39" s="4">
-        <f>+AP24/AP22</f>
-        <v>0.5544518121077141</v>
       </c>
       <c r="AQ39" s="4">
         <f>+AQ24/AQ22</f>
+        <v>0.5600832188218372</v>
+      </c>
+      <c r="AR39" s="4">
+        <f>+AR24/AR22</f>
+        <v>0.5544518121077141</v>
+      </c>
+      <c r="AS39" s="4">
+        <f>+AS24/AS22</f>
         <v>0.42607923367272499</v>
       </c>
-      <c r="AR39" s="21">
-        <f t="shared" ref="AR39:BD39" si="118">+AR24/AR22</f>
+      <c r="AT39" s="21">
+        <f t="shared" ref="AT39:BF39" si="119">+AT24/AT22</f>
         <v>0.40036512502766097</v>
       </c>
-      <c r="AS39" s="4">
-        <f t="shared" si="118"/>
-        <v>0.39124801611524845</v>
-      </c>
-      <c r="AT39" s="4">
-        <f t="shared" si="118"/>
+      <c r="AU39" s="4">
+        <f t="shared" si="119"/>
+        <v>0.32836923030220239</v>
+      </c>
+      <c r="AV39" s="4">
+        <f t="shared" si="119"/>
         <v>0.47999999999999993</v>
       </c>
-      <c r="AU39" s="4">
-        <f t="shared" si="118"/>
+      <c r="AW39" s="4">
+        <f t="shared" si="119"/>
         <v>0.48</v>
       </c>
-      <c r="AV39" s="4">
-        <f t="shared" si="118"/>
+      <c r="AX39" s="4">
+        <f t="shared" si="119"/>
         <v>0.49</v>
       </c>
-      <c r="AW39" s="4">
-        <f t="shared" si="118"/>
+      <c r="AY39" s="4">
+        <f t="shared" si="119"/>
         <v>0.48999999999999994</v>
       </c>
-      <c r="AX39" s="4">
-        <f t="shared" si="118"/>
+      <c r="AZ39" s="4">
+        <f t="shared" si="119"/>
         <v>0.5</v>
       </c>
-      <c r="AY39" s="4">
-        <f t="shared" si="118"/>
+      <c r="BA39" s="4">
+        <f t="shared" si="119"/>
         <v>0.5</v>
       </c>
-      <c r="AZ39" s="4">
-        <f t="shared" si="118"/>
+      <c r="BB39" s="4">
+        <f t="shared" si="119"/>
         <v>0.51</v>
       </c>
-      <c r="BA39" s="4">
-        <f t="shared" si="118"/>
+      <c r="BC39" s="4">
+        <f t="shared" si="119"/>
         <v>0.51</v>
       </c>
-      <c r="BB39" s="4">
-        <f t="shared" si="118"/>
+      <c r="BD39" s="4">
+        <f t="shared" si="119"/>
         <v>0.52</v>
       </c>
-      <c r="BC39" s="4">
-        <f t="shared" si="118"/>
+      <c r="BE39" s="4">
+        <f t="shared" si="119"/>
         <v>0.52</v>
       </c>
-      <c r="BD39" s="4">
-        <f t="shared" si="118"/>
+      <c r="BF39" s="4">
+        <f t="shared" si="119"/>
         <v>0.53</v>
       </c>
-      <c r="BG39" t="s">
-        <v>77</v>
-      </c>
-      <c r="BH39" s="2">
-        <f>NPV(BH35,AR32:ED32)+Main!L5-Main!L6</f>
-        <v>162647.12866344571</v>
-      </c>
-    </row>
-    <row r="40" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BI39" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ39" s="1">
+        <f>+BJ38/Main!L3</f>
+        <v>36.617802108708929</v>
+      </c>
+    </row>
+    <row r="40" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>105</v>
       </c>
@@ -5433,8 +6075,8 @@
       <c r="T40" s="19"/>
       <c r="U40" s="19"/>
       <c r="V40" s="19"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -5451,11 +6093,11 @@
       <c r="AO40" s="4"/>
       <c r="AP40" s="4"/>
       <c r="AQ40" s="4"/>
-      <c r="AR40" s="21">
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+      <c r="AT40" s="21">
         <v>0.436</v>
       </c>
-      <c r="AS40" s="4"/>
-      <c r="AT40" s="4"/>
       <c r="AU40" s="4"/>
       <c r="AV40" s="4"/>
       <c r="AW40" s="4"/>
@@ -5466,21 +6108,30 @@
       <c r="BB40" s="4"/>
       <c r="BC40" s="4"/>
       <c r="BD40" s="4"/>
-      <c r="BH40" s="2"/>
-    </row>
-    <row r="41" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="BG41" t="s">
-        <v>78</v>
-      </c>
-      <c r="BH41" s="1">
-        <f>+BH39/Main!L3</f>
-        <v>38.117442855272017</v>
-      </c>
-    </row>
-    <row r="42" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE40" s="4"/>
+      <c r="BF40" s="4"/>
+      <c r="BJ40" s="4">
+        <f>+BJ39/Main!L2-1</f>
+        <v>0.8308901054354465</v>
+      </c>
+    </row>
+    <row r="42" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>76</v>
       </c>
+      <c r="O42" s="5">
+        <f>+O43-O52</f>
+        <v>-16710</v>
+      </c>
+      <c r="P42" s="5">
+        <f>+P43-P52</f>
+        <v>-18896</v>
+      </c>
+      <c r="Q42" s="5">
+        <f>+Q43-Q52</f>
+        <v>-18149</v>
+      </c>
+      <c r="R42" s="5"/>
       <c r="S42" s="5">
         <f>+S43-S52</f>
         <v>-25000</v>
@@ -5489,62 +6140,75 @@
         <f>+T43-T52</f>
         <v>-17932</v>
       </c>
-      <c r="AQ42" s="2"/>
-      <c r="AR42" s="2"/>
+      <c r="U42" s="5">
+        <f>+U43-U52</f>
+        <v>-20654</v>
+      </c>
       <c r="AS42" s="2"/>
-      <c r="AT42" s="2">
-        <f t="shared" ref="AT42:BD42" si="119">+AS42+AT32</f>
-        <v>5016.0856188800008</v>
-      </c>
-      <c r="AU42" s="2">
-        <f t="shared" si="119"/>
-        <v>11110.918995316002</v>
-      </c>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2"/>
       <c r="AV42" s="2">
-        <f t="shared" si="119"/>
-        <v>18423.61028285584</v>
+        <f t="shared" ref="AV42:BF42" si="120">+AU42+AV32</f>
+        <v>4777.9084188799989</v>
       </c>
       <c r="AW42" s="2">
-        <f t="shared" si="119"/>
-        <v>27161.486824658299</v>
+        <f t="shared" si="120"/>
+        <v>10627.419279316</v>
       </c>
       <c r="AX42" s="2">
-        <f t="shared" si="119"/>
-        <v>37402.818473831663</v>
+        <f t="shared" si="120"/>
+        <v>17687.428375375835</v>
       </c>
       <c r="AY42" s="2">
-        <f t="shared" si="119"/>
-        <v>48636.032317074045</v>
+        <f t="shared" si="120"/>
+        <v>26159.005568312561</v>
       </c>
       <c r="AZ42" s="2">
-        <f t="shared" si="119"/>
-        <v>62228.862091870324</v>
+        <f t="shared" si="120"/>
+        <v>36124.046334242754</v>
       </c>
       <c r="BA42" s="2">
-        <f t="shared" si="119"/>
-        <v>77688.629273592611</v>
+        <f t="shared" si="120"/>
+        <v>47070.661592891141</v>
       </c>
       <c r="BB42" s="2">
-        <f t="shared" si="119"/>
-        <v>95232.924969970074</v>
+        <f t="shared" si="120"/>
+        <v>60366.259295108277</v>
       </c>
       <c r="BC42" s="2">
-        <f t="shared" si="119"/>
-        <v>114224.49792415254</v>
+        <f t="shared" si="120"/>
+        <v>75517.825220277038</v>
       </c>
       <c r="BD42" s="2">
-        <f t="shared" si="119"/>
-        <v>135598.17297516408</v>
-      </c>
-      <c r="BH42" s="4">
-        <f>+BH41/Main!L2-1</f>
-        <v>-4.7063928618199524E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:60" x14ac:dyDescent="0.2">
+        <f t="shared" si="120"/>
+        <v>92742.604572388649</v>
+      </c>
+      <c r="BE42" s="2">
+        <f t="shared" si="120"/>
+        <v>111402.98967575142</v>
+      </c>
+      <c r="BF42" s="2">
+        <f t="shared" si="120"/>
+        <v>132433.43811885975</v>
+      </c>
+    </row>
+    <row r="43" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>3</v>
       </c>
+      <c r="O43" s="5">
+        <f>8232+19302+6029</f>
+        <v>33563</v>
+      </c>
+      <c r="P43" s="5">
+        <f>8349+15908+5893</f>
+        <v>30150</v>
+      </c>
+      <c r="Q43" s="5">
+        <f>7621+17409+5700</f>
+        <v>30730</v>
+      </c>
+      <c r="R43" s="5"/>
       <c r="S43" s="5">
         <f>6923+14388+6139</f>
         <v>27450</v>
@@ -5553,8 +6217,10 @@
         <f>11287+17986+5824</f>
         <v>35097</v>
       </c>
-      <c r="AQ43" s="2"/>
-      <c r="AR43" s="2"/>
+      <c r="U43" s="5">
+        <f>8785+15301+5496</f>
+        <v>29582</v>
+      </c>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2"/>
       <c r="AU43" s="2"/>
@@ -5567,20 +6233,33 @@
       <c r="BB43" s="2"/>
       <c r="BC43" s="2"/>
       <c r="BD43" s="2"/>
-      <c r="BH43" s="4"/>
-    </row>
-    <row r="44" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE43" s="2"/>
+      <c r="BF43" s="2"/>
+      <c r="BJ43" s="4"/>
+    </row>
+    <row r="44" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>85</v>
       </c>
+      <c r="O44" s="5">
+        <v>3847</v>
+      </c>
+      <c r="P44" s="5">
+        <v>2996</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>2843</v>
+      </c>
+      <c r="R44" s="5"/>
       <c r="S44" s="5">
         <v>3323</v>
       </c>
       <c r="T44" s="5">
         <v>3131</v>
       </c>
-      <c r="AQ44" s="2"/>
-      <c r="AR44" s="2"/>
+      <c r="U44" s="5">
+        <v>3121</v>
+      </c>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2"/>
       <c r="AU44" s="2"/>
@@ -5593,20 +6272,33 @@
       <c r="BB44" s="2"/>
       <c r="BC44" s="2"/>
       <c r="BD44" s="2"/>
-      <c r="BH44" s="4"/>
-    </row>
-    <row r="45" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE44" s="2"/>
+      <c r="BF44" s="2"/>
+      <c r="BJ44" s="4"/>
+    </row>
+    <row r="45" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>86</v>
       </c>
+      <c r="O45" s="5">
+        <v>12993</v>
+      </c>
+      <c r="P45" s="5">
+        <v>11984</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>11466</v>
+      </c>
+      <c r="R45" s="5"/>
       <c r="S45" s="5">
         <v>11494</v>
       </c>
       <c r="T45" s="5">
         <v>11244</v>
       </c>
-      <c r="AQ45" s="2"/>
-      <c r="AR45" s="2"/>
+      <c r="U45" s="5">
+        <v>12062</v>
+      </c>
       <c r="AS45" s="2"/>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2"/>
@@ -5619,20 +6311,33 @@
       <c r="BB45" s="2"/>
       <c r="BC45" s="2"/>
       <c r="BD45" s="2"/>
-      <c r="BH45" s="4"/>
-    </row>
-    <row r="46" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE45" s="2"/>
+      <c r="BF45" s="2"/>
+      <c r="BJ45" s="4"/>
+    </row>
+    <row r="46" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>87</v>
       </c>
+      <c r="O46" s="5">
+        <v>3940</v>
+      </c>
+      <c r="P46" s="5">
+        <v>4119</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>4472</v>
+      </c>
+      <c r="R46" s="5"/>
       <c r="S46" s="5">
         <v>6480</v>
       </c>
       <c r="T46" s="5">
         <v>7181</v>
       </c>
-      <c r="AQ46" s="2"/>
-      <c r="AR46" s="2"/>
+      <c r="U46" s="5">
+        <v>6868</v>
+      </c>
       <c r="AS46" s="2"/>
       <c r="AT46" s="2"/>
       <c r="AU46" s="2"/>
@@ -5645,20 +6350,33 @@
       <c r="BB46" s="2"/>
       <c r="BC46" s="2"/>
       <c r="BD46" s="2"/>
-      <c r="BH46" s="4"/>
-    </row>
-    <row r="47" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE46" s="2"/>
+      <c r="BF46" s="2"/>
+      <c r="BJ46" s="4"/>
+    </row>
+    <row r="47" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>88</v>
       </c>
+      <c r="O47" s="5">
+        <v>85734</v>
+      </c>
+      <c r="P47" s="5">
+        <v>90945</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>93352</v>
+      </c>
+      <c r="R47" s="5"/>
       <c r="S47" s="5">
         <v>99924</v>
       </c>
       <c r="T47" s="5">
         <v>103398</v>
       </c>
-      <c r="AQ47" s="2"/>
-      <c r="AR47" s="2"/>
+      <c r="U47" s="5">
+        <v>104248</v>
+      </c>
       <c r="AS47" s="2"/>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2"/>
@@ -5671,12 +6389,27 @@
       <c r="BB47" s="2"/>
       <c r="BC47" s="2"/>
       <c r="BD47" s="2"/>
-      <c r="BH47" s="4"/>
-    </row>
-    <row r="48" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE47" s="2"/>
+      <c r="BF47" s="2"/>
+      <c r="BJ47" s="4"/>
+    </row>
+    <row r="48" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>89</v>
       </c>
+      <c r="O48" s="5">
+        <f>27591+5567</f>
+        <v>33158</v>
+      </c>
+      <c r="P48" s="5">
+        <f>27591+5173</f>
+        <v>32764</v>
+      </c>
+      <c r="Q48" s="5">
+        <f>27591+4970</f>
+        <v>32561</v>
+      </c>
+      <c r="R48" s="5"/>
       <c r="S48" s="5">
         <f>27440+4675</f>
         <v>32115</v>
@@ -5685,8 +6418,10 @@
         <f>27442+4383</f>
         <v>31825</v>
       </c>
-      <c r="AQ48" s="2"/>
-      <c r="AR48" s="2"/>
+      <c r="U48" s="5">
+        <f>24680+3975</f>
+        <v>28655</v>
+      </c>
       <c r="AS48" s="2"/>
       <c r="AT48" s="2"/>
       <c r="AU48" s="2"/>
@@ -5699,20 +6434,33 @@
       <c r="BB48" s="2"/>
       <c r="BC48" s="2"/>
       <c r="BD48" s="2"/>
-      <c r="BH48" s="4"/>
-    </row>
-    <row r="49" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE48" s="2"/>
+      <c r="BF48" s="2"/>
+      <c r="BJ48" s="4"/>
+    </row>
+    <row r="49" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>90</v>
       </c>
+      <c r="O49" s="5">
+        <v>12068</v>
+      </c>
+      <c r="P49" s="5">
+        <v>12671</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>13413</v>
+      </c>
+      <c r="R49" s="5"/>
       <c r="S49" s="5">
         <v>11947</v>
       </c>
       <c r="T49" s="5">
         <v>14329</v>
       </c>
-      <c r="AQ49" s="2"/>
-      <c r="AR49" s="2"/>
+      <c r="U49" s="5">
+        <v>9006</v>
+      </c>
       <c r="AS49" s="2"/>
       <c r="AT49" s="2"/>
       <c r="AU49" s="2"/>
@@ -5725,12 +6473,27 @@
       <c r="BB49" s="2"/>
       <c r="BC49" s="2"/>
       <c r="BD49" s="2"/>
-      <c r="BH49" s="4"/>
-    </row>
-    <row r="50" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE49" s="2"/>
+      <c r="BF49" s="2"/>
+      <c r="BJ49" s="4"/>
+    </row>
+    <row r="50" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>91</v>
       </c>
+      <c r="O50" s="5">
+        <f>SUM(O43:O49)</f>
+        <v>185303</v>
+      </c>
+      <c r="P50" s="5">
+        <f>SUM(P43:P49)</f>
+        <v>185629</v>
+      </c>
+      <c r="Q50" s="5">
+        <f>SUM(Q43:Q49)</f>
+        <v>188837</v>
+      </c>
+      <c r="R50" s="5"/>
       <c r="S50" s="5">
         <f>SUM(S43:S49)</f>
         <v>192733</v>
@@ -5739,8 +6502,10 @@
         <f>SUM(T43:T49)</f>
         <v>206205</v>
       </c>
-      <c r="AQ50" s="2"/>
-      <c r="AR50" s="2"/>
+      <c r="U50" s="5">
+        <f>SUM(U43:U49)</f>
+        <v>193542</v>
+      </c>
       <c r="AS50" s="2"/>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2"/>
@@ -5753,11 +6518,11 @@
       <c r="BB50" s="2"/>
       <c r="BC50" s="2"/>
       <c r="BD50" s="2"/>
-      <c r="BH50" s="4"/>
-    </row>
-    <row r="51" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="AQ51" s="2"/>
-      <c r="AR51" s="2"/>
+      <c r="BE50" s="2"/>
+      <c r="BF50" s="2"/>
+      <c r="BJ50" s="4"/>
+    </row>
+    <row r="51" spans="2:62" x14ac:dyDescent="0.2">
       <c r="AS51" s="2"/>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2"/>
@@ -5770,12 +6535,27 @@
       <c r="BB51" s="2"/>
       <c r="BC51" s="2"/>
       <c r="BD51" s="2"/>
-      <c r="BH51" s="4"/>
-    </row>
-    <row r="52" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE51" s="2"/>
+      <c r="BF51" s="2"/>
+      <c r="BJ51" s="4"/>
+    </row>
+    <row r="52" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>4</v>
       </c>
+      <c r="O52" s="5">
+        <f>1437+48836</f>
+        <v>50273</v>
+      </c>
+      <c r="P52" s="5">
+        <f>46335+2711</f>
+        <v>49046</v>
+      </c>
+      <c r="Q52" s="5">
+        <f>2288+46591</f>
+        <v>48879</v>
+      </c>
+      <c r="R52" s="5"/>
       <c r="S52" s="5">
         <f>4581+47869</f>
         <v>52450</v>
@@ -5784,8 +6564,10 @@
         <f>4695+48334</f>
         <v>53029</v>
       </c>
-      <c r="AQ52" s="2"/>
-      <c r="AR52" s="2"/>
+      <c r="U52" s="5">
+        <f>3765+46471</f>
+        <v>50236</v>
+      </c>
       <c r="AS52" s="2"/>
       <c r="AT52" s="2"/>
       <c r="AU52" s="2"/>
@@ -5798,20 +6580,33 @@
       <c r="BB52" s="2"/>
       <c r="BC52" s="2"/>
       <c r="BD52" s="2"/>
-      <c r="BH52" s="4"/>
-    </row>
-    <row r="53" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE52" s="2"/>
+      <c r="BF52" s="2"/>
+      <c r="BJ52" s="4"/>
+    </row>
+    <row r="53" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>94</v>
       </c>
+      <c r="O53" s="5">
+        <v>8083</v>
+      </c>
+      <c r="P53" s="5">
+        <v>8757</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>8669</v>
+      </c>
+      <c r="R53" s="5"/>
       <c r="S53" s="5">
         <v>8559</v>
       </c>
       <c r="T53" s="5">
         <v>9618</v>
       </c>
-      <c r="AQ53" s="2"/>
-      <c r="AR53" s="2"/>
+      <c r="U53" s="5">
+        <v>11074</v>
+      </c>
       <c r="AS53" s="2"/>
       <c r="AT53" s="2"/>
       <c r="AU53" s="2"/>
@@ -5824,20 +6619,33 @@
       <c r="BB53" s="2"/>
       <c r="BC53" s="2"/>
       <c r="BD53" s="2"/>
-      <c r="BH53" s="4"/>
-    </row>
-    <row r="54" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE53" s="2"/>
+      <c r="BF53" s="2"/>
+      <c r="BJ53" s="4"/>
+    </row>
+    <row r="54" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>95</v>
       </c>
+      <c r="O54" s="5">
+        <v>2497</v>
+      </c>
+      <c r="P54" s="5">
+        <v>2887</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>3115</v>
+      </c>
+      <c r="R54" s="5"/>
       <c r="S54" s="5">
         <v>2506</v>
       </c>
       <c r="T54" s="5">
         <v>2651</v>
       </c>
-      <c r="AQ54" s="2"/>
-      <c r="AR54" s="2"/>
+      <c r="U54" s="5">
+        <v>5015</v>
+      </c>
       <c r="AS54" s="2"/>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2"/>
@@ -5850,20 +6658,34 @@
       <c r="BB54" s="2"/>
       <c r="BC54" s="2"/>
       <c r="BD54" s="2"/>
-      <c r="BH54" s="4"/>
-    </row>
-    <row r="55" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE54" s="2"/>
+      <c r="BF54" s="2"/>
+      <c r="BJ54" s="4"/>
+    </row>
+    <row r="55" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>33</v>
       </c>
+      <c r="O55" s="5">
+        <f>4046+3831</f>
+        <v>7877</v>
+      </c>
+      <c r="P55" s="5">
+        <v>2169</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>2112</v>
+      </c>
+      <c r="R55" s="5"/>
       <c r="S55" s="5">
         <v>346</v>
       </c>
       <c r="T55" s="5">
         <v>1856</v>
       </c>
-      <c r="AQ55" s="2"/>
-      <c r="AR55" s="2"/>
+      <c r="U55" s="5">
+        <v>2440</v>
+      </c>
       <c r="AS55" s="2"/>
       <c r="AT55" s="2"/>
       <c r="AU55" s="2"/>
@@ -5876,20 +6698,33 @@
       <c r="BB55" s="2"/>
       <c r="BC55" s="2"/>
       <c r="BD55" s="2"/>
-      <c r="BH55" s="4"/>
-    </row>
-    <row r="56" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE55" s="2"/>
+      <c r="BF55" s="2"/>
+      <c r="BJ55" s="4"/>
+    </row>
+    <row r="56" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>96</v>
       </c>
+      <c r="O56" s="5">
+        <v>11330</v>
+      </c>
+      <c r="P56" s="5">
+        <v>10656</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>12430</v>
+      </c>
+      <c r="R56" s="5"/>
       <c r="S56" s="5">
         <v>11221</v>
       </c>
       <c r="T56" s="5">
         <v>13207</v>
       </c>
-      <c r="AQ56" s="2"/>
-      <c r="AR56" s="2"/>
+      <c r="U56" s="5">
+        <v>12865</v>
+      </c>
       <c r="AS56" s="2"/>
       <c r="AT56" s="2"/>
       <c r="AU56" s="2"/>
@@ -5902,20 +6737,33 @@
       <c r="BB56" s="2"/>
       <c r="BC56" s="2"/>
       <c r="BD56" s="2"/>
-      <c r="BH56" s="4"/>
-    </row>
-    <row r="57" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE56" s="2"/>
+      <c r="BF56" s="2"/>
+      <c r="BJ56" s="4"/>
+    </row>
+    <row r="57" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>97</v>
       </c>
+      <c r="O57" s="5">
+        <v>4840</v>
+      </c>
+      <c r="P57" s="5">
+        <v>7643</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>7946</v>
+      </c>
+      <c r="R57" s="5"/>
       <c r="S57" s="5">
         <v>6895</v>
       </c>
       <c r="T57" s="5">
         <v>5410</v>
       </c>
-      <c r="AQ57" s="2"/>
-      <c r="AR57" s="2"/>
+      <c r="U57" s="5">
+        <v>7048</v>
+      </c>
       <c r="AS57" s="2"/>
       <c r="AT57" s="2"/>
       <c r="AU57" s="2"/>
@@ -5928,20 +6776,33 @@
       <c r="BB57" s="2"/>
       <c r="BC57" s="2"/>
       <c r="BD57" s="2"/>
-      <c r="BH57" s="4"/>
-    </row>
-    <row r="58" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE57" s="2"/>
+      <c r="BF57" s="2"/>
+      <c r="BJ57" s="4"/>
+    </row>
+    <row r="58" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>93</v>
       </c>
+      <c r="O58" s="5">
+        <v>100403</v>
+      </c>
+      <c r="P58" s="5">
+        <v>104471</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>105686</v>
+      </c>
+      <c r="R58" s="5"/>
       <c r="S58" s="5">
         <v>110756</v>
       </c>
       <c r="T58" s="5">
         <v>120434</v>
       </c>
-      <c r="AQ58" s="2"/>
-      <c r="AR58" s="2"/>
+      <c r="U58" s="5">
+        <v>104864</v>
+      </c>
       <c r="AS58" s="2"/>
       <c r="AT58" s="2"/>
       <c r="AU58" s="2"/>
@@ -5954,12 +6815,27 @@
       <c r="BB58" s="2"/>
       <c r="BC58" s="2"/>
       <c r="BD58" s="2"/>
-      <c r="BH58" s="4"/>
-    </row>
-    <row r="59" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="BE58" s="2"/>
+      <c r="BF58" s="2"/>
+      <c r="BJ58" s="4"/>
+    </row>
+    <row r="59" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>92</v>
       </c>
+      <c r="O59" s="5">
+        <f>SUM(O52:O58)</f>
+        <v>185303</v>
+      </c>
+      <c r="P59" s="5">
+        <f>SUM(P52:P58)</f>
+        <v>185629</v>
+      </c>
+      <c r="Q59" s="5">
+        <f>SUM(Q52:Q58)</f>
+        <v>188837</v>
+      </c>
+      <c r="R59" s="5"/>
       <c r="S59" s="5">
         <f>SUM(S52:S58)</f>
         <v>192733</v>
@@ -5968,10 +6844,30 @@
         <f>SUM(T52:T58)</f>
         <v>206205</v>
       </c>
-    </row>
-    <row r="61" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="U59" s="5">
+        <f>SUM(U52:U58)</f>
+        <v>193542</v>
+      </c>
+    </row>
+    <row r="61" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="O61" s="5">
+        <f t="shared" ref="O61:R61" si="121">+O32</f>
+        <v>-1263</v>
+      </c>
+      <c r="P61" s="5">
+        <f t="shared" si="121"/>
+        <v>-592</v>
+      </c>
+      <c r="Q61" s="5">
+        <f t="shared" si="121"/>
+        <v>955</v>
+      </c>
+      <c r="R61" s="5">
+        <f t="shared" si="121"/>
+        <v>1432</v>
       </c>
       <c r="S61" s="5">
         <f>+S32</f>
@@ -5981,82 +6877,97 @@
         <f>+T32</f>
         <v>-941</v>
       </c>
-      <c r="Z61" s="2">
-        <f t="shared" ref="Z61:AG61" si="120">+Z32</f>
+      <c r="U61" s="5">
+        <f>+U32</f>
+        <v>-3305</v>
+      </c>
+      <c r="AB61" s="2">
+        <f t="shared" ref="AB61:AI61" si="122">+AB32</f>
         <v>7705</v>
       </c>
-      <c r="AA61" s="2">
-        <f t="shared" si="120"/>
+      <c r="AC61" s="2">
+        <f t="shared" si="122"/>
         <v>3023</v>
       </c>
-      <c r="AB61" s="2">
-        <f t="shared" si="120"/>
+      <c r="AD61" s="2">
+        <f t="shared" si="122"/>
         <v>5765</v>
       </c>
-      <c r="AC61" s="2">
-        <f t="shared" si="120"/>
+      <c r="AE61" s="2">
+        <f t="shared" si="122"/>
         <v>6782</v>
       </c>
-      <c r="AD61" s="2">
-        <f t="shared" si="120"/>
+      <c r="AF61" s="2">
+        <f t="shared" si="122"/>
         <v>4479</v>
       </c>
-      <c r="AE61" s="2">
-        <f t="shared" si="120"/>
+      <c r="AG61" s="2">
+        <f t="shared" si="122"/>
         <v>10916</v>
       </c>
-      <c r="AF61" s="2">
-        <f t="shared" si="120"/>
+      <c r="AH61" s="2">
+        <f t="shared" si="122"/>
         <v>12706</v>
       </c>
-      <c r="AG61" s="2">
-        <f t="shared" si="120"/>
+      <c r="AI61" s="2">
+        <f t="shared" si="122"/>
         <v>10984</v>
       </c>
-      <c r="AH61" s="2">
-        <f t="shared" ref="AH61:AO61" si="121">+AH32</f>
+      <c r="AJ61" s="2">
+        <f t="shared" ref="AJ61:AQ61" si="123">+AJ32</f>
         <v>9680</v>
       </c>
-      <c r="AI61" s="2">
-        <f t="shared" si="121"/>
+      <c r="AK61" s="2">
+        <f t="shared" si="123"/>
         <v>11882</v>
       </c>
-      <c r="AJ61" s="2">
-        <f t="shared" si="121"/>
+      <c r="AL61" s="2">
+        <f t="shared" si="123"/>
         <v>11724</v>
       </c>
-      <c r="AK61" s="2">
-        <f t="shared" si="121"/>
+      <c r="AM61" s="2">
+        <f t="shared" si="123"/>
         <v>11990</v>
       </c>
-      <c r="AL61" s="2">
-        <f t="shared" si="121"/>
+      <c r="AN61" s="2">
+        <f t="shared" si="123"/>
         <v>18262</v>
       </c>
-      <c r="AM61" s="2">
-        <f t="shared" si="121"/>
+      <c r="AO61" s="2">
+        <f t="shared" si="123"/>
         <v>21106</v>
       </c>
-      <c r="AN61" s="2">
-        <f t="shared" si="121"/>
+      <c r="AP61" s="2">
+        <f t="shared" si="123"/>
         <v>19902</v>
       </c>
-      <c r="AO61" s="2">
-        <f t="shared" si="121"/>
+      <c r="AQ61" s="2">
+        <f t="shared" si="123"/>
         <v>19193</v>
       </c>
-      <c r="AP61" s="2">
-        <f t="shared" ref="AP61:AQ61" si="122">+AP32</f>
+      <c r="AR61" s="2">
+        <f t="shared" ref="AR61:AS61" si="124">+AR32</f>
         <v>19765</v>
       </c>
-      <c r="AQ61" s="2">
-        <f t="shared" si="122"/>
+      <c r="AS61" s="2">
+        <f t="shared" si="124"/>
         <v>3751</v>
       </c>
     </row>
-    <row r="62" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="O62" s="5">
+        <v>-2768</v>
+      </c>
+      <c r="P62" s="5">
+        <f>-1295-O62</f>
+        <v>1473</v>
+      </c>
+      <c r="Q62" s="5">
+        <f>-985-P62-O62</f>
+        <v>310</v>
       </c>
       <c r="S62" s="5">
         <v>-437</v>
@@ -6065,64 +6976,79 @@
         <f>-2091-S62</f>
         <v>-1654</v>
       </c>
-      <c r="Z62" s="2">
+      <c r="U62" s="5">
+        <f>-19080-T62-S62</f>
+        <v>-16989</v>
+      </c>
+      <c r="AB62" s="2">
         <v>8664</v>
       </c>
-      <c r="AA62" s="2">
+      <c r="AC62" s="2">
         <v>5044</v>
       </c>
-      <c r="AB62" s="2">
+      <c r="AD62" s="2">
         <v>6976</v>
       </c>
-      <c r="AC62" s="2">
+      <c r="AE62" s="2">
         <v>5292</v>
       </c>
-      <c r="AD62" s="2">
+      <c r="AF62" s="2">
         <v>4369</v>
       </c>
-      <c r="AE62" s="2">
+      <c r="AG62" s="2">
         <v>11464</v>
       </c>
-      <c r="AF62" s="2">
+      <c r="AH62" s="2">
         <v>12942</v>
       </c>
-      <c r="AG62" s="2">
+      <c r="AI62" s="2">
         <v>11005</v>
       </c>
-      <c r="AH62" s="2">
+      <c r="AJ62" s="2">
         <v>9620</v>
       </c>
-      <c r="AI62" s="2">
+      <c r="AK62" s="2">
         <v>11704</v>
       </c>
-      <c r="AJ62" s="2">
+      <c r="AL62" s="2">
         <v>11420</v>
       </c>
-      <c r="AK62" s="2">
+      <c r="AM62" s="2">
         <v>10316</v>
       </c>
-      <c r="AL62" s="2">
+      <c r="AN62" s="2">
         <v>9601</v>
       </c>
-      <c r="AM62" s="2">
+      <c r="AO62" s="2">
         <v>21053</v>
       </c>
-      <c r="AN62" s="2">
+      <c r="AP62" s="2">
         <v>21048</v>
       </c>
-      <c r="AO62" s="2">
+      <c r="AQ62" s="2">
         <v>20899</v>
       </c>
-      <c r="AP62" s="2">
+      <c r="AR62" s="2">
         <v>19868</v>
       </c>
-      <c r="AQ62" s="2">
+      <c r="AS62" s="2">
         <v>8017</v>
       </c>
     </row>
-    <row r="63" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="O63" s="5">
+        <v>1901</v>
+      </c>
+      <c r="P63" s="5">
+        <f>3733-O63</f>
+        <v>1832</v>
+      </c>
+      <c r="Q63" s="5">
+        <f>5753-P63-O63</f>
+        <v>2020</v>
       </c>
       <c r="S63" s="5">
         <v>2200</v>
@@ -6131,22 +7057,37 @@
         <f>4403-S63</f>
         <v>2203</v>
       </c>
-      <c r="Z63" s="2"/>
-      <c r="AA63" s="2"/>
+      <c r="U63" s="5">
+        <f>7651-T63-S63</f>
+        <v>3248</v>
+      </c>
       <c r="AB63" s="2"/>
-      <c r="AO63" s="2">
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AQ63" s="2">
         <v>10482</v>
       </c>
-      <c r="AP63" s="2">
+      <c r="AR63" s="2">
         <v>9953</v>
       </c>
-      <c r="AQ63" s="2">
+      <c r="AS63" s="2">
         <v>11128</v>
       </c>
     </row>
-    <row r="64" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="O64" s="5">
+        <v>739</v>
+      </c>
+      <c r="P64" s="5">
+        <f>1661-O64</f>
+        <v>922</v>
+      </c>
+      <c r="Q64" s="5">
+        <f>2433-P64-O64</f>
+        <v>772</v>
       </c>
       <c r="S64" s="5">
         <v>1179</v>
@@ -6155,22 +7096,37 @@
         <f>1959-S64</f>
         <v>780</v>
       </c>
-      <c r="Z64" s="2"/>
-      <c r="AA64" s="2"/>
+      <c r="U64" s="5">
+        <f>2759-T64-S64</f>
+        <v>800</v>
+      </c>
       <c r="AB64" s="2"/>
-      <c r="AO64" s="2">
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="2"/>
+      <c r="AQ64" s="2">
         <v>1854</v>
       </c>
-      <c r="AP64" s="2">
+      <c r="AR64" s="2">
         <v>2036</v>
       </c>
-      <c r="AQ64" s="2">
+      <c r="AS64" s="2">
         <v>3128</v>
       </c>
     </row>
-    <row r="65" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="O65" s="5">
+        <v>55</v>
+      </c>
+      <c r="P65" s="5">
+        <f>255-O65</f>
+        <v>200</v>
+      </c>
+      <c r="Q65" s="5">
+        <f>718-P65-O65</f>
+        <v>463</v>
       </c>
       <c r="S65" s="5">
         <v>348</v>
@@ -6179,22 +7135,37 @@
         <f>1291-S65</f>
         <v>943</v>
       </c>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
+      <c r="U65" s="5">
+        <f>3626-T65-S65</f>
+        <v>2335</v>
+      </c>
       <c r="AB65" s="2"/>
-      <c r="AO65" s="2">
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+      <c r="AQ65" s="2">
         <v>198</v>
       </c>
-      <c r="AP65" s="2">
+      <c r="AR65" s="2">
         <v>2626</v>
       </c>
-      <c r="AQ65" s="2">
+      <c r="AS65" s="2">
         <v>1074</v>
       </c>
     </row>
-    <row r="66" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="O66" s="5">
+        <v>465</v>
+      </c>
+      <c r="P66" s="5">
+        <f>909-O66</f>
+        <v>444</v>
+      </c>
+      <c r="Q66" s="5">
+        <f>1336-P66-O66</f>
+        <v>427</v>
       </c>
       <c r="S66" s="5">
         <v>351</v>
@@ -6203,22 +7174,37 @@
         <f>717-S66</f>
         <v>366</v>
       </c>
-      <c r="Z66" s="2"/>
-      <c r="AA66" s="2"/>
+      <c r="U66" s="5">
+        <f>1081-T66-S66</f>
+        <v>364</v>
+      </c>
       <c r="AB66" s="2"/>
-      <c r="AO66" s="2">
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+      <c r="AQ66" s="2">
         <v>1757</v>
       </c>
-      <c r="AP66" s="2">
+      <c r="AR66" s="2">
         <v>1839</v>
       </c>
-      <c r="AQ66" s="2">
+      <c r="AS66" s="2">
         <v>1907</v>
       </c>
     </row>
-    <row r="67" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="O67" s="5">
+        <v>-167</v>
+      </c>
+      <c r="P67" s="5">
+        <f>-146-O67</f>
+        <v>21</v>
+      </c>
+      <c r="Q67" s="5">
+        <f>47-P67-O67</f>
+        <v>193</v>
       </c>
       <c r="S67" s="5">
         <v>-208</v>
@@ -6227,419 +7213,1041 @@
         <f>-84-S67</f>
         <v>124</v>
       </c>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="2"/>
+      <c r="U67" s="5">
+        <f>75-T67-S67</f>
+        <v>159</v>
+      </c>
       <c r="AB67" s="2"/>
-      <c r="AO67" s="2">
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AQ67" s="2">
         <v>-1757</v>
       </c>
-      <c r="AP67" s="2">
+      <c r="AR67" s="2">
         <v>-1458</v>
       </c>
-      <c r="AQ67" s="2">
+      <c r="AS67" s="2">
         <v>-4254</v>
       </c>
     </row>
-    <row r="68" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>151</v>
+      </c>
+      <c r="O68" s="5">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
       </c>
       <c r="S68" s="5">
         <v>0</v>
       </c>
-      <c r="T68" s="3">
+      <c r="T68" s="5">
         <v>0</v>
       </c>
-      <c r="Z68" s="2"/>
-      <c r="AA68" s="2"/>
+      <c r="U68" s="5">
+        <f>6368-T68-S68</f>
+        <v>6368</v>
+      </c>
       <c r="AB68" s="2"/>
-      <c r="AO68" s="2">
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AQ68" s="2"/>
+      <c r="AR68" s="2"/>
+      <c r="AS68" s="2"/>
+    </row>
+    <row r="69" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O69" s="5">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="5">
+        <v>0</v>
+      </c>
+      <c r="T69" s="5">
+        <v>0</v>
+      </c>
+      <c r="U69" s="5">
+        <f>2290-T69-S69</f>
+        <v>2290</v>
+      </c>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+      <c r="AQ69" s="2"/>
+      <c r="AR69" s="2"/>
+      <c r="AS69" s="2"/>
+    </row>
+    <row r="70" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O70" s="5">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="5">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AQ70" s="2">
         <v>-30</v>
       </c>
-      <c r="AP68" s="2">
+      <c r="AR70" s="2">
         <v>0</v>
       </c>
-      <c r="AQ68" s="2">
+      <c r="AS70" s="2">
         <v>-1059</v>
       </c>
     </row>
-    <row r="69" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
+    <row r="71" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S69" s="5">
+      <c r="O71" s="5">
+        <f>286+231-771-1560+1344-1540</f>
+        <v>-2010</v>
+      </c>
+      <c r="P71" s="5">
+        <f>1137+1240-1102-1340-2186-1843-O71</f>
+        <v>-2084</v>
+      </c>
+      <c r="Q71" s="5">
+        <f>1290+1758-1082-1171-2676-574-P71-O71</f>
+        <v>1639</v>
+      </c>
+      <c r="S71" s="5">
         <f>80-366-386-1289-591-2104</f>
         <v>-4656</v>
       </c>
-      <c r="T69" s="5">
-        <f>272-116+184-1309-2174-1983-S69</f>
+      <c r="T71" s="5">
+        <f>272-116+184-1309-2174-1983-S71</f>
         <v>-470</v>
       </c>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
-      <c r="AO69" s="2">
+      <c r="U71" s="5">
+        <f>282-969+566+1384-930+20-T71-S71</f>
+        <v>5479</v>
+      </c>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+      <c r="AQ71" s="2">
         <f>883-687+405+348-181+1620+73</f>
         <v>2461</v>
       </c>
-      <c r="AP69" s="2">
+      <c r="AR71" s="2">
         <f>-2674-2339+1190+515-1583-441-76</f>
         <v>-5408</v>
       </c>
-      <c r="AQ69" s="2">
+      <c r="AS71" s="2">
         <f>5327-2436-29-1533-24-4535-1278</f>
         <v>-4508</v>
       </c>
     </row>
-    <row r="70" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
+    <row r="72" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S70" s="5">
-        <f>SUM(S62:S69)</f>
+      <c r="O72" s="5">
+        <f>SUM(O62:O71)</f>
+        <v>-1785</v>
+      </c>
+      <c r="P72" s="5">
+        <f>SUM(P62:P71)</f>
+        <v>2808</v>
+      </c>
+      <c r="Q72" s="5">
+        <f>SUM(Q62:Q71)</f>
+        <v>5824</v>
+      </c>
+      <c r="S72" s="5">
+        <f>SUM(S62:S71)</f>
         <v>-1223</v>
       </c>
-      <c r="T70" s="5">
-        <f>SUM(T62:T69)</f>
+      <c r="T72" s="5">
+        <f>SUM(T62:T71)</f>
         <v>2292</v>
       </c>
-      <c r="U70" s="5">
-        <f>+T70</f>
-        <v>2292</v>
-      </c>
-      <c r="V70" s="5">
-        <f>+U70</f>
-        <v>2292</v>
-      </c>
-      <c r="Z70" s="2">
-        <v>14851</v>
-      </c>
-      <c r="AA70" s="2">
-        <v>10632</v>
-      </c>
-      <c r="AB70" s="2">
-        <v>12625</v>
-      </c>
-      <c r="AC70" s="2">
-        <v>10926</v>
-      </c>
-      <c r="AD70" s="2">
-        <v>11170</v>
-      </c>
-      <c r="AE70" s="2">
-        <v>16692</v>
-      </c>
-      <c r="AF70" s="2">
-        <v>20963</v>
-      </c>
-      <c r="AG70" s="2">
-        <v>18884</v>
-      </c>
-      <c r="AH70" s="2">
-        <v>20776</v>
-      </c>
-      <c r="AI70" s="2">
-        <v>20418</v>
-      </c>
-      <c r="AJ70" s="2">
-        <v>19017</v>
-      </c>
-      <c r="AK70" s="2">
-        <v>21808</v>
-      </c>
-      <c r="AL70" s="2">
-        <v>22110</v>
-      </c>
-      <c r="AM70" s="2">
-        <v>29432</v>
-      </c>
-      <c r="AN70" s="2">
-        <v>33145</v>
-      </c>
-      <c r="AO70" s="2">
-        <f>SUM(AO62:AO69)</f>
-        <v>35864</v>
-      </c>
-      <c r="AP70" s="2">
-        <f>SUM(AP62:AP69)</f>
-        <v>29456</v>
-      </c>
-      <c r="AQ70" s="2">
-        <f>SUM(AQ62:AQ69)</f>
-        <v>15433</v>
-      </c>
-      <c r="AR70" s="2">
-        <v>11471</v>
-      </c>
-      <c r="AS70" s="2">
-        <f>SUM(S70:V70)</f>
-        <v>5653</v>
-      </c>
-    </row>
-    <row r="71" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="Z71" s="2"/>
-      <c r="AA71" s="2"/>
-      <c r="AB71" s="2"/>
-      <c r="AH71" s="2"/>
-      <c r="AI71" s="2"/>
-      <c r="AJ71" s="2"/>
-    </row>
-    <row r="72" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S72" s="5">
-        <v>-5970</v>
-      </c>
-      <c r="T72" s="5">
-        <f>-11652-S72</f>
-        <v>-5682</v>
-      </c>
       <c r="U72" s="5">
-        <f>+T72</f>
-        <v>-5682</v>
+        <f>SUM(U62:U71)</f>
+        <v>4054</v>
       </c>
       <c r="V72" s="5">
         <f>+U72</f>
+        <v>4054</v>
+      </c>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="AB72" s="2">
+        <v>14851</v>
+      </c>
+      <c r="AC72" s="2">
+        <v>10632</v>
+      </c>
+      <c r="AD72" s="2">
+        <v>12625</v>
+      </c>
+      <c r="AE72" s="2">
+        <v>10926</v>
+      </c>
+      <c r="AF72" s="2">
+        <v>11170</v>
+      </c>
+      <c r="AG72" s="2">
+        <v>16692</v>
+      </c>
+      <c r="AH72" s="2">
+        <v>20963</v>
+      </c>
+      <c r="AI72" s="2">
+        <v>18884</v>
+      </c>
+      <c r="AJ72" s="2">
+        <v>20776</v>
+      </c>
+      <c r="AK72" s="2">
+        <v>20418</v>
+      </c>
+      <c r="AL72" s="2">
+        <v>19017</v>
+      </c>
+      <c r="AM72" s="2">
+        <v>21808</v>
+      </c>
+      <c r="AN72" s="2">
+        <v>22110</v>
+      </c>
+      <c r="AO72" s="2">
+        <v>29432</v>
+      </c>
+      <c r="AP72" s="2">
+        <v>33145</v>
+      </c>
+      <c r="AQ72" s="2">
+        <f>SUM(AQ62:AQ71)</f>
+        <v>35864</v>
+      </c>
+      <c r="AR72" s="2">
+        <f>SUM(AR62:AR71)</f>
+        <v>29456</v>
+      </c>
+      <c r="AS72" s="2">
+        <f>SUM(AS62:AS71)</f>
+        <v>15433</v>
+      </c>
+      <c r="AT72" s="2">
+        <v>11471</v>
+      </c>
+      <c r="AU72" s="2">
+        <f>SUM(S72:V72)</f>
+        <v>9177</v>
+      </c>
+    </row>
+    <row r="73" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
+      <c r="AJ73" s="2"/>
+      <c r="AK73" s="2"/>
+      <c r="AL73" s="2"/>
+    </row>
+    <row r="74" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5">
+        <v>-7413</v>
+      </c>
+      <c r="P74" s="5">
+        <f>-13301-O74</f>
+        <v>-5888</v>
+      </c>
+      <c r="Q74" s="5">
+        <f>-19054-P74-O74</f>
+        <v>-5753</v>
+      </c>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5">
+        <v>-5970</v>
+      </c>
+      <c r="T74" s="5">
+        <f>-11652-S74</f>
         <v>-5682</v>
       </c>
-      <c r="Z72" s="2">
+      <c r="U74" s="5">
+        <f>-18110-T74-S74</f>
+        <v>-6458</v>
+      </c>
+      <c r="V74" s="5">
+        <f>+U74</f>
+        <v>-6458</v>
+      </c>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AB74" s="2">
         <v>5871</v>
       </c>
-      <c r="AA72" s="2">
+      <c r="AC74" s="2">
         <v>5860</v>
       </c>
-      <c r="AB72" s="2">
+      <c r="AD74" s="2">
         <v>5000</v>
       </c>
-      <c r="AC72" s="2">
+      <c r="AE74" s="2">
         <v>5197</v>
       </c>
-      <c r="AD72" s="2">
+      <c r="AF74" s="2">
         <v>4515</v>
       </c>
-      <c r="AE72" s="2">
+      <c r="AG74" s="2">
         <v>5207</v>
       </c>
-      <c r="AF72" s="2">
+      <c r="AH74" s="2">
         <v>5207</v>
       </c>
-      <c r="AG72" s="2">
+      <c r="AI74" s="2">
         <v>11027</v>
       </c>
-      <c r="AH72" s="2">
+      <c r="AJ74" s="2">
         <v>10711</v>
       </c>
-      <c r="AI72" s="2">
+      <c r="AK74" s="2">
         <v>10105</v>
       </c>
-      <c r="AJ72" s="2">
+      <c r="AL74" s="2">
         <v>7326</v>
       </c>
-      <c r="AK72" s="2">
+      <c r="AM74" s="2">
         <v>9625</v>
       </c>
-      <c r="AL72" s="2">
+      <c r="AN74" s="2">
         <v>11778</v>
       </c>
-      <c r="AM72" s="2">
+      <c r="AO74" s="2">
         <v>-15181</v>
       </c>
-      <c r="AN72" s="2">
+      <c r="AP74" s="2">
         <v>-16213</v>
       </c>
-      <c r="AO72" s="2">
+      <c r="AQ74" s="2">
         <v>-14259</v>
       </c>
-      <c r="AP72" s="2">
+      <c r="AR74" s="2">
         <v>-18733</v>
       </c>
-      <c r="AQ72" s="2">
+      <c r="AS74" s="2">
         <v>-24844</v>
       </c>
-      <c r="AR72" s="2">
+      <c r="AT74" s="2">
         <v>-25750</v>
       </c>
-      <c r="AS72" s="2">
-        <f>SUM(S72:V72)</f>
-        <v>-23016</v>
-      </c>
-    </row>
-    <row r="73" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
+      <c r="AU74" s="2">
+        <f>SUM(S74:V74)</f>
+        <v>-24568</v>
+      </c>
+    </row>
+    <row r="75" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5">
+        <f>-16132+14173+116</f>
+        <v>-1843</v>
+      </c>
+      <c r="P75" s="5">
+        <f>-25696+26957+253-O75</f>
+        <v>3357</v>
+      </c>
+      <c r="Q75" s="5">
+        <f>-37287+36725+375-P75-O75</f>
+        <v>-1701</v>
+      </c>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+    </row>
+    <row r="76" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5">
+        <v>735</v>
+      </c>
+      <c r="P76" s="5">
+        <f>458-O76</f>
+        <v>-277</v>
+      </c>
+      <c r="Q76" s="5">
+        <f>518-P76-O76</f>
+        <v>60</v>
+      </c>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+    </row>
+    <row r="77" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5">
+        <f>SUM(O74:O76)</f>
+        <v>-8521</v>
+      </c>
+      <c r="P77" s="5">
+        <f>SUM(P74:P76)</f>
+        <v>-2808</v>
+      </c>
+      <c r="Q77" s="5">
+        <f>SUM(Q74:Q76)</f>
+        <v>-7394</v>
+      </c>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+    </row>
+    <row r="78" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B78" s="2"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="2"/>
+      <c r="AH78" s="2"/>
+      <c r="AI78" s="2"/>
+      <c r="AJ78" s="2"/>
+      <c r="AK78" s="2"/>
+      <c r="AL78" s="2"/>
+      <c r="AM78" s="2"/>
+      <c r="AN78" s="2"/>
+      <c r="AO78" s="2"/>
+      <c r="AP78" s="2"/>
+      <c r="AQ78" s="2"/>
+      <c r="AR78" s="2"/>
+      <c r="AS78" s="2"/>
+      <c r="AT78" s="2"/>
+      <c r="AU78" s="2"/>
+    </row>
+    <row r="79" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5">
+        <f>-2930-15+10968</f>
+        <v>8023</v>
+      </c>
+      <c r="P79" s="5">
+        <f>-3944-96+10968-O79</f>
+        <v>-1095</v>
+      </c>
+      <c r="Q79" s="5">
+        <f>-3944-96+11391-423-P79-O79</f>
+        <v>0</v>
+      </c>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+    </row>
+    <row r="80" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5">
+        <v>449</v>
+      </c>
+      <c r="P80" s="5">
+        <f>834-O80</f>
+        <v>385</v>
+      </c>
+      <c r="Q80" s="5">
+        <f>1106-P80-O80</f>
+        <v>272</v>
+      </c>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+    </row>
+    <row r="81" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5">
+        <v>0</v>
+      </c>
+      <c r="P81" s="5">
+        <f>1573-O81</f>
+        <v>1573</v>
+      </c>
+      <c r="Q81" s="5">
+        <f>2423-P81-O81</f>
+        <v>850</v>
+      </c>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+    </row>
+    <row r="82" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5">
+        <v>659</v>
+      </c>
+      <c r="P82" s="5">
+        <f>0-O82</f>
+        <v>-659</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>0</v>
+      </c>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+    </row>
+    <row r="83" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5">
+        <v>-1512</v>
+      </c>
+      <c r="P83" s="5">
+        <f>-2036-O83</f>
+        <v>-524</v>
+      </c>
+      <c r="Q83" s="5">
+        <f>-2561-P83-O83</f>
+        <v>-525</v>
+      </c>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+    </row>
+    <row r="84" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5">
+        <v>-225</v>
+      </c>
+      <c r="P84" s="5">
+        <f>212-O84</f>
+        <v>437</v>
+      </c>
+      <c r="Q84" s="5">
+        <f>457-P84-O84</f>
+        <v>245</v>
+      </c>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+    </row>
+    <row r="85" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5">
+        <f>SUM(O79:O84)</f>
+        <v>7394</v>
+      </c>
+      <c r="P85" s="5">
+        <f>SUM(P79:P84)</f>
+        <v>117</v>
+      </c>
+      <c r="Q85" s="5">
+        <f>SUM(Q79:Q84)</f>
+        <v>842</v>
+      </c>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+    </row>
+    <row r="86" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O86" s="5">
+        <f>+O85+O77+O72</f>
+        <v>-2912</v>
+      </c>
+      <c r="P86" s="5">
+        <f>+P85+P77+P72</f>
+        <v>117</v>
+      </c>
+      <c r="Q86" s="5">
+        <f>+Q85+Q77+Q72</f>
+        <v>-728</v>
+      </c>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="2"/>
+      <c r="AE86" s="2"/>
+      <c r="AF86" s="2"/>
+      <c r="AG86" s="2"/>
+      <c r="AH86" s="2"/>
+      <c r="AI86" s="2"/>
+      <c r="AJ86" s="2"/>
+      <c r="AK86" s="2"/>
+      <c r="AL86" s="2"/>
+      <c r="AM86" s="2"/>
+      <c r="AN86" s="2"/>
+      <c r="AO86" s="2"/>
+      <c r="AP86" s="2"/>
+      <c r="AQ86" s="2"/>
+      <c r="AR86" s="2"/>
+      <c r="AS86" s="2"/>
+      <c r="AT86" s="2"/>
+      <c r="AU86" s="2"/>
+    </row>
+    <row r="87" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B87" s="2"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
+      <c r="AE87" s="2"/>
+      <c r="AF87" s="2"/>
+      <c r="AG87" s="2"/>
+      <c r="AH87" s="2"/>
+      <c r="AI87" s="2"/>
+      <c r="AJ87" s="2"/>
+      <c r="AK87" s="2"/>
+      <c r="AL87" s="2"/>
+      <c r="AM87" s="2"/>
+      <c r="AN87" s="2"/>
+      <c r="AO87" s="2"/>
+      <c r="AP87" s="2"/>
+      <c r="AQ87" s="2"/>
+      <c r="AR87" s="2"/>
+      <c r="AS87" s="2"/>
+      <c r="AT87" s="2"/>
+      <c r="AU87" s="2"/>
+    </row>
+    <row r="88" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S73" s="5">
-        <f>+S72+S70</f>
+      <c r="O88" s="5">
+        <f>+O74+O72</f>
+        <v>-9198</v>
+      </c>
+      <c r="P88" s="5">
+        <f>+P74+P72</f>
+        <v>-3080</v>
+      </c>
+      <c r="Q88" s="5">
+        <f>+Q74+Q72</f>
+        <v>71</v>
+      </c>
+      <c r="S88" s="5">
+        <f>+S74+S72</f>
         <v>-7193</v>
       </c>
-      <c r="T73" s="5">
-        <f>+T72+T70</f>
+      <c r="T88" s="5">
+        <f>+T74+T72</f>
         <v>-3390</v>
       </c>
-      <c r="U73" s="5">
-        <f>+T73</f>
-        <v>-3390</v>
-      </c>
-      <c r="V73" s="5">
-        <f>+U73</f>
-        <v>-3390</v>
-      </c>
-      <c r="Z73" s="6">
-        <f t="shared" ref="Z73:AL73" si="123">+Z70-Z72</f>
+      <c r="U88" s="5">
+        <f>+U74+U72</f>
+        <v>-2404</v>
+      </c>
+      <c r="V88" s="5">
+        <f>+U88</f>
+        <v>-2404</v>
+      </c>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="AB88" s="6">
+        <f>+AB72-AB74</f>
         <v>8980</v>
       </c>
-      <c r="AA73" s="6">
-        <f t="shared" si="123"/>
+      <c r="AC88" s="6">
+        <f>+AC72-AC74</f>
         <v>4772</v>
       </c>
-      <c r="AB73" s="6">
-        <f t="shared" si="123"/>
+      <c r="AD88" s="6">
+        <f>+AD72-AD74</f>
         <v>7625</v>
       </c>
-      <c r="AC73" s="6">
-        <f t="shared" si="123"/>
+      <c r="AE88" s="6">
+        <f>+AE72-AE74</f>
         <v>5729</v>
       </c>
-      <c r="AD73" s="6">
-        <f t="shared" si="123"/>
+      <c r="AF88" s="6">
+        <f>+AF72-AF74</f>
         <v>6655</v>
       </c>
-      <c r="AE73" s="6">
-        <f t="shared" si="123"/>
+      <c r="AG88" s="6">
+        <f>+AG72-AG74</f>
         <v>11485</v>
       </c>
-      <c r="AF73" s="6">
-        <f t="shared" si="123"/>
+      <c r="AH88" s="6">
+        <f>+AH72-AH74</f>
         <v>15756</v>
       </c>
-      <c r="AG73" s="6">
-        <f t="shared" si="123"/>
+      <c r="AI88" s="6">
+        <f>+AI72-AI74</f>
         <v>7857</v>
       </c>
-      <c r="AH73" s="6">
-        <f t="shared" si="123"/>
+      <c r="AJ88" s="6">
+        <f>+AJ72-AJ74</f>
         <v>10065</v>
       </c>
-      <c r="AI73" s="6">
-        <f t="shared" si="123"/>
+      <c r="AK88" s="6">
+        <f>+AK72-AK74</f>
         <v>10313</v>
       </c>
-      <c r="AJ73" s="6">
-        <f t="shared" si="123"/>
+      <c r="AL88" s="6">
+        <f>+AL72-AL74</f>
         <v>11691</v>
       </c>
-      <c r="AK73" s="6">
-        <f t="shared" si="123"/>
+      <c r="AM88" s="6">
+        <f>+AM72-AM74</f>
         <v>12183</v>
       </c>
-      <c r="AL73" s="6">
-        <f t="shared" si="123"/>
+      <c r="AN88" s="6">
+        <f>+AN72-AN74</f>
         <v>10332</v>
       </c>
-      <c r="AM73" s="6">
-        <f>+AM70+AM72</f>
+      <c r="AO88" s="6">
+        <f t="shared" ref="AO88:AU88" si="125">+AO72+AO74</f>
         <v>14251</v>
       </c>
-      <c r="AN73" s="6">
-        <f>+AN70+AN72</f>
+      <c r="AP88" s="6">
+        <f t="shared" si="125"/>
         <v>16932</v>
       </c>
-      <c r="AO73" s="6">
-        <f>+AO70+AO72</f>
+      <c r="AQ88" s="6">
+        <f t="shared" si="125"/>
         <v>21605</v>
       </c>
-      <c r="AP73" s="6">
-        <f>+AP70+AP72</f>
+      <c r="AR88" s="6">
+        <f t="shared" si="125"/>
         <v>10723</v>
       </c>
-      <c r="AQ73" s="6">
-        <f>+AQ70+AQ72</f>
+      <c r="AS88" s="6">
+        <f t="shared" si="125"/>
         <v>-9411</v>
       </c>
-      <c r="AR73" s="6">
-        <f>+AR70+AR72</f>
+      <c r="AT88" s="6">
+        <f t="shared" si="125"/>
         <v>-14279</v>
       </c>
-      <c r="AS73" s="6">
-        <f>+AS70+AS72</f>
-        <v>-17363</v>
-      </c>
-    </row>
-    <row r="74" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B74" s="2" t="s">
+      <c r="AU88" s="6">
+        <f t="shared" si="125"/>
+        <v>-15391</v>
+      </c>
+    </row>
+    <row r="89" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AF74" s="2">
-        <f>+AF32-AF73</f>
+      <c r="AH89" s="2">
+        <f>+AH32-AH88</f>
         <v>-3050</v>
       </c>
-      <c r="AG74" s="2">
-        <f t="shared" ref="AG74:AL74" si="124">+AG32-AG73</f>
+      <c r="AI89" s="2">
+        <f>+AI32-AI88</f>
         <v>3127</v>
       </c>
-      <c r="AH74" s="2">
-        <f t="shared" si="124"/>
+      <c r="AJ89" s="2">
+        <f>+AJ32-AJ88</f>
         <v>-385</v>
       </c>
-      <c r="AI74" s="2">
-        <f t="shared" si="124"/>
+      <c r="AK89" s="2">
+        <f>+AK32-AK88</f>
         <v>1569</v>
       </c>
-      <c r="AJ74" s="2">
-        <f t="shared" si="124"/>
+      <c r="AL89" s="2">
+        <f>+AL32-AL88</f>
         <v>33</v>
       </c>
-      <c r="AK74" s="2">
-        <f t="shared" si="124"/>
+      <c r="AM89" s="2">
+        <f>+AM32-AM88</f>
         <v>-193</v>
       </c>
-      <c r="AL74" s="2">
-        <f t="shared" si="124"/>
+      <c r="AN89" s="2">
+        <f>+AN32-AN88</f>
         <v>7930</v>
       </c>
-      <c r="AM74" s="2">
-        <f t="shared" ref="AM74" si="125">+AM32-AM73</f>
+      <c r="AO89" s="2">
+        <f>+AO32-AO88</f>
         <v>6855</v>
       </c>
-      <c r="AN74" s="2">
-        <f t="shared" ref="AN74" si="126">+AN32-AN73</f>
+      <c r="AP89" s="2">
+        <f>+AP32-AP88</f>
         <v>2970</v>
       </c>
-      <c r="AO74" s="2">
-        <f t="shared" ref="AO74" si="127">+AO32-AO73</f>
+      <c r="AQ89" s="2">
+        <f>+AQ32-AQ88</f>
         <v>-2412</v>
       </c>
-      <c r="AP74" s="2">
-        <f t="shared" ref="AP74" si="128">+AP32-AP73</f>
+      <c r="AR89" s="2">
+        <f>+AR32-AR88</f>
         <v>9042</v>
       </c>
-      <c r="AQ74" s="2">
-        <f t="shared" ref="AQ74" si="129">+AQ32-AQ73</f>
+      <c r="AS89" s="2">
+        <f>+AS32-AS88</f>
         <v>13162</v>
       </c>
-      <c r="AR74" s="2">
-        <f t="shared" ref="AR74:AS74" si="130">+AR32-AR73</f>
+      <c r="AT89" s="2">
+        <f>+AT32-AT88</f>
         <v>14811</v>
       </c>
-      <c r="AS74" s="2">
-        <f t="shared" si="130"/>
-        <v>16692.16</v>
-      </c>
-    </row>
-    <row r="76" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+      <c r="AU89" s="2">
+        <f>+AU32-AU88</f>
+        <v>11365.16</v>
+      </c>
+    </row>
+    <row r="91" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
         <v>84</v>
       </c>
-      <c r="P76" s="5">
+      <c r="P91" s="5">
         <v>126800</v>
       </c>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5">
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5">
         <v>125200</v>
       </c>
-      <c r="T76" s="5">
+      <c r="T91" s="5">
         <v>125300</v>
       </c>
     </row>
@@ -6884,4 +8492,429 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2BD0D8-24FD-4B75-B1E5-024BBD205C90}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="22">
+        <v>12160369</v>
+      </c>
+      <c r="C3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="22">
+        <v>12159813</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="22">
+        <v>12159353</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="22">
+        <v>12158966</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{08A58127-A1CF-4464-858B-B98B2BA8AD68}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5741E709-AF31-4C11-ADE4-79FCB1E77C73}">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D2D6D48C-E369-4CEC-B079-E0240F4CC734}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/INTC.xlsx
+++ b/INTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF4AEA0-130D-4E52-9079-18CABF6D648B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78E955A-A781-45C2-9596-69147B9BF8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19425" yWindow="1425" windowWidth="19080" windowHeight="17160" activeTab="3" xr2:uid="{2060C4C8-3805-4E23-AE6B-F728D7027876}"/>
+    <workbookView xWindow="-27120" yWindow="1260" windowWidth="25845" windowHeight="19815" activeTab="4" xr2:uid="{2060C4C8-3805-4E23-AE6B-F728D7027876}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="259">
   <si>
     <t>Price</t>
   </si>
@@ -820,6 +820,57 @@
   </si>
   <si>
     <t>Chih-Jen Chang</t>
+  </si>
+  <si>
+    <t>PCIe</t>
+  </si>
+  <si>
+    <t>peripheral component interconnect express</t>
+  </si>
+  <si>
+    <t>Infiniband</t>
+  </si>
+  <si>
+    <t>Omni-Path</t>
+  </si>
+  <si>
+    <t>Kent Lusted</t>
+  </si>
+  <si>
+    <t>Device-to-Device Link Training</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>networking</t>
+  </si>
+  <si>
+    <t>Intelligent Resource Selection for Received Content</t>
+  </si>
+  <si>
+    <t>Francesc Guim Bernat</t>
+  </si>
+  <si>
+    <t>Issued</t>
+  </si>
+  <si>
+    <t>Gate-all-around integrated circuit structures having source or drain structures with epitaxial nubs</t>
+  </si>
+  <si>
+    <t>Cory Bomberger</t>
+  </si>
+  <si>
+    <t>gate-all-around</t>
+  </si>
+  <si>
+    <t>transistor</t>
+  </si>
+  <si>
+    <t>transistor, multigate</t>
+  </si>
+  <si>
+    <t>transistor, trigate</t>
   </si>
 </sst>
 </file>
@@ -829,7 +880,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -865,12 +916,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -893,7 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -935,6 +980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4784,315 +4830,315 @@
         <v>21030.448443108315</v>
       </c>
       <c r="BG32" s="2">
-        <f>+BF32*(1+$BJ$37)</f>
+        <f t="shared" ref="BG32:CL32" si="80">+BF32*(1+$BJ$37)</f>
         <v>21240.752927539397</v>
       </c>
       <c r="BH32" s="2">
-        <f>+BG32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>21453.160456814792</v>
       </c>
       <c r="BI32" s="2">
-        <f>+BH32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>21667.692061382939</v>
       </c>
       <c r="BJ32" s="2">
-        <f>+BI32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>21884.368981996769</v>
       </c>
       <c r="BK32" s="2">
-        <f>+BJ32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>22103.212671816738</v>
       </c>
       <c r="BL32" s="2">
-        <f>+BK32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>22324.244798534906</v>
       </c>
       <c r="BM32" s="2">
-        <f>+BL32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>22547.487246520257</v>
       </c>
       <c r="BN32" s="2">
-        <f>+BM32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>22772.962118985459</v>
       </c>
       <c r="BO32" s="2">
-        <f>+BN32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>23000.691740175313</v>
       </c>
       <c r="BP32" s="2">
-        <f>+BO32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>23230.698657577064</v>
       </c>
       <c r="BQ32" s="2">
-        <f>+BP32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>23463.005644152836</v>
       </c>
       <c r="BR32" s="2">
-        <f>+BQ32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>23697.635700594365</v>
       </c>
       <c r="BS32" s="2">
-        <f>+BR32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>23934.612057600309</v>
       </c>
       <c r="BT32" s="2">
-        <f>+BS32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>24173.958178176312</v>
       </c>
       <c r="BU32" s="2">
-        <f>+BT32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>24415.697759958075</v>
       </c>
       <c r="BV32" s="2">
-        <f>+BU32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>24659.854737557656</v>
       </c>
       <c r="BW32" s="2">
-        <f>+BV32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>24906.453284933232</v>
       </c>
       <c r="BX32" s="2">
-        <f>+BW32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>25155.517817782566</v>
       </c>
       <c r="BY32" s="2">
-        <f>+BX32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>25407.072995960392</v>
       </c>
       <c r="BZ32" s="2">
-        <f>+BY32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>25661.143725919996</v>
       </c>
       <c r="CA32" s="2">
-        <f>+BZ32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>25917.755163179198</v>
       </c>
       <c r="CB32" s="2">
-        <f>+CA32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>26176.932714810991</v>
       </c>
       <c r="CC32" s="2">
-        <f>+CB32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>26438.702041959103</v>
       </c>
       <c r="CD32" s="2">
-        <f>+CC32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>26703.089062378695</v>
       </c>
       <c r="CE32" s="2">
-        <f>+CD32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>26970.119953002482</v>
       </c>
       <c r="CF32" s="2">
-        <f>+CE32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>27239.821152532506</v>
       </c>
       <c r="CG32" s="2">
-        <f>+CF32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>27512.21936405783</v>
       </c>
       <c r="CH32" s="2">
-        <f>+CG32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>27787.341557698408</v>
       </c>
       <c r="CI32" s="2">
-        <f>+CH32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>28065.214973275393</v>
       </c>
       <c r="CJ32" s="2">
-        <f>+CI32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>28345.867123008149</v>
       </c>
       <c r="CK32" s="2">
-        <f>+CJ32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>28629.32579423823</v>
       </c>
       <c r="CL32" s="2">
-        <f>+CK32*(1+$BJ$37)</f>
+        <f t="shared" si="80"/>
         <v>28915.619052180613</v>
       </c>
       <c r="CM32" s="2">
-        <f>+CL32*(1+$BJ$37)</f>
+        <f t="shared" ref="CM32:DR32" si="81">+CL32*(1+$BJ$37)</f>
         <v>29204.775242702421</v>
       </c>
       <c r="CN32" s="2">
-        <f>+CM32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>29496.822995129445</v>
       </c>
       <c r="CO32" s="2">
-        <f>+CN32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>29791.791225080739</v>
       </c>
       <c r="CP32" s="2">
-        <f>+CO32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>30089.709137331545</v>
       </c>
       <c r="CQ32" s="2">
-        <f>+CP32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>30390.606228704863</v>
       </c>
       <c r="CR32" s="2">
-        <f>+CQ32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>30694.512290991912</v>
       </c>
       <c r="CS32" s="2">
-        <f>+CR32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>31001.45741390183</v>
       </c>
       <c r="CT32" s="2">
-        <f>+CS32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>31311.471988040848</v>
       </c>
       <c r="CU32" s="2">
-        <f>+CT32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>31624.586707921258</v>
       </c>
       <c r="CV32" s="2">
-        <f>+CU32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>31940.83257500047</v>
       </c>
       <c r="CW32" s="2">
-        <f>+CV32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>32260.240900750476</v>
       </c>
       <c r="CX32" s="2">
-        <f>+CW32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>32582.84330975798</v>
       </c>
       <c r="CY32" s="2">
-        <f>+CX32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>32908.671742855557</v>
       </c>
       <c r="CZ32" s="2">
-        <f>+CY32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>33237.758460284109</v>
       </c>
       <c r="DA32" s="2">
-        <f>+CZ32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>33570.136044886953</v>
       </c>
       <c r="DB32" s="2">
-        <f>+DA32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>33905.83740533582</v>
       </c>
       <c r="DC32" s="2">
-        <f>+DB32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>34244.895779389182</v>
       </c>
       <c r="DD32" s="2">
-        <f>+DC32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>34587.344737183077</v>
       </c>
       <c r="DE32" s="2">
-        <f>+DD32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>34933.218184554906</v>
       </c>
       <c r="DF32" s="2">
-        <f>+DE32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>35282.550366400457</v>
       </c>
       <c r="DG32" s="2">
-        <f>+DF32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>35635.375870064461</v>
       </c>
       <c r="DH32" s="2">
-        <f>+DG32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>35991.729628765104</v>
       </c>
       <c r="DI32" s="2">
-        <f>+DH32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>36351.646925052759</v>
       </c>
       <c r="DJ32" s="2">
-        <f>+DI32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>36715.163394303287</v>
       </c>
       <c r="DK32" s="2">
-        <f>+DJ32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>37082.315028246318</v>
       </c>
       <c r="DL32" s="2">
-        <f>+DK32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>37453.138178528781</v>
       </c>
       <c r="DM32" s="2">
-        <f>+DL32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>37827.669560314069</v>
       </c>
       <c r="DN32" s="2">
-        <f>+DM32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>38205.94625591721</v>
       </c>
       <c r="DO32" s="2">
-        <f>+DN32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>38588.005718476379</v>
       </c>
       <c r="DP32" s="2">
-        <f>+DO32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>38973.88577566114</v>
       </c>
       <c r="DQ32" s="2">
-        <f>+DP32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>39363.624633417749</v>
       </c>
       <c r="DR32" s="2">
-        <f>+DQ32*(1+$BJ$37)</f>
+        <f t="shared" si="81"/>
         <v>39757.260879751928</v>
       </c>
       <c r="DS32" s="2">
-        <f>+DR32*(1+$BJ$37)</f>
+        <f t="shared" ref="DS32:EF32" si="82">+DR32*(1+$BJ$37)</f>
         <v>40154.833488549448</v>
       </c>
       <c r="DT32" s="2">
-        <f>+DS32*(1+$BJ$37)</f>
+        <f t="shared" si="82"/>
         <v>40556.381823434946</v>
       </c>
       <c r="DU32" s="2">
-        <f>+DT32*(1+$BJ$37)</f>
+        <f t="shared" si="82"/>
         <v>40961.945641669292</v>
       </c>
       <c r="DV32" s="2">
-        <f>+DU32*(1+$BJ$37)</f>
+        <f t="shared" si="82"/>
         <v>41371.565098085986</v>
       </c>
       <c r="DW32" s="2">
-        <f>+DV32*(1+$BJ$37)</f>
+        <f t="shared" si="82"/>
         <v>41785.280749066849</v>
       </c>
       <c r="DX32" s="2">
-        <f>+DW32*(1+$BJ$37)</f>
+        <f t="shared" si="82"/>
         <v>42203.133556557521</v>
       </c>
       <c r="DY32" s="2">
-        <f>+DX32*(1+$BJ$37)</f>
+        <f t="shared" si="82"/>
         <v>42625.164892123095</v>
       </c>
       <c r="DZ32" s="2">
-        <f>+DY32*(1+$BJ$37)</f>
+        <f t="shared" si="82"/>
         <v>43051.416541044324</v>
       </c>
       <c r="EA32" s="2">
-        <f>+DZ32*(1+$BJ$37)</f>
+        <f t="shared" si="82"/>
         <v>43481.930706454768</v>
       </c>
       <c r="EB32" s="2">
-        <f>+EA32*(1+$BJ$37)</f>
+        <f t="shared" si="82"/>
         <v>43916.750013519319</v>
       </c>
       <c r="EC32" s="2">
-        <f>+EB32*(1+$BJ$37)</f>
+        <f t="shared" si="82"/>
         <v>44355.917513654509</v>
       </c>
       <c r="ED32" s="2">
-        <f>+EC32*(1+$BJ$37)</f>
+        <f t="shared" si="82"/>
         <v>44799.476688791052</v>
       </c>
       <c r="EE32" s="2">
-        <f>+ED32*(1+$BJ$37)</f>
+        <f t="shared" si="82"/>
         <v>45247.471455678962</v>
       </c>
       <c r="EF32" s="2">
-        <f>+EE32*(1+$BJ$37)</f>
+        <f t="shared" si="82"/>
         <v>45699.946170235751</v>
       </c>
     </row>
@@ -5101,83 +5147,83 @@
         <v>35</v>
       </c>
       <c r="G33" s="16">
-        <f t="shared" ref="G33:N33" si="80">+G32/G34</f>
+        <f t="shared" ref="G33:N33" si="83">+G32/G34</f>
         <v>1.27001953125</v>
       </c>
       <c r="H33" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1.2517140058765917</v>
       </c>
       <c r="I33" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1.2623592755751345</v>
       </c>
       <c r="J33" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1.0483516483516484</v>
       </c>
       <c r="K33" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.62795227660092523</v>
       </c>
       <c r="L33" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>-0.17853658536585365</v>
       </c>
       <c r="M33" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.152</v>
       </c>
       <c r="N33" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>-0.12581659811275103</v>
       </c>
       <c r="O33" s="16">
-        <f t="shared" ref="O33:Z33" si="81">+O32/O34</f>
+        <f t="shared" ref="O33:Z33" si="84">+O32/O34</f>
         <v>-0.3040442946557535</v>
       </c>
       <c r="P33" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>-0.14108674928503337</v>
       </c>
       <c r="Q33" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.22582170725939937</v>
       </c>
       <c r="R33" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.33615023474178402</v>
       </c>
       <c r="S33" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>-0.13578500707213578</v>
       </c>
       <c r="T33" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>-0.22052964612139678</v>
       </c>
       <c r="U33" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>-0.77003727865796834</v>
       </c>
       <c r="V33" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.18549860205032614</v>
       </c>
       <c r="W33" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>1.0672506989748369</v>
       </c>
       <c r="X33" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>1.0763932898415658</v>
       </c>
       <c r="Y33" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>1.1142218080149116</v>
       </c>
       <c r="Z33" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>1.1629878844361605</v>
       </c>
       <c r="AB33" s="1">
@@ -5197,19 +5243,19 @@
         <v>1.1798886569241476</v>
       </c>
       <c r="AF33" s="1">
-        <f t="shared" ref="AF33" si="82">+AF32/AF34</f>
+        <f t="shared" ref="AF33" si="85">+AF32/AF34</f>
         <v>0.79344552701505755</v>
       </c>
       <c r="AG33" s="1">
-        <f t="shared" ref="AG33" si="83">+AG32/AG34</f>
+        <f t="shared" ref="AG33" si="86">+AG32/AG34</f>
         <v>1.916432584269663</v>
       </c>
       <c r="AH33" s="1">
-        <f t="shared" ref="AH33" si="84">+AH32/AH34</f>
+        <f t="shared" ref="AH33" si="87">+AH32/AH34</f>
         <v>2.3481796340787287</v>
       </c>
       <c r="AI33" s="1">
-        <f t="shared" ref="AI33" si="85">+AI32/AI34</f>
+        <f t="shared" ref="AI33" si="88">+AI32/AI34</f>
         <v>2.1286821705426355</v>
       </c>
       <c r="AJ33" s="1">
@@ -5217,15 +5263,15 @@
         <v>1.8991563664900921</v>
       </c>
       <c r="AK33" s="1">
-        <f t="shared" ref="AK33:AM33" si="86">+AK32/AK34</f>
+        <f t="shared" ref="AK33:AM33" si="89">+AK32/AK34</f>
         <v>2.3500791139240507</v>
       </c>
       <c r="AL33" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>2.3955864323661626</v>
       </c>
       <c r="AM33" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>2.4594871794871795</v>
       </c>
       <c r="AN33" s="1">
@@ -5245,63 +5291,63 @@
         <v>4.5352079395085063</v>
       </c>
       <c r="AR33" s="1">
-        <f t="shared" ref="AR33:AT33" si="87">+AR32/AR34</f>
+        <f t="shared" ref="AR33:AT33" si="90">+AR32/AR34</f>
         <v>4.8325183374083132</v>
       </c>
       <c r="AS33" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.90977443609022557</v>
       </c>
       <c r="AT33" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.12637330007720174</v>
       </c>
       <c r="AU33" s="1">
-        <f t="shared" ref="AU33" si="88">+AU32/AU34</f>
+        <f t="shared" ref="AU33" si="91">+AU32/AU34</f>
         <v>-0.94210261510559878</v>
       </c>
       <c r="AV33" s="1">
-        <f t="shared" ref="AV33" si="89">+AV32/AV34</f>
+        <f t="shared" ref="AV33" si="92">+AV32/AV34</f>
         <v>1.1180970967951791</v>
       </c>
       <c r="AW33" s="1">
-        <f t="shared" ref="AW33" si="90">+AW32/AW34</f>
+        <f t="shared" ref="AW33" si="93">+AW32/AW34</f>
         <v>1.3688669889278655</v>
       </c>
       <c r="AX33" s="1">
-        <f t="shared" ref="AX33" si="91">+AX32/AX34</f>
+        <f t="shared" ref="AX33" si="94">+AX32/AX34</f>
         <v>1.6521404308336363</v>
       </c>
       <c r="AY33" s="1">
-        <f t="shared" ref="AY33" si="92">+AY32/AY34</f>
+        <f t="shared" ref="AY33" si="95">+AY32/AY34</f>
         <v>1.9824670199348795</v>
       </c>
       <c r="AZ33" s="1">
-        <f t="shared" ref="AZ33" si="93">+AZ32/AZ34</f>
+        <f t="shared" ref="AZ33" si="96">+AZ32/AZ34</f>
         <v>2.3319582907459644</v>
       </c>
       <c r="BA33" s="1">
-        <f t="shared" ref="BA33" si="94">+BA32/BA34</f>
+        <f t="shared" ref="BA33" si="97">+BA32/BA34</f>
         <v>2.5616603893168874</v>
       </c>
       <c r="BB33" s="1">
-        <f t="shared" ref="BB33" si="95">+BB32/BB34</f>
+        <f t="shared" ref="BB33" si="98">+BB32/BB34</f>
         <v>3.1113549879405928</v>
       </c>
       <c r="BC33" s="1">
-        <f t="shared" ref="BC33" si="96">+BC32/BC34</f>
+        <f t="shared" ref="BC33" si="99">+BC32/BC34</f>
         <v>3.5456773942944513</v>
       </c>
       <c r="BD33" s="1">
-        <f t="shared" ref="BD33" si="97">+BD32/BD34</f>
+        <f t="shared" ref="BD33" si="100">+BD32/BD34</f>
         <v>4.0308382032672112</v>
       </c>
       <c r="BE33" s="1">
-        <f t="shared" ref="BE33" si="98">+BE32/BE34</f>
+        <f t="shared" ref="BE33" si="101">+BE32/BE34</f>
         <v>4.3667899381882096</v>
       </c>
       <c r="BF33" s="1">
-        <f t="shared" ref="BF33" si="99">+BF32/BF34</f>
+        <f t="shared" ref="BF33" si="102">+BF32/BF34</f>
         <v>4.9214177600440685</v>
       </c>
     </row>
@@ -5437,47 +5483,47 @@
         <v>4273.25</v>
       </c>
       <c r="AV34" s="2">
-        <f t="shared" ref="AV34:BF34" si="100">+AU34</f>
+        <f t="shared" ref="AV34:BF34" si="103">+AU34</f>
         <v>4273.25</v>
       </c>
       <c r="AW34" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>4273.25</v>
       </c>
       <c r="AX34" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>4273.25</v>
       </c>
       <c r="AY34" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>4273.25</v>
       </c>
       <c r="AZ34" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>4273.25</v>
       </c>
       <c r="BA34" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>4273.25</v>
       </c>
       <c r="BB34" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>4273.25</v>
       </c>
       <c r="BC34" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>4273.25</v>
       </c>
       <c r="BD34" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>4273.25</v>
       </c>
       <c r="BE34" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>4273.25</v>
       </c>
       <c r="BF34" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>4273.25</v>
       </c>
     </row>
@@ -5503,15 +5549,15 @@
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="17">
-        <f t="shared" ref="K36:M36" si="101">+K22/G22-1</f>
+        <f t="shared" ref="K36:M36" si="104">+K22/G22-1</f>
         <v>-6.7097036547552502E-2</v>
       </c>
       <c r="L36" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>-0.2195507106107687</v>
       </c>
       <c r="M36" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>-0.20081283868278454</v>
       </c>
       <c r="N36" s="17">
@@ -5519,51 +5565,51 @@
         <v>-0.31595869056897896</v>
       </c>
       <c r="O36" s="17">
-        <f t="shared" ref="O36" si="102">+O22/K22-1</f>
+        <f t="shared" ref="O36" si="105">+O22/K22-1</f>
         <v>-0.36168473818994173</v>
       </c>
       <c r="P36" s="17">
-        <f t="shared" ref="P36" si="103">+P22/L22-1</f>
+        <f t="shared" ref="P36" si="106">+P22/L22-1</f>
         <v>-0.15482018145029697</v>
       </c>
       <c r="Q36" s="17">
-        <f t="shared" ref="Q36" si="104">+Q22/M22-1</f>
+        <f t="shared" ref="Q36" si="107">+Q22/M22-1</f>
         <v>-7.6933107315164895E-2</v>
       </c>
       <c r="R36" s="17">
-        <f t="shared" ref="R36:Z36" si="105">+R22/N22-1</f>
+        <f t="shared" ref="R36:Z36" si="108">+R22/N22-1</f>
         <v>9.7137159948725182E-2</v>
       </c>
       <c r="S36" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>8.6128894579598825E-2</v>
       </c>
       <c r="T36" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>-8.9582207120241231E-3</v>
       </c>
       <c r="U36" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>-6.1731883034326862E-2</v>
       </c>
       <c r="V36" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="W36" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="X36" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="Y36" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="Z36" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="AC36" s="15"/>
@@ -5584,103 +5630,103 @@
         <v>0.2418652318729182</v>
       </c>
       <c r="AH36" s="15">
-        <f t="shared" ref="AH36:AJ36" si="106">+AH22/AG22-1</f>
+        <f t="shared" ref="AH36:AJ36" si="109">+AH22/AG22-1</f>
         <v>0.2378561767874745</v>
       </c>
       <c r="AI36" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>-1.2185410840941491E-2</v>
       </c>
       <c r="AJ36" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>-1.1867044112408798E-2</v>
       </c>
       <c r="AK36" s="15">
-        <f t="shared" ref="AK36:AS36" si="107">+AK22/AJ22-1</f>
+        <f t="shared" ref="AK36:AS36" si="110">+AK22/AJ22-1</f>
         <v>5.9990893223040187E-2</v>
       </c>
       <c r="AL36" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>-9.2178270986218447E-3</v>
       </c>
       <c r="AM36" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>7.283894860446205E-2</v>
       </c>
       <c r="AN36" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>5.6813780793776525E-2</v>
       </c>
       <c r="AO36" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>0.12885390608817571</v>
       </c>
       <c r="AP36" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>1.576614724480585E-2</v>
       </c>
       <c r="AQ36" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>8.2012089210032668E-2</v>
       </c>
       <c r="AR36" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>1.4858669269395275E-2</v>
       </c>
       <c r="AS36" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>-0.20209050415063778</v>
       </c>
       <c r="AT36" s="15">
-        <f t="shared" ref="AT36:BF36" si="108">+AT22/AS22-1</f>
+        <f t="shared" ref="AT36:BF36" si="111">+AT22/AS22-1</f>
         <v>-0.13997525930155108</v>
       </c>
       <c r="AU36" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>-2.8059305156007963E-2</v>
       </c>
       <c r="AV36" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>0.11329607599836078</v>
       </c>
       <c r="AW36" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>7.0192307692307665E-2</v>
       </c>
       <c r="AX36" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="AY36" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>6.9811320754717077E-2</v>
       </c>
       <c r="AZ36" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BA36" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BB36" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>6.9444444444444642E-2</v>
       </c>
       <c r="BC36" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>6.9090909090909092E-2</v>
       </c>
       <c r="BD36" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>4.9999999999999822E-2</v>
       </c>
       <c r="BE36" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BF36" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BI36" t="s">
@@ -5720,67 +5766,67 @@
       <c r="Z37" s="17"/>
       <c r="AC37" s="15"/>
       <c r="AD37" s="15">
-        <f t="shared" ref="AD37:AI37" si="109">+AD11/AC11-1</f>
+        <f t="shared" ref="AD37:AI37" si="112">+AD11/AC11-1</f>
         <v>0.13900501672240795</v>
       </c>
       <c r="AE37" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>6.7351807671132358E-2</v>
       </c>
       <c r="AF37" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>6.0316368638239304E-2</v>
       </c>
       <c r="AG37" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>0.13802944801193484</v>
       </c>
       <c r="AH37" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>4.1208321459105246E-2</v>
       </c>
       <c r="AI37" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>-3.9139478870155453E-2</v>
       </c>
       <c r="AJ37" s="15">
-        <f t="shared" ref="AJ37:AS37" si="110">+AJ11/AI11-1</f>
+        <f t="shared" ref="AJ37:AS37" si="113">+AJ11/AI11-1</f>
         <v>-9.8729561898251106E-2</v>
       </c>
       <c r="AK37" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>-8.5967130214916754E-3</v>
       </c>
       <c r="AL37" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>-8.2887018617699537E-2</v>
       </c>
       <c r="AM37" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>-6.2500000000000111E-2</v>
       </c>
       <c r="AN37" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>-2.6325546903967267E-2</v>
       </c>
       <c r="AO37" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>-1.1043412033511224E-2</v>
       </c>
       <c r="AP37" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>1.0974201001155315E-2</v>
       </c>
       <c r="AQ37" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.17722338602171006</v>
       </c>
       <c r="AR37" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.10563608127345692</v>
       </c>
       <c r="AS37" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>-0.16878822462177745</v>
       </c>
       <c r="AT37" s="15">
@@ -5844,47 +5890,47 @@
         <v>25</v>
       </c>
       <c r="G39" s="19">
-        <f t="shared" ref="G39:K39" si="111">+G24/G22</f>
+        <f t="shared" ref="G39:K39" si="114">+G24/G22</f>
         <v>0.55172063233873836</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>0.57083184758799854</v>
       </c>
       <c r="I39" s="19">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>0.55992080033347225</v>
       </c>
       <c r="J39" s="19">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>0.53629189399844113</v>
       </c>
       <c r="K39" s="19">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>0.50367787282733067</v>
       </c>
       <c r="L39" s="19">
-        <f t="shared" ref="L39:Q39" si="112">+L24/L22</f>
+        <f t="shared" ref="L39:Q39" si="115">+L24/L22</f>
         <v>0.36466288101298872</v>
       </c>
       <c r="M39" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>0.42606597991915501</v>
       </c>
       <c r="N39" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>0.39168209656744052</v>
       </c>
       <c r="O39" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>0.34212548015364919</v>
       </c>
       <c r="P39" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>0.35817437639972199</v>
       </c>
       <c r="Q39" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>0.42506003672835146</v>
       </c>
       <c r="R39" s="19">
@@ -5908,79 +5954,79 @@
         <v>0.4</v>
       </c>
       <c r="W39" s="19">
-        <f t="shared" ref="W39:Z39" si="113">+W24/W22</f>
+        <f t="shared" ref="W39:Z39" si="116">+W24/W22</f>
         <v>0.4</v>
       </c>
       <c r="X39" s="19">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="Y39" s="19">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.4</v>
       </c>
       <c r="Z39" s="19">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.4</v>
       </c>
       <c r="AB39" s="4">
-        <f t="shared" ref="AB39:AI39" si="114">+AB24/AB22</f>
+        <f t="shared" ref="AB39:AI39" si="117">+AB24/AB22</f>
         <v>0.59364858599907278</v>
       </c>
       <c r="AC39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0.51489457916454695</v>
       </c>
       <c r="AD39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0.51922575259560699</v>
       </c>
       <c r="AE39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0.55456819028361626</v>
       </c>
       <c r="AF39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0.55686508953226865</v>
       </c>
       <c r="AG39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0.65311876762258436</v>
       </c>
       <c r="AH39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0.62514120631863557</v>
       </c>
       <c r="AI39" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0.62149191053786024</v>
       </c>
       <c r="AJ39" s="4">
-        <f t="shared" ref="AJ39" si="115">+AJ24/AJ22</f>
+        <f t="shared" ref="AJ39" si="118">+AJ24/AJ22</f>
         <v>0.5980306594824315</v>
       </c>
       <c r="AK39" s="4">
-        <f t="shared" ref="AK39" si="116">+AK24/AK22</f>
+        <f t="shared" ref="AK39" si="119">+AK24/AK22</f>
         <v>0.6373545731161625</v>
       </c>
       <c r="AL39" s="4">
-        <f t="shared" ref="AL39:AN39" si="117">+AL24/AL22</f>
+        <f t="shared" ref="AL39:AN39" si="120">+AL24/AL22</f>
         <v>0.62648360581699936</v>
       </c>
       <c r="AM39" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>0.60940946671830531</v>
       </c>
       <c r="AN39" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>0.6225044215356671</v>
       </c>
       <c r="AO39" s="4">
-        <f t="shared" ref="AO39:AP39" si="118">+AO24/AO22</f>
+        <f t="shared" ref="AO39:AP39" si="121">+AO24/AO22</f>
         <v>0.61733570460704612</v>
       </c>
       <c r="AP39" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>0.5855624261793928</v>
       </c>
       <c r="AQ39" s="4">
@@ -5996,55 +6042,55 @@
         <v>0.42607923367272499</v>
       </c>
       <c r="AT39" s="21">
-        <f t="shared" ref="AT39:BF39" si="119">+AT24/AT22</f>
+        <f t="shared" ref="AT39:BF39" si="122">+AT24/AT22</f>
         <v>0.40036512502766097</v>
       </c>
       <c r="AU39" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>0.32836923030220239</v>
       </c>
       <c r="AV39" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>0.47999999999999993</v>
       </c>
       <c r="AW39" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>0.48</v>
       </c>
       <c r="AX39" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>0.49</v>
       </c>
       <c r="AY39" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>0.48999999999999994</v>
       </c>
       <c r="AZ39" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>0.5</v>
       </c>
       <c r="BA39" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>0.5</v>
       </c>
       <c r="BB39" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>0.51</v>
       </c>
       <c r="BC39" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>0.51</v>
       </c>
       <c r="BD39" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>0.52</v>
       </c>
       <c r="BE39" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>0.52</v>
       </c>
       <c r="BF39" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>0.53</v>
       </c>
       <c r="BI39" t="s">
@@ -6148,47 +6194,47 @@
       <c r="AT42" s="2"/>
       <c r="AU42" s="2"/>
       <c r="AV42" s="2">
-        <f t="shared" ref="AV42:BF42" si="120">+AU42+AV32</f>
+        <f t="shared" ref="AV42:BF42" si="123">+AU42+AV32</f>
         <v>4777.9084188799989</v>
       </c>
       <c r="AW42" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>10627.419279316</v>
       </c>
       <c r="AX42" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>17687.428375375835</v>
       </c>
       <c r="AY42" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>26159.005568312561</v>
       </c>
       <c r="AZ42" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>36124.046334242754</v>
       </c>
       <c r="BA42" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>47070.661592891141</v>
       </c>
       <c r="BB42" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>60366.259295108277</v>
       </c>
       <c r="BC42" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>75517.825220277038</v>
       </c>
       <c r="BD42" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>92742.604572388649</v>
       </c>
       <c r="BE42" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>111402.98967575142</v>
       </c>
       <c r="BF42" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>132433.43811885975</v>
       </c>
     </row>
@@ -6854,19 +6900,19 @@
         <v>37</v>
       </c>
       <c r="O61" s="5">
-        <f t="shared" ref="O61:R61" si="121">+O32</f>
+        <f t="shared" ref="O61:R61" si="124">+O32</f>
         <v>-1263</v>
       </c>
       <c r="P61" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>-592</v>
       </c>
       <c r="Q61" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>955</v>
       </c>
       <c r="R61" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>1432</v>
       </c>
       <c r="S61" s="5">
@@ -6882,75 +6928,75 @@
         <v>-3305</v>
       </c>
       <c r="AB61" s="2">
-        <f t="shared" ref="AB61:AI61" si="122">+AB32</f>
+        <f t="shared" ref="AB61:AI61" si="125">+AB32</f>
         <v>7705</v>
       </c>
       <c r="AC61" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>3023</v>
       </c>
       <c r="AD61" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>5765</v>
       </c>
       <c r="AE61" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>6782</v>
       </c>
       <c r="AF61" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>4479</v>
       </c>
       <c r="AG61" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>10916</v>
       </c>
       <c r="AH61" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>12706</v>
       </c>
       <c r="AI61" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>10984</v>
       </c>
       <c r="AJ61" s="2">
-        <f t="shared" ref="AJ61:AQ61" si="123">+AJ32</f>
+        <f t="shared" ref="AJ61:AQ61" si="126">+AJ32</f>
         <v>9680</v>
       </c>
       <c r="AK61" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>11882</v>
       </c>
       <c r="AL61" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>11724</v>
       </c>
       <c r="AM61" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>11990</v>
       </c>
       <c r="AN61" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>18262</v>
       </c>
       <c r="AO61" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>21106</v>
       </c>
       <c r="AP61" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>19902</v>
       </c>
       <c r="AQ61" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>19193</v>
       </c>
       <c r="AR61" s="2">
-        <f t="shared" ref="AR61:AS61" si="124">+AR32</f>
+        <f t="shared" ref="AR61:AS61" si="127">+AR32</f>
         <v>19765</v>
       </c>
       <c r="AS61" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>3751</v>
       </c>
     </row>
@@ -8094,83 +8140,83 @@
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
       <c r="AB88" s="6">
-        <f>+AB72-AB74</f>
+        <f t="shared" ref="AB88:AN88" si="128">+AB72-AB74</f>
         <v>8980</v>
       </c>
       <c r="AC88" s="6">
-        <f>+AC72-AC74</f>
+        <f t="shared" si="128"/>
         <v>4772</v>
       </c>
       <c r="AD88" s="6">
-        <f>+AD72-AD74</f>
+        <f t="shared" si="128"/>
         <v>7625</v>
       </c>
       <c r="AE88" s="6">
-        <f>+AE72-AE74</f>
+        <f t="shared" si="128"/>
         <v>5729</v>
       </c>
       <c r="AF88" s="6">
-        <f>+AF72-AF74</f>
+        <f t="shared" si="128"/>
         <v>6655</v>
       </c>
       <c r="AG88" s="6">
-        <f>+AG72-AG74</f>
+        <f t="shared" si="128"/>
         <v>11485</v>
       </c>
       <c r="AH88" s="6">
-        <f>+AH72-AH74</f>
+        <f t="shared" si="128"/>
         <v>15756</v>
       </c>
       <c r="AI88" s="6">
-        <f>+AI72-AI74</f>
+        <f t="shared" si="128"/>
         <v>7857</v>
       </c>
       <c r="AJ88" s="6">
-        <f>+AJ72-AJ74</f>
+        <f t="shared" si="128"/>
         <v>10065</v>
       </c>
       <c r="AK88" s="6">
-        <f>+AK72-AK74</f>
+        <f t="shared" si="128"/>
         <v>10313</v>
       </c>
       <c r="AL88" s="6">
-        <f>+AL72-AL74</f>
+        <f t="shared" si="128"/>
         <v>11691</v>
       </c>
       <c r="AM88" s="6">
-        <f>+AM72-AM74</f>
+        <f t="shared" si="128"/>
         <v>12183</v>
       </c>
       <c r="AN88" s="6">
-        <f>+AN72-AN74</f>
+        <f t="shared" si="128"/>
         <v>10332</v>
       </c>
       <c r="AO88" s="6">
-        <f t="shared" ref="AO88:AU88" si="125">+AO72+AO74</f>
+        <f t="shared" ref="AO88:AU88" si="129">+AO72+AO74</f>
         <v>14251</v>
       </c>
       <c r="AP88" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>16932</v>
       </c>
       <c r="AQ88" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>21605</v>
       </c>
       <c r="AR88" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>10723</v>
       </c>
       <c r="AS88" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>-9411</v>
       </c>
       <c r="AT88" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>-14279</v>
       </c>
       <c r="AU88" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>-15391</v>
       </c>
     </row>
@@ -8179,59 +8225,59 @@
         <v>146</v>
       </c>
       <c r="AH89" s="2">
-        <f>+AH32-AH88</f>
+        <f t="shared" ref="AH89:AU89" si="130">+AH32-AH88</f>
         <v>-3050</v>
       </c>
       <c r="AI89" s="2">
-        <f>+AI32-AI88</f>
+        <f t="shared" si="130"/>
         <v>3127</v>
       </c>
       <c r="AJ89" s="2">
-        <f>+AJ32-AJ88</f>
+        <f t="shared" si="130"/>
         <v>-385</v>
       </c>
       <c r="AK89" s="2">
-        <f>+AK32-AK88</f>
+        <f t="shared" si="130"/>
         <v>1569</v>
       </c>
       <c r="AL89" s="2">
-        <f>+AL32-AL88</f>
+        <f t="shared" si="130"/>
         <v>33</v>
       </c>
       <c r="AM89" s="2">
-        <f>+AM32-AM88</f>
+        <f t="shared" si="130"/>
         <v>-193</v>
       </c>
       <c r="AN89" s="2">
-        <f>+AN32-AN88</f>
+        <f t="shared" si="130"/>
         <v>7930</v>
       </c>
       <c r="AO89" s="2">
-        <f>+AO32-AO88</f>
+        <f t="shared" si="130"/>
         <v>6855</v>
       </c>
       <c r="AP89" s="2">
-        <f>+AP32-AP88</f>
+        <f t="shared" si="130"/>
         <v>2970</v>
       </c>
       <c r="AQ89" s="2">
-        <f>+AQ32-AQ88</f>
+        <f t="shared" si="130"/>
         <v>-2412</v>
       </c>
       <c r="AR89" s="2">
-        <f>+AR32-AR88</f>
+        <f t="shared" si="130"/>
         <v>9042</v>
       </c>
       <c r="AS89" s="2">
-        <f>+AS32-AS88</f>
+        <f t="shared" si="130"/>
         <v>13162</v>
       </c>
       <c r="AT89" s="2">
-        <f>+AT32-AT88</f>
+        <f t="shared" si="130"/>
         <v>14811</v>
       </c>
       <c r="AU89" s="2">
-        <f>+AU32-AU88</f>
+        <f t="shared" si="130"/>
         <v>11365.16</v>
       </c>
     </row>
@@ -8496,13 +8542,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2BD0D8-24FD-4B75-B1E5-024BBD205C90}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8511,14 +8557,15 @@
     <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
     <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
         <v>161</v>
       </c>
@@ -8528,48 +8575,96 @@
       <c r="D2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="22">
+        <v>12160492</v>
+      </c>
+      <c r="C3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="22">
         <v>12160369</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>240</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="22">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="22">
+        <v>12160368</v>
+      </c>
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="22">
         <v>12159813</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>168</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="22">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="22">
         <v>12159353</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>166</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="22">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="22">
+        <v>12159901</v>
+      </c>
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="23">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="22">
         <v>12158966</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C9" t="s">
         <v>163</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D9" t="s">
         <v>165</v>
       </c>
     </row>
@@ -8583,16 +8678,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5741E709-AF31-4C11-ADE4-79FCB1E77C73}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -8768,146 +8863,184 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>204</v>
-      </c>
-      <c r="C31" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>210</v>
+        <v>226</v>
+      </c>
+      <c r="C32" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>238</v>
+        <v>204</v>
+      </c>
+      <c r="C33" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>229</v>
+        <v>178</v>
+      </c>
+      <c r="C37" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>200</v>
+        <v>172</v>
+      </c>
+      <c r="C38" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>219</v>
+        <v>223</v>
+      </c>
+      <c r="C39" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>217</v>
+        <v>242</v>
+      </c>
+      <c r="C40" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>191</v>
-      </c>
-      <c r="C44" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C46" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C47" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>220</v>
       </c>
     </row>

--- a/INTC.xlsx
+++ b/INTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78E955A-A781-45C2-9596-69147B9BF8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5927CE9B-B2E3-45F8-AF7B-E76AF5B38907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27120" yWindow="1260" windowWidth="25845" windowHeight="19815" activeTab="4" xr2:uid="{2060C4C8-3805-4E23-AE6B-F728D7027876}"/>
+    <workbookView xWindow="-25320" yWindow="855" windowWidth="25080" windowHeight="19755" xr2:uid="{2060C4C8-3805-4E23-AE6B-F728D7027876}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="260">
   <si>
     <t>Price</t>
   </si>
@@ -871,6 +871,9 @@
   </si>
   <si>
     <t>transistor, trigate</t>
+  </si>
+  <si>
+    <t>Tangible Book</t>
   </si>
 </sst>
 </file>
@@ -1431,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345AE7DF-8440-4CDE-A9CC-8CE68EF0CE24}">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1443,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>20</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -1469,7 +1472,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>85340</v>
+        <v>80560.959999999992</v>
       </c>
       <c r="M4" s="3"/>
     </row>
@@ -1510,7 +1513,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>103272</v>
+        <v>98492.959999999992</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1633,13 +1636,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B929D04B-6226-42F4-9686-EE1156E609DE}">
-  <dimension ref="A1:EF91"/>
+  <dimension ref="A1:EF95"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AT16" sqref="AT16"/>
+      <selection pane="bottomRight" activeCell="U96" sqref="U96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6158,7 +6161,7 @@
       <c r="BF40" s="4"/>
       <c r="BJ40" s="4">
         <f>+BJ39/Main!L2-1</f>
-        <v>0.8308901054354465</v>
+        <v>0.93950223033415958</v>
       </c>
     </row>
     <row r="42" spans="2:62" x14ac:dyDescent="0.2">
@@ -8295,6 +8298,15 @@
       </c>
       <c r="T91" s="5">
         <v>125300</v>
+      </c>
+    </row>
+    <row r="95" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>259</v>
+      </c>
+      <c r="U95" s="5">
+        <f>+U58-U48</f>
+        <v>76209</v>
       </c>
     </row>
   </sheetData>
@@ -8680,7 +8692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5741E709-AF31-4C11-ADE4-79FCB1E77C73}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/INTC.xlsx
+++ b/INTC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5927CE9B-B2E3-45F8-AF7B-E76AF5B38907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B76C796-3C6D-4E31-8232-5E80E46FBE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="855" windowWidth="25080" windowHeight="19755" xr2:uid="{2060C4C8-3805-4E23-AE6B-F728D7027876}"/>
+    <workbookView xWindow="-46335" yWindow="660" windowWidth="26610" windowHeight="13410" activeTab="1" xr2:uid="{2060C4C8-3805-4E23-AE6B-F728D7027876}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <author>tc={53CD2C1B-5EFB-433B-8341-4E710A5D9E0D}</author>
     <author>tc={4AF041F6-2BD0-46AD-AD03-05C15165F132}</author>
     <author>tc={7EE51CAC-1EE9-40D6-A4B0-06A92694160C}</author>
+    <author>tc={955D5229-7487-466C-B93B-BCA8A826F0B7}</author>
     <author>tc={BEA6A42C-CEC1-47E1-B002-6B6D239FF53A}</author>
   </authors>
   <commentList>
@@ -81,7 +82,15 @@
     Q224: 12.5B-13.5B</t>
       </text>
     </comment>
-    <comment ref="O24" authorId="4" shapeId="0" xr:uid="{BEA6A42C-CEC1-47E1-B002-6B6D239FF53A}">
+    <comment ref="V22" authorId="4" shapeId="0" xr:uid="{955D5229-7487-466C-B93B-BCA8A826F0B7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q324 guidance: 13.3-14.3</t>
+      </text>
+    </comment>
+    <comment ref="O24" authorId="5" shapeId="0" xr:uid="{BEA6A42C-CEC1-47E1-B002-6B6D239FF53A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -883,7 +892,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -917,6 +926,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1424,6 +1439,9 @@
   <threadedComment ref="U22" dT="2024-08-03T18:40:43.02" personId="{885FAFCD-EA21-4344-9B78-0E93CEEF76F9}" id="{7EE51CAC-1EE9-40D6-A4B0-06A92694160C}">
     <text>Q224: 12.5B-13.5B</text>
   </threadedComment>
+  <threadedComment ref="V22" dT="2025-01-30T20:52:10.59" personId="{885FAFCD-EA21-4344-9B78-0E93CEEF76F9}" id="{955D5229-7487-466C-B93B-BCA8A826F0B7}">
+    <text>Q324 guidance: 13.3-14.3</text>
+  </threadedComment>
   <threadedComment ref="O24" dT="2023-02-01T15:28:03.45" personId="{885FAFCD-EA21-4344-9B78-0E93CEEF76F9}" id="{BEA6A42C-CEC1-47E1-B002-6B6D239FF53A}">
     <text>39% GM non-gaap given Q422</text>
   </threadedComment>
@@ -1434,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345AE7DF-8440-4CDE-A9CC-8CE68EF0CE24}">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1446,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>18.88</v>
+        <v>19.91</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -1472,7 +1490,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>80560.959999999992</v>
+        <v>84955.97</v>
       </c>
       <c r="M4" s="3"/>
     </row>
@@ -1513,7 +1531,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>98492.959999999992</v>
+        <v>102887.97</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1638,11 +1656,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B929D04B-6226-42F4-9686-EE1156E609DE}">
   <dimension ref="A1:EF95"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q59" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U96" sqref="U96"/>
+      <selection pane="bottomRight" activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6161,7 +6179,7 @@
       <c r="BF40" s="4"/>
       <c r="BJ40" s="4">
         <f>+BJ39/Main!L2-1</f>
-        <v>0.93950223033415958</v>
+        <v>0.83916635402857498</v>
       </c>
     </row>
     <row r="42" spans="2:62" x14ac:dyDescent="0.2">

--- a/INTC.xlsx
+++ b/INTC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B76C796-3C6D-4E31-8232-5E80E46FBE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7733445-1A3B-4843-B586-F03B5EE729BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46335" yWindow="660" windowWidth="26610" windowHeight="13410" activeTab="1" xr2:uid="{2060C4C8-3805-4E23-AE6B-F728D7027876}"/>
+    <workbookView xWindow="47380" yWindow="4160" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{2060C4C8-3805-4E23-AE6B-F728D7027876}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -892,7 +892,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -926,12 +926,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1073,14 +1067,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>59464</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>24430</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>59464</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>24430</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>107156</xdr:rowOff>
     </xdr:to>
@@ -1097,8 +1091,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13210533" y="0"/>
-          <a:ext cx="0" cy="13080863"/>
+          <a:off x="14432361" y="0"/>
+          <a:ext cx="0" cy="15049363"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1456,9 +1450,9 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="K2" t="s">
         <v>0</v>
@@ -1467,7 +1461,7 @@
         <v>19.91</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>106</v>
       </c>
@@ -1481,7 +1475,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -1494,7 +1488,7 @@
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>66</v>
       </c>
@@ -1508,7 +1502,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>67</v>
       </c>
@@ -1522,7 +1516,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>107</v>
       </c>
@@ -1534,32 +1528,32 @@
         <v>102887.97</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>108</v>
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>145</v>
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>68</v>
       </c>
@@ -1567,7 +1561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>132</v>
       </c>
@@ -1575,12 +1569,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>52</v>
       </c>
@@ -1588,7 +1582,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -1596,7 +1590,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
         <v>134</v>
       </c>
@@ -1604,7 +1598,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>137</v>
       </c>
@@ -1612,37 +1606,37 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>144</v>
       </c>
@@ -1657,26 +1651,26 @@
   <dimension ref="A1:EF95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W22" sqref="W22"/>
+      <selection pane="bottomRight" activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="26" width="9.140625" style="3"/>
-    <col min="62" max="62" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="9.1796875" style="3"/>
+    <col min="62" max="62" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1877,7 +1871,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>71</v>
       </c>
@@ -1950,7 +1944,7 @@
         <v>183807.69082469106</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -2011,7 +2005,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>36</v>
       </c>
@@ -2056,7 +2050,7 @@
         <v>26923</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>70</v>
       </c>
@@ -2120,7 +2114,7 @@
         <v>21200</v>
       </c>
     </row>
-    <row r="7" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>98</v>
       </c>
@@ -2154,7 +2148,7 @@
       <c r="AS7" s="10"/>
       <c r="AT7" s="10"/>
     </row>
-    <row r="8" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>99</v>
       </c>
@@ -2188,7 +2182,7 @@
       <c r="AS8" s="10"/>
       <c r="AT8" s="10"/>
     </row>
-    <row r="9" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>101</v>
       </c>
@@ -2261,7 +2255,7 @@
         <v>75428</v>
       </c>
     </row>
-    <row r="10" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>102</v>
       </c>
@@ -2334,7 +2328,7 @@
         <v>0.71893726467624752</v>
       </c>
     </row>
-    <row r="11" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>100</v>
       </c>
@@ -2417,7 +2411,7 @@
         <v>241.89</v>
       </c>
     </row>
-    <row r="12" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>104</v>
       </c>
@@ -2518,7 +2512,7 @@
         <v>224.18454669477862</v>
       </c>
     </row>
-    <row r="13" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -2547,7 +2541,7 @@
       <c r="AR13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>60</v>
       </c>
@@ -2582,7 +2576,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>59</v>
       </c>
@@ -2617,7 +2611,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>58</v>
       </c>
@@ -2652,7 +2646,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="17" spans="2:136" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>57</v>
       </c>
@@ -2687,7 +2681,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="18" spans="2:136" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>56</v>
       </c>
@@ -2724,7 +2718,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="2:136" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>55</v>
       </c>
@@ -2759,7 +2753,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="20" spans="2:136" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:136" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
@@ -2811,7 +2805,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="21" spans="2:136" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:136" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
@@ -2863,7 +2857,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="22" spans="2:136" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:136" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
@@ -2921,8 +2915,8 @@
         <v>13865.4</v>
       </c>
       <c r="W22" s="7">
-        <f>+S22*0.9</f>
-        <v>11451.6</v>
+        <f>+S22*0.97</f>
+        <v>12342.279999999999</v>
       </c>
       <c r="X22" s="7">
         <f>+T22*0.9</f>
@@ -3043,7 +3037,7 @@
         <v>102932.306861827</v>
       </c>
     </row>
-    <row r="23" spans="2:136" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:136" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
@@ -3102,7 +3096,7 @@
       </c>
       <c r="W23" s="5">
         <f>+W22-W24</f>
-        <v>6870.96</v>
+        <v>7158.5223999999998</v>
       </c>
       <c r="X23" s="5">
         <f>+X22-X24</f>
@@ -3179,7 +3173,7 @@
         <v>35399.24</v>
       </c>
     </row>
-    <row r="24" spans="2:136" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:136" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
@@ -3252,8 +3246,8 @@
         <v>5546.16</v>
       </c>
       <c r="W24" s="5">
-        <f>+W22*0.4</f>
-        <v>4580.6400000000003</v>
+        <f>+W22*0.42</f>
+        <v>5183.757599999999</v>
       </c>
       <c r="X24" s="5">
         <f>+X22*0.4</f>
@@ -3392,7 +3386,7 @@
         <v>54554.122636768312</v>
       </c>
     </row>
-    <row r="25" spans="2:136" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
@@ -3444,7 +3438,10 @@
       <c r="V25" s="5">
         <v>3750</v>
       </c>
-      <c r="W25" s="5"/>
+      <c r="W25" s="5">
+        <f>+S25*0.9</f>
+        <v>3943.8</v>
+      </c>
       <c r="X25" s="5"/>
       <c r="AB25" s="2">
         <v>5145</v>
@@ -3553,7 +3550,7 @@
         <v>22729.120157295401</v>
       </c>
     </row>
-    <row r="26" spans="2:136" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
@@ -3605,7 +3602,10 @@
       <c r="V26" s="5">
         <v>1000</v>
       </c>
-      <c r="W26" s="5"/>
+      <c r="W26" s="5">
+        <f>+S26*0.85</f>
+        <v>1322.6</v>
+      </c>
       <c r="X26" s="5"/>
       <c r="AB26" s="2">
         <v>5688</v>
@@ -3714,7 +3714,7 @@
         <v>7292.1440309763821</v>
       </c>
     </row>
-    <row r="27" spans="2:136" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="W27" s="5">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>5266.4</v>
       </c>
       <c r="X27" s="5">
         <f t="shared" ref="X27:Z27" si="23">+X25+X26</f>
@@ -3923,7 +3923,7 @@
         <v>30021.264188271783</v>
       </c>
     </row>
-    <row r="28" spans="2:136" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="W28" s="5">
         <f t="shared" si="37"/>
-        <v>4580.6400000000003</v>
+        <v>-82.642400000000634</v>
       </c>
       <c r="X28" s="5">
         <f t="shared" ref="X28:Z28" si="38">+X24-X27</f>
@@ -4132,7 +4132,7 @@
         <v>24532.858448496529</v>
       </c>
     </row>
-    <row r="29" spans="2:136" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
@@ -4180,6 +4180,9 @@
       </c>
       <c r="U29" s="3">
         <v>130</v>
+      </c>
+      <c r="W29" s="3">
+        <v>150</v>
       </c>
       <c r="AB29" s="2">
         <v>-565</v>
@@ -4276,7 +4279,7 @@
         <v>1114.0298967575143</v>
       </c>
     </row>
-    <row r="30" spans="2:136" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
@@ -4346,7 +4349,7 @@
       </c>
       <c r="W30" s="5">
         <f t="shared" si="49"/>
-        <v>4580.6400000000003</v>
+        <v>67.357599999999366</v>
       </c>
       <c r="X30" s="5">
         <f t="shared" si="49"/>
@@ -4486,7 +4489,7 @@
       </c>
       <c r="BG30" s="2"/>
     </row>
-    <row r="31" spans="2:136" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
@@ -4533,6 +4536,9 @@
         <v>0</v>
       </c>
       <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
         <v>0</v>
       </c>
       <c r="AB31" s="2">
@@ -4642,7 +4648,7 @@
         <v>4616.4399021457275</v>
       </c>
     </row>
-    <row r="32" spans="2:136" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
@@ -4712,7 +4718,7 @@
       </c>
       <c r="W32" s="5">
         <f t="shared" si="60"/>
-        <v>4580.6400000000003</v>
+        <v>67.357599999999366</v>
       </c>
       <c r="X32" s="5">
         <f t="shared" si="60"/>
@@ -5163,7 +5169,7 @@
         <v>45699.946170235751</v>
       </c>
     </row>
-    <row r="33" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
@@ -5233,7 +5239,7 @@
       </c>
       <c r="W33" s="16">
         <f t="shared" si="84"/>
-        <v>1.0672506989748369</v>
+        <v>1.569375582479016E-2</v>
       </c>
       <c r="X33" s="16">
         <f t="shared" si="84"/>
@@ -5372,7 +5378,7 @@
         <v>4.9214177600440685</v>
       </c>
     </row>
-    <row r="34" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
@@ -5548,7 +5554,7 @@
         <v>4273.25</v>
       </c>
     </row>
-    <row r="35" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:62" x14ac:dyDescent="0.25">
       <c r="AW35" s="4"/>
       <c r="BI35" t="s">
         <v>73</v>
@@ -5557,7 +5563,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="36" spans="2:62" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:62" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>24</v>
       </c>
@@ -5619,7 +5625,7 @@
       </c>
       <c r="W36" s="17">
         <f t="shared" si="108"/>
-        <v>-9.9999999999999978E-2</v>
+        <v>-3.0000000000000138E-2</v>
       </c>
       <c r="X36" s="17">
         <f t="shared" si="108"/>
@@ -5757,7 +5763,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="2:62" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:62" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>103</v>
       </c>
@@ -5873,7 +5879,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>63</v>
       </c>
@@ -5906,7 +5912,7 @@
         <v>156248.16159786101</v>
       </c>
     </row>
-    <row r="39" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>25</v>
       </c>
@@ -5976,7 +5982,7 @@
       </c>
       <c r="W39" s="19">
         <f t="shared" ref="W39:Z39" si="116">+W24/W22</f>
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="X39" s="19">
         <f t="shared" si="116"/>
@@ -6122,7 +6128,7 @@
         <v>36.617802108708929</v>
       </c>
     </row>
-    <row r="40" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>105</v>
       </c>
@@ -6182,7 +6188,7 @@
         <v>0.83916635402857498</v>
       </c>
     </row>
-    <row r="42" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>76</v>
       </c>
@@ -6259,7 +6265,7 @@
         <v>132433.43811885975</v>
       </c>
     </row>
-    <row r="43" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>3</v>
       </c>
@@ -6304,7 +6310,7 @@
       <c r="BF43" s="2"/>
       <c r="BJ43" s="4"/>
     </row>
-    <row r="44" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>85</v>
       </c>
@@ -6343,7 +6349,7 @@
       <c r="BF44" s="2"/>
       <c r="BJ44" s="4"/>
     </row>
-    <row r="45" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>86</v>
       </c>
@@ -6382,7 +6388,7 @@
       <c r="BF45" s="2"/>
       <c r="BJ45" s="4"/>
     </row>
-    <row r="46" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>87</v>
       </c>
@@ -6421,7 +6427,7 @@
       <c r="BF46" s="2"/>
       <c r="BJ46" s="4"/>
     </row>
-    <row r="47" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>88</v>
       </c>
@@ -6460,7 +6466,7 @@
       <c r="BF47" s="2"/>
       <c r="BJ47" s="4"/>
     </row>
-    <row r="48" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>89</v>
       </c>
@@ -6505,7 +6511,7 @@
       <c r="BF48" s="2"/>
       <c r="BJ48" s="4"/>
     </row>
-    <row r="49" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>90</v>
       </c>
@@ -6544,7 +6550,7 @@
       <c r="BF49" s="2"/>
       <c r="BJ49" s="4"/>
     </row>
-    <row r="50" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>91</v>
       </c>
@@ -6589,7 +6595,7 @@
       <c r="BF50" s="2"/>
       <c r="BJ50" s="4"/>
     </row>
-    <row r="51" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:62" x14ac:dyDescent="0.25">
       <c r="AS51" s="2"/>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2"/>
@@ -6606,7 +6612,7 @@
       <c r="BF51" s="2"/>
       <c r="BJ51" s="4"/>
     </row>
-    <row r="52" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>4</v>
       </c>
@@ -6651,7 +6657,7 @@
       <c r="BF52" s="2"/>
       <c r="BJ52" s="4"/>
     </row>
-    <row r="53" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>94</v>
       </c>
@@ -6690,7 +6696,7 @@
       <c r="BF53" s="2"/>
       <c r="BJ53" s="4"/>
     </row>
-    <row r="54" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>95</v>
       </c>
@@ -6729,7 +6735,7 @@
       <c r="BF54" s="2"/>
       <c r="BJ54" s="4"/>
     </row>
-    <row r="55" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>33</v>
       </c>
@@ -6769,7 +6775,7 @@
       <c r="BF55" s="2"/>
       <c r="BJ55" s="4"/>
     </row>
-    <row r="56" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>96</v>
       </c>
@@ -6808,7 +6814,7 @@
       <c r="BF56" s="2"/>
       <c r="BJ56" s="4"/>
     </row>
-    <row r="57" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>97</v>
       </c>
@@ -6847,7 +6853,7 @@
       <c r="BF57" s="2"/>
       <c r="BJ57" s="4"/>
     </row>
-    <row r="58" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>93</v>
       </c>
@@ -6886,7 +6892,7 @@
       <c r="BF58" s="2"/>
       <c r="BJ58" s="4"/>
     </row>
-    <row r="59" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>92</v>
       </c>
@@ -6916,7 +6922,7 @@
         <v>193542</v>
       </c>
     </row>
-    <row r="61" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>37</v>
       </c>
@@ -7021,7 +7027,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="62" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>38</v>
       </c>
@@ -7102,7 +7108,7 @@
         <v>8017</v>
       </c>
     </row>
-    <row r="63" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>40</v>
       </c>
@@ -7141,7 +7147,7 @@
         <v>11128</v>
       </c>
     </row>
-    <row r="64" spans="2:62" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>41</v>
       </c>
@@ -7180,7 +7186,7 @@
         <v>3128</v>
       </c>
     </row>
-    <row r="65" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>42</v>
       </c>
@@ -7219,7 +7225,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="66" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>43</v>
       </c>
@@ -7258,7 +7264,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="67" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>44</v>
       </c>
@@ -7297,7 +7303,7 @@
         <v>-4254</v>
       </c>
     </row>
-    <row r="68" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>151</v>
       </c>
@@ -7327,7 +7333,7 @@
       <c r="AR68" s="2"/>
       <c r="AS68" s="2"/>
     </row>
-    <row r="69" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>152</v>
       </c>
@@ -7357,7 +7363,7 @@
       <c r="AR69" s="2"/>
       <c r="AS69" s="2"/>
     </row>
-    <row r="70" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>45</v>
       </c>
@@ -7392,7 +7398,7 @@
         <v>-1059</v>
       </c>
     </row>
-    <row r="71" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>46</v>
       </c>
@@ -7436,7 +7442,7 @@
         <v>-4508</v>
       </c>
     </row>
-    <row r="72" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>39</v>
       </c>
@@ -7535,7 +7541,7 @@
         <v>9177</v>
       </c>
     </row>
-    <row r="73" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
@@ -7543,7 +7549,7 @@
       <c r="AK73" s="2"/>
       <c r="AL73" s="2"/>
     </row>
-    <row r="74" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>47</v>
       </c>
@@ -7652,7 +7658,7 @@
         <v>-24568</v>
       </c>
     </row>
-    <row r="75" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>154</v>
       </c>
@@ -7690,7 +7696,7 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>45</v>
       </c>
@@ -7727,7 +7733,7 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>153</v>
       </c>
@@ -7765,7 +7771,7 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
@@ -7794,7 +7800,7 @@
       <c r="AT78" s="2"/>
       <c r="AU78" s="2"/>
     </row>
-    <row r="79" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>4</v>
       </c>
@@ -7832,7 +7838,7 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
     </row>
-    <row r="80" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>156</v>
       </c>
@@ -7869,7 +7875,7 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
     </row>
-    <row r="81" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>58</v>
       </c>
@@ -7906,7 +7912,7 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>157</v>
       </c>
@@ -7942,7 +7948,7 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>158</v>
       </c>
@@ -7979,7 +7985,7 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
     </row>
-    <row r="84" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>159</v>
       </c>
@@ -8016,7 +8022,7 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>155</v>
       </c>
@@ -8054,7 +8060,7 @@
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
     </row>
-    <row r="86" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>160</v>
       </c>
@@ -8097,7 +8103,7 @@
       <c r="AT86" s="2"/>
       <c r="AU86" s="2"/>
     </row>
-    <row r="87" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
@@ -8126,7 +8132,7 @@
       <c r="AT87" s="2"/>
       <c r="AU87" s="2"/>
     </row>
-    <row r="88" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:47" ht="13" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>48</v>
       </c>
@@ -8241,7 +8247,7 @@
         <v>-15391</v>
       </c>
     </row>
-    <row r="89" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>146</v>
       </c>
@@ -8302,7 +8308,7 @@
         <v>11365.16</v>
       </c>
     </row>
-    <row r="91" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>84</v>
       </c>
@@ -8318,7 +8324,7 @@
         <v>125300</v>
       </c>
     </row>
-    <row r="95" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>259</v>
       </c>
@@ -8345,23 +8351,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>110</v>
       </c>
@@ -8375,7 +8381,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>111</v>
       </c>
@@ -8392,7 +8398,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>115</v>
       </c>
@@ -8409,7 +8415,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>117</v>
       </c>
@@ -8426,7 +8432,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>118</v>
       </c>
@@ -8443,7 +8449,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>119</v>
       </c>
@@ -8460,7 +8466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>120</v>
       </c>
@@ -8477,7 +8483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>121</v>
       </c>
@@ -8494,7 +8500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>122</v>
       </c>
@@ -8511,7 +8517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>127</v>
       </c>
@@ -8525,7 +8531,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>123</v>
       </c>
@@ -8536,7 +8542,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>126</v>
       </c>
@@ -8547,17 +8553,17 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>131</v>
       </c>
@@ -8581,21 +8587,21 @@
       <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="50.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
         <v>161</v>
       </c>
@@ -8612,7 +8618,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="22">
         <v>12160492</v>
       </c>
@@ -8626,7 +8632,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="22">
         <v>12160369</v>
       </c>
@@ -8637,7 +8643,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="22">
         <v>12160368</v>
       </c>
@@ -8651,7 +8657,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="22">
         <v>12159813</v>
       </c>
@@ -8662,7 +8668,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="22">
         <v>12159353</v>
       </c>
@@ -8673,7 +8679,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="22">
         <v>12159901</v>
       </c>
@@ -8687,7 +8693,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="22">
         <v>12158966</v>
       </c>
@@ -8714,30 +8720,30 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" t="s">
         <v>232</v>
@@ -8746,13 +8752,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" t="s">
         <v>234</v>
@@ -8761,7 +8767,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>183</v>
       </c>
@@ -8769,7 +8775,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>193</v>
       </c>
@@ -8777,7 +8783,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>208</v>
       </c>
@@ -8785,17 +8791,17 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>211</v>
       </c>
@@ -8803,7 +8809,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>194</v>
       </c>
@@ -8811,22 +8817,22 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>214</v>
       </c>
@@ -8834,7 +8840,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>170</v>
       </c>
@@ -8842,17 +8848,17 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>221</v>
       </c>
@@ -8860,22 +8866,22 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>203</v>
       </c>
@@ -8883,7 +8889,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>236</v>
       </c>
@@ -8891,22 +8897,22 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>180</v>
       </c>
@@ -8914,12 +8920,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>226</v>
       </c>
@@ -8927,7 +8933,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>204</v>
       </c>
@@ -8935,22 +8941,22 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>178</v>
       </c>
@@ -8958,7 +8964,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>172</v>
       </c>
@@ -8966,7 +8972,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>223</v>
       </c>
@@ -8974,7 +8980,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>242</v>
       </c>
@@ -8982,42 +8988,42 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>191</v>
       </c>
@@ -9025,7 +9031,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>198</v>
       </c>
@@ -9033,22 +9039,22 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>186</v>
       </c>
@@ -9056,7 +9062,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>182</v>
       </c>
@@ -9064,12 +9070,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>220</v>
       </c>

--- a/INTC.xlsx
+++ b/INTC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7733445-1A3B-4843-B586-F03B5EE729BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A419AD90-E155-484D-86C6-5B748DA2EB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47380" yWindow="4160" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{2060C4C8-3805-4E23-AE6B-F728D7027876}"/>
+    <workbookView xWindow="-47355" yWindow="1095" windowWidth="19185" windowHeight="18465" activeTab="2" xr2:uid="{2060C4C8-3805-4E23-AE6B-F728D7027876}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="277">
   <si>
     <t>Price</t>
   </si>
@@ -883,6 +883,57 @@
   </si>
   <si>
     <t>Tangible Book</t>
+  </si>
+  <si>
+    <t>i9 270H</t>
+  </si>
+  <si>
+    <t>i7 251TE</t>
+  </si>
+  <si>
+    <t>i7 251E</t>
+  </si>
+  <si>
+    <t>i7 250U</t>
+  </si>
+  <si>
+    <t>i7 250H</t>
+  </si>
+  <si>
+    <t>i7 240H</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Cache (MB)</t>
+  </si>
+  <si>
+    <t>i9 14900T</t>
+  </si>
+  <si>
+    <t>i9 14900K</t>
+  </si>
+  <si>
+    <t>i9 14900KF</t>
+  </si>
+  <si>
+    <t>i9 14900HX</t>
+  </si>
+  <si>
+    <t>i9 14901E</t>
+  </si>
+  <si>
+    <t>i9 14901KE</t>
+  </si>
+  <si>
+    <t>Xeon 6527P</t>
+  </si>
+  <si>
+    <t>Xeon 6745P</t>
+  </si>
+  <si>
+    <t>Xeon 6944P</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B929D04B-6226-42F4-9686-EE1156E609DE}">
   <dimension ref="A1:EF95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="Q17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -8345,10 +8396,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B07B6BD-4FEB-4E55-92ED-F7D313998745}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8566,6 +8617,212 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25">
+        <v>5800</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26">
+        <v>5400</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27">
+        <v>5600</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28">
+        <v>5400</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29">
+        <v>5400</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30">
+        <v>5200</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31">
+        <v>5500</v>
+      </c>
+      <c r="D31">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32">
+        <v>6000</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33">
+        <v>6000</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C34">
+        <v>5800</v>
+      </c>
+      <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>272</v>
+      </c>
+      <c r="C35">
+        <v>5600</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36">
+        <v>5800</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37">
+        <v>4300</v>
+      </c>
+      <c r="D37">
+        <v>32</v>
+      </c>
+      <c r="E37">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C38">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39">
+        <v>3900</v>
+      </c>
+      <c r="D39">
+        <v>72</v>
+      </c>
+      <c r="E39">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
